--- a/templates/naklad.xlsx
+++ b/templates/naklad.xlsx
@@ -211,7 +211,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -424,6 +424,12 @@
       <sz val="10"/>
       <name val="Arial Cyr"/>
       <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
       <charset val="204"/>
     </font>
   </fonts>
@@ -943,7 +949,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1017,6 +1023,106 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1029,108 +1135,11 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1543,8 +1552,8 @@
   </sheetPr>
   <dimension ref="A1:CU37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN39" sqref="AN39"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1592,41 +1601,41 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="35" t="s">
+      <c r="AC4" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="35"/>
-      <c r="AE4" s="35"/>
-      <c r="AF4" s="35"/>
-      <c r="AG4" s="35"/>
-      <c r="AH4" s="35"/>
-      <c r="AI4" s="35"/>
-      <c r="AJ4" s="35"/>
-      <c r="AK4" s="35"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="35"/>
-      <c r="AN4" s="35"/>
-      <c r="AO4" s="35"/>
-      <c r="AP4" s="35"/>
-      <c r="AQ4" s="35"/>
-      <c r="AR4" s="35"/>
-      <c r="AS4" s="35"/>
-      <c r="AT4" s="35"/>
-      <c r="AU4" s="35"/>
-      <c r="AV4" s="35"/>
-      <c r="AW4" s="35"/>
-      <c r="AX4" s="35"/>
-      <c r="AY4" s="35"/>
-      <c r="AZ4" s="35"/>
-      <c r="BA4" s="36"/>
-      <c r="BB4" s="36"/>
-      <c r="BC4" s="36"/>
-      <c r="BD4" s="36"/>
-      <c r="BE4" s="36"/>
-      <c r="BF4" s="36"/>
-      <c r="BG4" s="36"/>
-      <c r="BH4" s="36"/>
-      <c r="BI4" s="36"/>
+      <c r="AD4" s="69"/>
+      <c r="AE4" s="69"/>
+      <c r="AF4" s="69"/>
+      <c r="AG4" s="69"/>
+      <c r="AH4" s="69"/>
+      <c r="AI4" s="69"/>
+      <c r="AJ4" s="69"/>
+      <c r="AK4" s="69"/>
+      <c r="AL4" s="69"/>
+      <c r="AM4" s="69"/>
+      <c r="AN4" s="69"/>
+      <c r="AO4" s="69"/>
+      <c r="AP4" s="69"/>
+      <c r="AQ4" s="69"/>
+      <c r="AR4" s="69"/>
+      <c r="AS4" s="69"/>
+      <c r="AT4" s="69"/>
+      <c r="AU4" s="69"/>
+      <c r="AV4" s="69"/>
+      <c r="AW4" s="69"/>
+      <c r="AX4" s="69"/>
+      <c r="AY4" s="69"/>
+      <c r="AZ4" s="69"/>
+      <c r="BA4" s="70"/>
+      <c r="BB4" s="70"/>
+      <c r="BC4" s="70"/>
+      <c r="BD4" s="70"/>
+      <c r="BE4" s="70"/>
+      <c r="BF4" s="70"/>
+      <c r="BG4" s="70"/>
+      <c r="BH4" s="70"/>
+      <c r="BI4" s="70"/>
       <c r="CA4" s="4"/>
       <c r="CB4" s="4"/>
       <c r="CC4" s="4"/>
@@ -1678,39 +1687,39 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="35"/>
-      <c r="AD5" s="35"/>
-      <c r="AE5" s="35"/>
-      <c r="AF5" s="35"/>
-      <c r="AG5" s="35"/>
-      <c r="AH5" s="35"/>
-      <c r="AI5" s="35"/>
-      <c r="AJ5" s="35"/>
-      <c r="AK5" s="35"/>
-      <c r="AL5" s="35"/>
-      <c r="AM5" s="35"/>
-      <c r="AN5" s="35"/>
-      <c r="AO5" s="35"/>
-      <c r="AP5" s="35"/>
-      <c r="AQ5" s="35"/>
-      <c r="AR5" s="35"/>
-      <c r="AS5" s="35"/>
-      <c r="AT5" s="35"/>
-      <c r="AU5" s="35"/>
-      <c r="AV5" s="35"/>
-      <c r="AW5" s="35"/>
-      <c r="AX5" s="35"/>
-      <c r="AY5" s="35"/>
-      <c r="AZ5" s="35"/>
-      <c r="BA5" s="36"/>
-      <c r="BB5" s="36"/>
-      <c r="BC5" s="36"/>
-      <c r="BD5" s="36"/>
-      <c r="BE5" s="36"/>
-      <c r="BF5" s="36"/>
-      <c r="BG5" s="36"/>
-      <c r="BH5" s="36"/>
-      <c r="BI5" s="36"/>
+      <c r="AC5" s="69"/>
+      <c r="AD5" s="69"/>
+      <c r="AE5" s="69"/>
+      <c r="AF5" s="69"/>
+      <c r="AG5" s="69"/>
+      <c r="AH5" s="69"/>
+      <c r="AI5" s="69"/>
+      <c r="AJ5" s="69"/>
+      <c r="AK5" s="69"/>
+      <c r="AL5" s="69"/>
+      <c r="AM5" s="69"/>
+      <c r="AN5" s="69"/>
+      <c r="AO5" s="69"/>
+      <c r="AP5" s="69"/>
+      <c r="AQ5" s="69"/>
+      <c r="AR5" s="69"/>
+      <c r="AS5" s="69"/>
+      <c r="AT5" s="69"/>
+      <c r="AU5" s="69"/>
+      <c r="AV5" s="69"/>
+      <c r="AW5" s="69"/>
+      <c r="AX5" s="69"/>
+      <c r="AY5" s="69"/>
+      <c r="AZ5" s="69"/>
+      <c r="BA5" s="70"/>
+      <c r="BB5" s="70"/>
+      <c r="BC5" s="70"/>
+      <c r="BD5" s="70"/>
+      <c r="BE5" s="70"/>
+      <c r="BF5" s="70"/>
+      <c r="BG5" s="70"/>
+      <c r="BH5" s="70"/>
+      <c r="BI5" s="70"/>
       <c r="CA5" s="4"/>
       <c r="CB5" s="4"/>
       <c r="CC5" s="4"/>
@@ -1722,35 +1731,35 @@
       <c r="CI5" s="4"/>
       <c r="CJ5" s="4"/>
       <c r="CK5" s="4"/>
-      <c r="CL5" s="37" t="s">
+      <c r="CL5" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="CM5" s="37"/>
-      <c r="CN5" s="37"/>
-      <c r="CO5" s="37"/>
-      <c r="CP5" s="37"/>
-      <c r="CQ5" s="37"/>
-      <c r="CR5" s="37"/>
-      <c r="CS5" s="37"/>
-      <c r="CT5" s="37"/>
-      <c r="CU5" s="37"/>
+      <c r="CM5" s="71"/>
+      <c r="CN5" s="71"/>
+      <c r="CO5" s="71"/>
+      <c r="CP5" s="71"/>
+      <c r="CQ5" s="71"/>
+      <c r="CR5" s="71"/>
+      <c r="CS5" s="71"/>
+      <c r="CT5" s="71"/>
+      <c r="CU5" s="71"/>
     </row>
     <row r="6" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CJ6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="CL6" s="38" t="s">
+      <c r="CL6" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="CM6" s="38"/>
-      <c r="CN6" s="38"/>
-      <c r="CO6" s="38"/>
-      <c r="CP6" s="38"/>
-      <c r="CQ6" s="38"/>
-      <c r="CR6" s="38"/>
-      <c r="CS6" s="38"/>
-      <c r="CT6" s="38"/>
-      <c r="CU6" s="38"/>
+      <c r="CM6" s="72"/>
+      <c r="CN6" s="72"/>
+      <c r="CO6" s="72"/>
+      <c r="CP6" s="72"/>
+      <c r="CQ6" s="72"/>
+      <c r="CR6" s="72"/>
+      <c r="CS6" s="72"/>
+      <c r="CT6" s="72"/>
+      <c r="CU6" s="72"/>
     </row>
     <row r="7" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH7" s="1" t="s">
@@ -1759,329 +1768,329 @@
       <c r="AJ7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-      <c r="AM7" s="39"/>
+      <c r="AK7" s="35"/>
+      <c r="AL7" s="35"/>
+      <c r="AM7" s="35"/>
       <c r="AN7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AO7" s="39"/>
-      <c r="AP7" s="39"/>
-      <c r="AQ7" s="39"/>
-      <c r="AR7" s="39"/>
-      <c r="AS7" s="39"/>
-      <c r="AT7" s="39"/>
-      <c r="AU7" s="39"/>
-      <c r="AV7" s="39"/>
-      <c r="AW7" s="39"/>
-      <c r="AX7" s="39"/>
-      <c r="AY7" s="39"/>
+      <c r="AO7" s="35"/>
+      <c r="AP7" s="35"/>
+      <c r="AQ7" s="35"/>
+      <c r="AR7" s="35"/>
+      <c r="AS7" s="35"/>
+      <c r="AT7" s="35"/>
+      <c r="AU7" s="35"/>
+      <c r="AV7" s="35"/>
+      <c r="AW7" s="35"/>
+      <c r="AX7" s="35"/>
+      <c r="AY7" s="35"/>
       <c r="BA7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BB7" s="40"/>
-      <c r="BC7" s="40"/>
+      <c r="BB7" s="36"/>
+      <c r="BC7" s="36"/>
       <c r="BD7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="CJ7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="CL7" s="41"/>
-      <c r="CM7" s="41"/>
-      <c r="CN7" s="41"/>
-      <c r="CO7" s="41"/>
-      <c r="CP7" s="41"/>
-      <c r="CQ7" s="41"/>
-      <c r="CR7" s="41"/>
-      <c r="CS7" s="41"/>
-      <c r="CT7" s="41"/>
-      <c r="CU7" s="41"/>
+      <c r="CL7" s="73"/>
+      <c r="CM7" s="73"/>
+      <c r="CN7" s="73"/>
+      <c r="CO7" s="73"/>
+      <c r="CP7" s="73"/>
+      <c r="CQ7" s="73"/>
+      <c r="CR7" s="73"/>
+      <c r="CS7" s="73"/>
+      <c r="CT7" s="73"/>
+      <c r="CU7" s="73"/>
     </row>
     <row r="8" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
-      <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
-      <c r="V8" s="42"/>
-      <c r="W8" s="42"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
-      <c r="Z8" s="42"/>
-      <c r="AA8" s="42"/>
-      <c r="AB8" s="42"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="42"/>
-      <c r="AE8" s="42"/>
-      <c r="AF8" s="42"/>
-      <c r="AG8" s="42"/>
-      <c r="AH8" s="42"/>
-      <c r="AI8" s="42"/>
-      <c r="AJ8" s="42"/>
-      <c r="AK8" s="42"/>
-      <c r="AL8" s="42"/>
-      <c r="AM8" s="42"/>
-      <c r="AN8" s="42"/>
-      <c r="AO8" s="42"/>
-      <c r="AP8" s="42"/>
-      <c r="AQ8" s="42"/>
-      <c r="AR8" s="42"/>
-      <c r="AS8" s="42"/>
-      <c r="AT8" s="42"/>
-      <c r="AU8" s="42"/>
-      <c r="AV8" s="42"/>
-      <c r="AW8" s="42"/>
-      <c r="AX8" s="42"/>
-      <c r="AY8" s="42"/>
-      <c r="AZ8" s="42"/>
-      <c r="BA8" s="42"/>
-      <c r="BB8" s="42"/>
-      <c r="BC8" s="42"/>
-      <c r="BD8" s="42"/>
-      <c r="BE8" s="42"/>
-      <c r="BF8" s="42"/>
-      <c r="BG8" s="42"/>
-      <c r="BH8" s="42"/>
-      <c r="BI8" s="42"/>
-      <c r="BJ8" s="42"/>
-      <c r="BK8" s="42"/>
-      <c r="BL8" s="42"/>
-      <c r="BM8" s="42"/>
-      <c r="BN8" s="42"/>
-      <c r="BO8" s="42"/>
-      <c r="BP8" s="42"/>
-      <c r="BQ8" s="42"/>
-      <c r="BR8" s="42"/>
-      <c r="BS8" s="42"/>
-      <c r="BT8" s="42"/>
-      <c r="BU8" s="42"/>
-      <c r="BV8" s="42"/>
-      <c r="BW8" s="42"/>
-      <c r="BX8" s="42"/>
-      <c r="BY8" s="42"/>
-      <c r="BZ8" s="42"/>
-      <c r="CA8" s="42"/>
-      <c r="CB8" s="42"/>
-      <c r="CC8" s="42"/>
+      <c r="O8" s="66"/>
+      <c r="P8" s="66"/>
+      <c r="Q8" s="66"/>
+      <c r="R8" s="66"/>
+      <c r="S8" s="66"/>
+      <c r="T8" s="66"/>
+      <c r="U8" s="66"/>
+      <c r="V8" s="66"/>
+      <c r="W8" s="66"/>
+      <c r="X8" s="66"/>
+      <c r="Y8" s="66"/>
+      <c r="Z8" s="66"/>
+      <c r="AA8" s="66"/>
+      <c r="AB8" s="66"/>
+      <c r="AC8" s="66"/>
+      <c r="AD8" s="66"/>
+      <c r="AE8" s="66"/>
+      <c r="AF8" s="66"/>
+      <c r="AG8" s="66"/>
+      <c r="AH8" s="66"/>
+      <c r="AI8" s="66"/>
+      <c r="AJ8" s="66"/>
+      <c r="AK8" s="66"/>
+      <c r="AL8" s="66"/>
+      <c r="AM8" s="66"/>
+      <c r="AN8" s="66"/>
+      <c r="AO8" s="66"/>
+      <c r="AP8" s="66"/>
+      <c r="AQ8" s="66"/>
+      <c r="AR8" s="66"/>
+      <c r="AS8" s="66"/>
+      <c r="AT8" s="66"/>
+      <c r="AU8" s="66"/>
+      <c r="AV8" s="66"/>
+      <c r="AW8" s="66"/>
+      <c r="AX8" s="66"/>
+      <c r="AY8" s="66"/>
+      <c r="AZ8" s="66"/>
+      <c r="BA8" s="66"/>
+      <c r="BB8" s="66"/>
+      <c r="BC8" s="66"/>
+      <c r="BD8" s="66"/>
+      <c r="BE8" s="66"/>
+      <c r="BF8" s="66"/>
+      <c r="BG8" s="66"/>
+      <c r="BH8" s="66"/>
+      <c r="BI8" s="66"/>
+      <c r="BJ8" s="66"/>
+      <c r="BK8" s="66"/>
+      <c r="BL8" s="66"/>
+      <c r="BM8" s="66"/>
+      <c r="BN8" s="66"/>
+      <c r="BO8" s="66"/>
+      <c r="BP8" s="66"/>
+      <c r="BQ8" s="66"/>
+      <c r="BR8" s="66"/>
+      <c r="BS8" s="66"/>
+      <c r="BT8" s="66"/>
+      <c r="BU8" s="66"/>
+      <c r="BV8" s="66"/>
+      <c r="BW8" s="66"/>
+      <c r="BX8" s="66"/>
+      <c r="BY8" s="66"/>
+      <c r="BZ8" s="66"/>
+      <c r="CA8" s="66"/>
+      <c r="CB8" s="66"/>
+      <c r="CC8" s="66"/>
       <c r="CJ8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="CL8" s="41" t="s">
+      <c r="CL8" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="CM8" s="41"/>
-      <c r="CN8" s="41"/>
-      <c r="CO8" s="41"/>
-      <c r="CP8" s="41"/>
-      <c r="CQ8" s="41"/>
-      <c r="CR8" s="41"/>
-      <c r="CS8" s="41"/>
-      <c r="CT8" s="41"/>
-      <c r="CU8" s="41"/>
+      <c r="CM8" s="73"/>
+      <c r="CN8" s="73"/>
+      <c r="CO8" s="73"/>
+      <c r="CP8" s="73"/>
+      <c r="CQ8" s="73"/>
+      <c r="CR8" s="73"/>
+      <c r="CS8" s="73"/>
+      <c r="CT8" s="73"/>
+      <c r="CU8" s="73"/>
     </row>
     <row r="9" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="CJ9" s="6"/>
-      <c r="CL9" s="43"/>
-      <c r="CM9" s="43"/>
-      <c r="CN9" s="43"/>
-      <c r="CO9" s="43"/>
-      <c r="CP9" s="43"/>
-      <c r="CQ9" s="43"/>
-      <c r="CR9" s="43"/>
-      <c r="CS9" s="43"/>
-      <c r="CT9" s="43"/>
-      <c r="CU9" s="43"/>
+      <c r="CL9" s="65"/>
+      <c r="CM9" s="65"/>
+      <c r="CN9" s="65"/>
+      <c r="CO9" s="65"/>
+      <c r="CP9" s="65"/>
+      <c r="CQ9" s="65"/>
+      <c r="CR9" s="65"/>
+      <c r="CS9" s="65"/>
+      <c r="CT9" s="65"/>
+      <c r="CU9" s="65"/>
     </row>
     <row r="10" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="42"/>
-      <c r="P10" s="42"/>
-      <c r="Q10" s="42"/>
-      <c r="R10" s="42"/>
-      <c r="S10" s="42"/>
-      <c r="T10" s="42"/>
-      <c r="U10" s="42"/>
-      <c r="V10" s="42"/>
-      <c r="W10" s="42"/>
-      <c r="X10" s="42"/>
-      <c r="Y10" s="42"/>
-      <c r="Z10" s="42"/>
-      <c r="AA10" s="42"/>
-      <c r="AB10" s="42"/>
-      <c r="AC10" s="42"/>
-      <c r="AD10" s="42"/>
-      <c r="AE10" s="42"/>
-      <c r="AF10" s="42"/>
-      <c r="AG10" s="42"/>
-      <c r="AH10" s="42"/>
-      <c r="AI10" s="42"/>
-      <c r="AJ10" s="42"/>
-      <c r="AK10" s="42"/>
-      <c r="AL10" s="42"/>
-      <c r="AM10" s="42"/>
-      <c r="AN10" s="42"/>
-      <c r="AO10" s="42"/>
-      <c r="AP10" s="42"/>
-      <c r="AQ10" s="42"/>
-      <c r="AR10" s="42"/>
-      <c r="AS10" s="42"/>
-      <c r="AT10" s="42"/>
-      <c r="AU10" s="42"/>
-      <c r="AV10" s="42"/>
-      <c r="AW10" s="42"/>
-      <c r="AX10" s="42"/>
-      <c r="AY10" s="42"/>
-      <c r="AZ10" s="42"/>
-      <c r="BA10" s="42"/>
-      <c r="BB10" s="42"/>
-      <c r="BC10" s="42"/>
-      <c r="BD10" s="42"/>
-      <c r="BE10" s="42"/>
-      <c r="BF10" s="42"/>
-      <c r="BG10" s="42"/>
-      <c r="BH10" s="42"/>
-      <c r="BI10" s="42"/>
-      <c r="BJ10" s="42"/>
-      <c r="BK10" s="42"/>
-      <c r="BL10" s="42"/>
-      <c r="BM10" s="42"/>
-      <c r="BN10" s="42"/>
-      <c r="BO10" s="42"/>
-      <c r="BP10" s="42"/>
-      <c r="BQ10" s="42"/>
-      <c r="BR10" s="42"/>
-      <c r="BS10" s="42"/>
-      <c r="BT10" s="42"/>
-      <c r="BU10" s="42"/>
-      <c r="BV10" s="42"/>
-      <c r="BW10" s="42"/>
-      <c r="BX10" s="42"/>
-      <c r="BY10" s="42"/>
-      <c r="BZ10" s="42"/>
-      <c r="CA10" s="42"/>
-      <c r="CB10" s="42"/>
-      <c r="CC10" s="42"/>
+      <c r="O10" s="66"/>
+      <c r="P10" s="66"/>
+      <c r="Q10" s="66"/>
+      <c r="R10" s="66"/>
+      <c r="S10" s="66"/>
+      <c r="T10" s="66"/>
+      <c r="U10" s="66"/>
+      <c r="V10" s="66"/>
+      <c r="W10" s="66"/>
+      <c r="X10" s="66"/>
+      <c r="Y10" s="66"/>
+      <c r="Z10" s="66"/>
+      <c r="AA10" s="66"/>
+      <c r="AB10" s="66"/>
+      <c r="AC10" s="66"/>
+      <c r="AD10" s="66"/>
+      <c r="AE10" s="66"/>
+      <c r="AF10" s="66"/>
+      <c r="AG10" s="66"/>
+      <c r="AH10" s="66"/>
+      <c r="AI10" s="66"/>
+      <c r="AJ10" s="66"/>
+      <c r="AK10" s="66"/>
+      <c r="AL10" s="66"/>
+      <c r="AM10" s="66"/>
+      <c r="AN10" s="66"/>
+      <c r="AO10" s="66"/>
+      <c r="AP10" s="66"/>
+      <c r="AQ10" s="66"/>
+      <c r="AR10" s="66"/>
+      <c r="AS10" s="66"/>
+      <c r="AT10" s="66"/>
+      <c r="AU10" s="66"/>
+      <c r="AV10" s="66"/>
+      <c r="AW10" s="66"/>
+      <c r="AX10" s="66"/>
+      <c r="AY10" s="66"/>
+      <c r="AZ10" s="66"/>
+      <c r="BA10" s="66"/>
+      <c r="BB10" s="66"/>
+      <c r="BC10" s="66"/>
+      <c r="BD10" s="66"/>
+      <c r="BE10" s="66"/>
+      <c r="BF10" s="66"/>
+      <c r="BG10" s="66"/>
+      <c r="BH10" s="66"/>
+      <c r="BI10" s="66"/>
+      <c r="BJ10" s="66"/>
+      <c r="BK10" s="66"/>
+      <c r="BL10" s="66"/>
+      <c r="BM10" s="66"/>
+      <c r="BN10" s="66"/>
+      <c r="BO10" s="66"/>
+      <c r="BP10" s="66"/>
+      <c r="BQ10" s="66"/>
+      <c r="BR10" s="66"/>
+      <c r="BS10" s="66"/>
+      <c r="BT10" s="66"/>
+      <c r="BU10" s="66"/>
+      <c r="BV10" s="66"/>
+      <c r="BW10" s="66"/>
+      <c r="BX10" s="66"/>
+      <c r="BY10" s="66"/>
+      <c r="BZ10" s="66"/>
+      <c r="CA10" s="66"/>
+      <c r="CB10" s="66"/>
+      <c r="CC10" s="66"/>
       <c r="CJ10" s="6"/>
-      <c r="CL10" s="43"/>
-      <c r="CM10" s="43"/>
-      <c r="CN10" s="43"/>
-      <c r="CO10" s="43"/>
-      <c r="CP10" s="43"/>
-      <c r="CQ10" s="43"/>
-      <c r="CR10" s="43"/>
-      <c r="CS10" s="43"/>
-      <c r="CT10" s="43"/>
-      <c r="CU10" s="43"/>
+      <c r="CL10" s="65"/>
+      <c r="CM10" s="65"/>
+      <c r="CN10" s="65"/>
+      <c r="CO10" s="65"/>
+      <c r="CP10" s="65"/>
+      <c r="CQ10" s="65"/>
+      <c r="CR10" s="65"/>
+      <c r="CS10" s="65"/>
+      <c r="CT10" s="65"/>
+      <c r="CU10" s="65"/>
     </row>
     <row r="11" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="CJ11" s="6"/>
-      <c r="CL11" s="44"/>
-      <c r="CM11" s="44"/>
-      <c r="CN11" s="44"/>
-      <c r="CO11" s="44"/>
-      <c r="CP11" s="44"/>
-      <c r="CQ11" s="44"/>
-      <c r="CR11" s="44"/>
-      <c r="CS11" s="44"/>
-      <c r="CT11" s="44"/>
-      <c r="CU11" s="44"/>
+      <c r="CL11" s="67"/>
+      <c r="CM11" s="67"/>
+      <c r="CN11" s="67"/>
+      <c r="CO11" s="67"/>
+      <c r="CP11" s="67"/>
+      <c r="CQ11" s="67"/>
+      <c r="CR11" s="67"/>
+      <c r="CS11" s="67"/>
+      <c r="CT11" s="67"/>
+      <c r="CU11" s="67"/>
     </row>
     <row r="12" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="42"/>
-      <c r="P12" s="42"/>
-      <c r="Q12" s="42"/>
-      <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
-      <c r="Z12" s="42"/>
-      <c r="AA12" s="42"/>
-      <c r="AB12" s="42"/>
-      <c r="AC12" s="42"/>
-      <c r="AD12" s="42"/>
-      <c r="AE12" s="42"/>
-      <c r="AF12" s="42"/>
-      <c r="AG12" s="42"/>
-      <c r="AH12" s="42"/>
-      <c r="AI12" s="42"/>
-      <c r="AJ12" s="42"/>
-      <c r="AK12" s="42"/>
-      <c r="AL12" s="42"/>
-      <c r="AM12" s="42"/>
-      <c r="AN12" s="42"/>
-      <c r="AO12" s="42"/>
-      <c r="AP12" s="42"/>
-      <c r="AQ12" s="42"/>
-      <c r="AR12" s="42"/>
-      <c r="AS12" s="42"/>
-      <c r="AT12" s="42"/>
-      <c r="AU12" s="42"/>
-      <c r="AV12" s="42"/>
-      <c r="AW12" s="42"/>
-      <c r="AX12" s="42"/>
-      <c r="AY12" s="42"/>
-      <c r="AZ12" s="42"/>
-      <c r="BA12" s="42"/>
-      <c r="BB12" s="42"/>
-      <c r="BC12" s="42"/>
-      <c r="BD12" s="42"/>
-      <c r="BE12" s="42"/>
-      <c r="BF12" s="42"/>
-      <c r="BG12" s="42"/>
-      <c r="BH12" s="42"/>
-      <c r="BI12" s="42"/>
-      <c r="BJ12" s="42"/>
-      <c r="BK12" s="42"/>
-      <c r="BL12" s="42"/>
-      <c r="BM12" s="42"/>
-      <c r="BN12" s="42"/>
-      <c r="BO12" s="42"/>
-      <c r="BP12" s="42"/>
-      <c r="BQ12" s="42"/>
-      <c r="BR12" s="42"/>
-      <c r="BS12" s="42"/>
-      <c r="BT12" s="42"/>
-      <c r="BU12" s="42"/>
-      <c r="BV12" s="42"/>
-      <c r="BW12" s="42"/>
-      <c r="BX12" s="42"/>
-      <c r="BY12" s="42"/>
-      <c r="BZ12" s="42"/>
-      <c r="CA12" s="42"/>
-      <c r="CB12" s="42"/>
-      <c r="CC12" s="42"/>
+      <c r="O12" s="66"/>
+      <c r="P12" s="66"/>
+      <c r="Q12" s="66"/>
+      <c r="R12" s="66"/>
+      <c r="S12" s="66"/>
+      <c r="T12" s="66"/>
+      <c r="U12" s="66"/>
+      <c r="V12" s="66"/>
+      <c r="W12" s="66"/>
+      <c r="X12" s="66"/>
+      <c r="Y12" s="66"/>
+      <c r="Z12" s="66"/>
+      <c r="AA12" s="66"/>
+      <c r="AB12" s="66"/>
+      <c r="AC12" s="66"/>
+      <c r="AD12" s="66"/>
+      <c r="AE12" s="66"/>
+      <c r="AF12" s="66"/>
+      <c r="AG12" s="66"/>
+      <c r="AH12" s="66"/>
+      <c r="AI12" s="66"/>
+      <c r="AJ12" s="66"/>
+      <c r="AK12" s="66"/>
+      <c r="AL12" s="66"/>
+      <c r="AM12" s="66"/>
+      <c r="AN12" s="66"/>
+      <c r="AO12" s="66"/>
+      <c r="AP12" s="66"/>
+      <c r="AQ12" s="66"/>
+      <c r="AR12" s="66"/>
+      <c r="AS12" s="66"/>
+      <c r="AT12" s="66"/>
+      <c r="AU12" s="66"/>
+      <c r="AV12" s="66"/>
+      <c r="AW12" s="66"/>
+      <c r="AX12" s="66"/>
+      <c r="AY12" s="66"/>
+      <c r="AZ12" s="66"/>
+      <c r="BA12" s="66"/>
+      <c r="BB12" s="66"/>
+      <c r="BC12" s="66"/>
+      <c r="BD12" s="66"/>
+      <c r="BE12" s="66"/>
+      <c r="BF12" s="66"/>
+      <c r="BG12" s="66"/>
+      <c r="BH12" s="66"/>
+      <c r="BI12" s="66"/>
+      <c r="BJ12" s="66"/>
+      <c r="BK12" s="66"/>
+      <c r="BL12" s="66"/>
+      <c r="BM12" s="66"/>
+      <c r="BN12" s="66"/>
+      <c r="BO12" s="66"/>
+      <c r="BP12" s="66"/>
+      <c r="BQ12" s="66"/>
+      <c r="BR12" s="66"/>
+      <c r="BS12" s="66"/>
+      <c r="BT12" s="66"/>
+      <c r="BU12" s="66"/>
+      <c r="BV12" s="66"/>
+      <c r="BW12" s="66"/>
+      <c r="BX12" s="66"/>
+      <c r="BY12" s="66"/>
+      <c r="BZ12" s="66"/>
+      <c r="CA12" s="66"/>
+      <c r="CB12" s="66"/>
+      <c r="CC12" s="66"/>
       <c r="CJ12" s="6"/>
-      <c r="CL12" s="44"/>
-      <c r="CM12" s="44"/>
-      <c r="CN12" s="44"/>
-      <c r="CO12" s="44"/>
-      <c r="CP12" s="44"/>
-      <c r="CQ12" s="44"/>
-      <c r="CR12" s="44"/>
-      <c r="CS12" s="44"/>
-      <c r="CT12" s="44"/>
-      <c r="CU12" s="44"/>
+      <c r="CL12" s="67"/>
+      <c r="CM12" s="67"/>
+      <c r="CN12" s="67"/>
+      <c r="CO12" s="67"/>
+      <c r="CP12" s="67"/>
+      <c r="CQ12" s="67"/>
+      <c r="CR12" s="67"/>
+      <c r="CS12" s="67"/>
+      <c r="CT12" s="67"/>
+      <c r="CU12" s="67"/>
     </row>
     <row r="13" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -2120,18 +2129,18 @@
       <c r="CJ13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="CL13" s="45" t="s">
+      <c r="CL13" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="CM13" s="45"/>
-      <c r="CN13" s="45"/>
-      <c r="CO13" s="45"/>
-      <c r="CP13" s="45"/>
-      <c r="CQ13" s="45"/>
-      <c r="CR13" s="45"/>
-      <c r="CS13" s="45"/>
-      <c r="CT13" s="45"/>
-      <c r="CU13" s="45"/>
+      <c r="CM13" s="68"/>
+      <c r="CN13" s="68"/>
+      <c r="CO13" s="68"/>
+      <c r="CP13" s="68"/>
+      <c r="CQ13" s="68"/>
+      <c r="CR13" s="68"/>
+      <c r="CS13" s="68"/>
+      <c r="CT13" s="68"/>
+      <c r="CU13" s="68"/>
     </row>
     <row r="14" spans="1:99" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -2181,932 +2190,932 @@
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
-      <c r="L15" s="39"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="39"/>
-      <c r="O15" s="39"/>
-      <c r="P15" s="39"/>
-      <c r="Q15" s="39"/>
-      <c r="R15" s="39"/>
-      <c r="S15" s="39"/>
-      <c r="T15" s="39"/>
-      <c r="U15" s="39"/>
-      <c r="W15" s="39"/>
-      <c r="X15" s="39"/>
-      <c r="Y15" s="39"/>
-      <c r="Z15" s="39"/>
-      <c r="AA15" s="39"/>
-      <c r="AB15" s="39"/>
-      <c r="AC15" s="39"/>
-      <c r="AD15" s="39"/>
-      <c r="AE15" s="39"/>
-      <c r="AF15" s="39"/>
-      <c r="AG15" s="39"/>
-      <c r="AH15" s="39"/>
-      <c r="AI15" s="39"/>
-      <c r="AJ15" s="39"/>
-      <c r="AK15" s="39"/>
-      <c r="AL15" s="39"/>
-      <c r="AM15" s="39"/>
-      <c r="AN15" s="39"/>
-      <c r="AO15" s="39"/>
+      <c r="H15" s="35"/>
+      <c r="I15" s="35"/>
+      <c r="J15" s="35"/>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="35"/>
+      <c r="O15" s="35"/>
+      <c r="P15" s="35"/>
+      <c r="Q15" s="35"/>
+      <c r="R15" s="35"/>
+      <c r="S15" s="35"/>
+      <c r="T15" s="35"/>
+      <c r="U15" s="35"/>
+      <c r="W15" s="35"/>
+      <c r="X15" s="35"/>
+      <c r="Y15" s="35"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="35"/>
+      <c r="AB15" s="35"/>
+      <c r="AC15" s="35"/>
+      <c r="AD15" s="35"/>
+      <c r="AE15" s="35"/>
+      <c r="AF15" s="35"/>
+      <c r="AG15" s="35"/>
+      <c r="AH15" s="35"/>
+      <c r="AI15" s="35"/>
+      <c r="AJ15" s="35"/>
+      <c r="AK15" s="35"/>
+      <c r="AL15" s="35"/>
+      <c r="AM15" s="35"/>
+      <c r="AN15" s="35"/>
+      <c r="AO15" s="35"/>
       <c r="AU15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AZ15" s="9"/>
-      <c r="BA15" s="39" t="s">
+      <c r="BA15" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="BB15" s="39"/>
-      <c r="BC15" s="39"/>
-      <c r="BD15" s="39"/>
-      <c r="BE15" s="39"/>
-      <c r="BF15" s="39"/>
-      <c r="BG15" s="39"/>
-      <c r="BH15" s="39"/>
-      <c r="BI15" s="39"/>
-      <c r="BJ15" s="39"/>
-      <c r="BK15" s="39"/>
-      <c r="BL15" s="39"/>
-      <c r="BM15" s="39"/>
-      <c r="BN15" s="39"/>
-      <c r="BP15" s="46"/>
-      <c r="BQ15" s="46"/>
-      <c r="BR15" s="46"/>
-      <c r="BS15" s="46"/>
-      <c r="BT15" s="46"/>
-      <c r="BU15" s="46"/>
-      <c r="BV15" s="46"/>
-      <c r="BW15" s="46"/>
-      <c r="BX15" s="46"/>
-      <c r="BY15" s="46"/>
-      <c r="BZ15" s="46"/>
-      <c r="CA15" s="46"/>
-      <c r="CC15" s="39" t="s">
+      <c r="BB15" s="35"/>
+      <c r="BC15" s="35"/>
+      <c r="BD15" s="35"/>
+      <c r="BE15" s="35"/>
+      <c r="BF15" s="35"/>
+      <c r="BG15" s="35"/>
+      <c r="BH15" s="35"/>
+      <c r="BI15" s="35"/>
+      <c r="BJ15" s="35"/>
+      <c r="BK15" s="35"/>
+      <c r="BL15" s="35"/>
+      <c r="BM15" s="35"/>
+      <c r="BN15" s="35"/>
+      <c r="BP15" s="37"/>
+      <c r="BQ15" s="37"/>
+      <c r="BR15" s="37"/>
+      <c r="BS15" s="37"/>
+      <c r="BT15" s="37"/>
+      <c r="BU15" s="37"/>
+      <c r="BV15" s="37"/>
+      <c r="BW15" s="37"/>
+      <c r="BX15" s="37"/>
+      <c r="BY15" s="37"/>
+      <c r="BZ15" s="37"/>
+      <c r="CA15" s="37"/>
+      <c r="CC15" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="CD15" s="39"/>
-      <c r="CE15" s="39"/>
-      <c r="CF15" s="39"/>
-      <c r="CG15" s="39"/>
-      <c r="CH15" s="39"/>
-      <c r="CI15" s="39"/>
-      <c r="CJ15" s="39"/>
-      <c r="CK15" s="39"/>
-      <c r="CL15" s="39"/>
-      <c r="CM15" s="39"/>
-      <c r="CN15" s="39"/>
-      <c r="CO15" s="39"/>
-      <c r="CP15" s="39"/>
-      <c r="CQ15" s="39"/>
-      <c r="CR15" s="39"/>
-      <c r="CS15" s="39"/>
-      <c r="CT15" s="39"/>
-      <c r="CU15" s="39"/>
+      <c r="CD15" s="35"/>
+      <c r="CE15" s="35"/>
+      <c r="CF15" s="35"/>
+      <c r="CG15" s="35"/>
+      <c r="CH15" s="35"/>
+      <c r="CI15" s="35"/>
+      <c r="CJ15" s="35"/>
+      <c r="CK15" s="35"/>
+      <c r="CL15" s="35"/>
+      <c r="CM15" s="35"/>
+      <c r="CN15" s="35"/>
+      <c r="CO15" s="35"/>
+      <c r="CP15" s="35"/>
+      <c r="CQ15" s="35"/>
+      <c r="CR15" s="35"/>
+      <c r="CS15" s="35"/>
+      <c r="CT15" s="35"/>
+      <c r="CU15" s="35"/>
     </row>
     <row r="16" spans="1:99" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="H16" s="47" t="s">
+      <c r="H16" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-      <c r="L16" s="47"/>
-      <c r="M16" s="47"/>
-      <c r="N16" s="47"/>
-      <c r="O16" s="47"/>
-      <c r="P16" s="47"/>
-      <c r="Q16" s="47"/>
-      <c r="R16" s="47"/>
-      <c r="S16" s="47"/>
-      <c r="T16" s="47"/>
-      <c r="U16" s="47"/>
-      <c r="W16" s="48" t="s">
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="38"/>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+      <c r="O16" s="38"/>
+      <c r="P16" s="38"/>
+      <c r="Q16" s="38"/>
+      <c r="R16" s="38"/>
+      <c r="S16" s="38"/>
+      <c r="T16" s="38"/>
+      <c r="U16" s="38"/>
+      <c r="W16" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="X16" s="48"/>
-      <c r="Y16" s="48"/>
-      <c r="Z16" s="48"/>
-      <c r="AA16" s="48"/>
-      <c r="AB16" s="48"/>
-      <c r="AC16" s="48"/>
-      <c r="AD16" s="48"/>
-      <c r="AE16" s="48"/>
-      <c r="AF16" s="48"/>
-      <c r="AG16" s="48"/>
-      <c r="AH16" s="48"/>
-      <c r="AI16" s="48"/>
-      <c r="AJ16" s="48"/>
-      <c r="AK16" s="48"/>
-      <c r="AL16" s="48"/>
-      <c r="AM16" s="48"/>
-      <c r="AN16" s="48"/>
-      <c r="AO16" s="48"/>
+      <c r="X16" s="39"/>
+      <c r="Y16" s="39"/>
+      <c r="Z16" s="39"/>
+      <c r="AA16" s="39"/>
+      <c r="AB16" s="39"/>
+      <c r="AC16" s="39"/>
+      <c r="AD16" s="39"/>
+      <c r="AE16" s="39"/>
+      <c r="AF16" s="39"/>
+      <c r="AG16" s="39"/>
+      <c r="AH16" s="39"/>
+      <c r="AI16" s="39"/>
+      <c r="AJ16" s="39"/>
+      <c r="AK16" s="39"/>
+      <c r="AL16" s="39"/>
+      <c r="AM16" s="39"/>
+      <c r="AN16" s="39"/>
+      <c r="AO16" s="39"/>
       <c r="AZ16" s="13"/>
-      <c r="BA16" s="47" t="s">
+      <c r="BA16" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="BB16" s="47"/>
-      <c r="BC16" s="47"/>
-      <c r="BD16" s="47"/>
-      <c r="BE16" s="47"/>
-      <c r="BF16" s="47"/>
-      <c r="BG16" s="47"/>
-      <c r="BH16" s="47"/>
-      <c r="BI16" s="47"/>
-      <c r="BJ16" s="47"/>
-      <c r="BK16" s="47"/>
-      <c r="BL16" s="47"/>
-      <c r="BM16" s="47"/>
-      <c r="BN16" s="47"/>
+      <c r="BB16" s="38"/>
+      <c r="BC16" s="38"/>
+      <c r="BD16" s="38"/>
+      <c r="BE16" s="38"/>
+      <c r="BF16" s="38"/>
+      <c r="BG16" s="38"/>
+      <c r="BH16" s="38"/>
+      <c r="BI16" s="38"/>
+      <c r="BJ16" s="38"/>
+      <c r="BK16" s="38"/>
+      <c r="BL16" s="38"/>
+      <c r="BM16" s="38"/>
+      <c r="BN16" s="38"/>
       <c r="BO16" s="14"/>
-      <c r="BP16" s="48" t="s">
+      <c r="BP16" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="BQ16" s="48"/>
-      <c r="BR16" s="48"/>
-      <c r="BS16" s="48"/>
-      <c r="BT16" s="48"/>
-      <c r="BU16" s="48"/>
-      <c r="BV16" s="48"/>
-      <c r="BW16" s="48"/>
-      <c r="BX16" s="48"/>
-      <c r="BY16" s="48"/>
-      <c r="BZ16" s="48"/>
-      <c r="CA16" s="48"/>
+      <c r="BQ16" s="39"/>
+      <c r="BR16" s="39"/>
+      <c r="BS16" s="39"/>
+      <c r="BT16" s="39"/>
+      <c r="BU16" s="39"/>
+      <c r="BV16" s="39"/>
+      <c r="BW16" s="39"/>
+      <c r="BX16" s="39"/>
+      <c r="BY16" s="39"/>
+      <c r="BZ16" s="39"/>
+      <c r="CA16" s="39"/>
       <c r="CB16" s="14"/>
-      <c r="CC16" s="48" t="s">
+      <c r="CC16" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="CD16" s="48"/>
-      <c r="CE16" s="48"/>
-      <c r="CF16" s="48"/>
-      <c r="CG16" s="48"/>
-      <c r="CH16" s="48"/>
-      <c r="CI16" s="48"/>
-      <c r="CJ16" s="48"/>
-      <c r="CK16" s="48"/>
-      <c r="CL16" s="48"/>
-      <c r="CM16" s="48"/>
-      <c r="CN16" s="48"/>
-      <c r="CO16" s="48"/>
-      <c r="CP16" s="48"/>
-      <c r="CQ16" s="48"/>
-      <c r="CR16" s="48"/>
-      <c r="CS16" s="48"/>
-      <c r="CT16" s="48"/>
-      <c r="CU16" s="48"/>
+      <c r="CD16" s="39"/>
+      <c r="CE16" s="39"/>
+      <c r="CF16" s="39"/>
+      <c r="CG16" s="39"/>
+      <c r="CH16" s="39"/>
+      <c r="CI16" s="39"/>
+      <c r="CJ16" s="39"/>
+      <c r="CK16" s="39"/>
+      <c r="CL16" s="39"/>
+      <c r="CM16" s="39"/>
+      <c r="CN16" s="39"/>
+      <c r="CO16" s="39"/>
+      <c r="CP16" s="39"/>
+      <c r="CQ16" s="39"/>
+      <c r="CR16" s="39"/>
+      <c r="CS16" s="39"/>
+      <c r="CT16" s="39"/>
+      <c r="CU16" s="39"/>
     </row>
     <row r="17" spans="1:99" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:99" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="62" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="49"/>
-      <c r="L18" s="49"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="49"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="49"/>
-      <c r="T18" s="49"/>
-      <c r="U18" s="49"/>
-      <c r="V18" s="49"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="49"/>
-      <c r="Y18" s="49"/>
-      <c r="Z18" s="49"/>
-      <c r="AA18" s="49"/>
-      <c r="AB18" s="49"/>
-      <c r="AC18" s="49"/>
-      <c r="AD18" s="50" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="61" t="s">
         <v>27</v>
       </c>
-      <c r="AE18" s="50"/>
-      <c r="AF18" s="50"/>
-      <c r="AG18" s="50"/>
-      <c r="AH18" s="50"/>
-      <c r="AI18" s="50"/>
-      <c r="AJ18" s="50"/>
-      <c r="AK18" s="50"/>
-      <c r="AL18" s="50"/>
-      <c r="AM18" s="50"/>
-      <c r="AN18" s="50"/>
-      <c r="AO18" s="50"/>
-      <c r="AP18" s="51" t="s">
+      <c r="AE18" s="61"/>
+      <c r="AF18" s="61"/>
+      <c r="AG18" s="61"/>
+      <c r="AH18" s="61"/>
+      <c r="AI18" s="61"/>
+      <c r="AJ18" s="61"/>
+      <c r="AK18" s="61"/>
+      <c r="AL18" s="61"/>
+      <c r="AM18" s="61"/>
+      <c r="AN18" s="61"/>
+      <c r="AO18" s="61"/>
+      <c r="AP18" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AQ18" s="51"/>
-      <c r="AR18" s="51"/>
-      <c r="AS18" s="51"/>
-      <c r="AT18" s="51"/>
-      <c r="AU18" s="51"/>
-      <c r="AV18" s="51"/>
-      <c r="AW18" s="51"/>
-      <c r="AX18" s="51"/>
-      <c r="AY18" s="50" t="s">
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="63"/>
+      <c r="AX18" s="63"/>
+      <c r="AY18" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="AZ18" s="50"/>
-      <c r="BA18" s="50"/>
-      <c r="BB18" s="50"/>
-      <c r="BC18" s="50"/>
-      <c r="BD18" s="50"/>
-      <c r="BE18" s="50"/>
-      <c r="BF18" s="50"/>
-      <c r="BG18" s="50"/>
-      <c r="BH18" s="50"/>
-      <c r="BI18" s="50"/>
-      <c r="BJ18" s="50"/>
-      <c r="BK18" s="51" t="s">
+      <c r="AZ18" s="61"/>
+      <c r="BA18" s="61"/>
+      <c r="BB18" s="61"/>
+      <c r="BC18" s="61"/>
+      <c r="BD18" s="61"/>
+      <c r="BE18" s="61"/>
+      <c r="BF18" s="61"/>
+      <c r="BG18" s="61"/>
+      <c r="BH18" s="61"/>
+      <c r="BI18" s="61"/>
+      <c r="BJ18" s="61"/>
+      <c r="BK18" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="BL18" s="51"/>
-      <c r="BM18" s="51"/>
-      <c r="BN18" s="51"/>
-      <c r="BO18" s="51"/>
-      <c r="BP18" s="51"/>
-      <c r="BQ18" s="51"/>
-      <c r="BR18" s="51"/>
-      <c r="BS18" s="51"/>
-      <c r="BT18" s="50" t="s">
+      <c r="BL18" s="63"/>
+      <c r="BM18" s="63"/>
+      <c r="BN18" s="63"/>
+      <c r="BO18" s="63"/>
+      <c r="BP18" s="63"/>
+      <c r="BQ18" s="63"/>
+      <c r="BR18" s="63"/>
+      <c r="BS18" s="63"/>
+      <c r="BT18" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="BU18" s="50"/>
-      <c r="BV18" s="50"/>
-      <c r="BW18" s="50"/>
-      <c r="BX18" s="50"/>
-      <c r="BY18" s="50"/>
-      <c r="BZ18" s="50"/>
-      <c r="CA18" s="50"/>
-      <c r="CB18" s="50"/>
-      <c r="CC18" s="50"/>
-      <c r="CD18" s="50"/>
-      <c r="CE18" s="50"/>
-      <c r="CF18" s="50"/>
-      <c r="CG18" s="50"/>
-      <c r="CH18" s="50"/>
-      <c r="CI18" s="50"/>
-      <c r="CJ18" s="50"/>
-      <c r="CK18" s="50"/>
-      <c r="CL18" s="50"/>
-      <c r="CM18" s="50"/>
-      <c r="CN18" s="50"/>
-      <c r="CO18" s="50"/>
-      <c r="CP18" s="52" t="s">
+      <c r="BU18" s="61"/>
+      <c r="BV18" s="61"/>
+      <c r="BW18" s="61"/>
+      <c r="BX18" s="61"/>
+      <c r="BY18" s="61"/>
+      <c r="BZ18" s="61"/>
+      <c r="CA18" s="61"/>
+      <c r="CB18" s="61"/>
+      <c r="CC18" s="61"/>
+      <c r="CD18" s="61"/>
+      <c r="CE18" s="61"/>
+      <c r="CF18" s="61"/>
+      <c r="CG18" s="61"/>
+      <c r="CH18" s="61"/>
+      <c r="CI18" s="61"/>
+      <c r="CJ18" s="61"/>
+      <c r="CK18" s="61"/>
+      <c r="CL18" s="61"/>
+      <c r="CM18" s="61"/>
+      <c r="CN18" s="61"/>
+      <c r="CO18" s="61"/>
+      <c r="CP18" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="CQ18" s="52"/>
-      <c r="CR18" s="52"/>
-      <c r="CS18" s="52"/>
-      <c r="CT18" s="52"/>
-      <c r="CU18" s="52"/>
+      <c r="CQ18" s="64"/>
+      <c r="CR18" s="64"/>
+      <c r="CS18" s="64"/>
+      <c r="CT18" s="64"/>
+      <c r="CU18" s="64"/>
     </row>
     <row r="19" spans="1:99" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="53" t="s">
+      <c r="A19" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="53"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="53"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="53"/>
-      <c r="L19" s="53"/>
-      <c r="M19" s="53"/>
-      <c r="N19" s="53"/>
-      <c r="O19" s="53"/>
-      <c r="P19" s="53"/>
-      <c r="Q19" s="53"/>
-      <c r="R19" s="50" t="s">
+      <c r="B19" s="60"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="60"/>
+      <c r="K19" s="60"/>
+      <c r="L19" s="60"/>
+      <c r="M19" s="60"/>
+      <c r="N19" s="60"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="50"/>
-      <c r="Y19" s="50"/>
-      <c r="Z19" s="50"/>
-      <c r="AA19" s="50"/>
-      <c r="AB19" s="50"/>
-      <c r="AC19" s="50"/>
-      <c r="AD19" s="54" t="s">
+      <c r="S19" s="61"/>
+      <c r="T19" s="61"/>
+      <c r="U19" s="61"/>
+      <c r="V19" s="61"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="61"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="61"/>
+      <c r="AA19" s="61"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="AE19" s="54"/>
-      <c r="AF19" s="54"/>
-      <c r="AG19" s="54"/>
-      <c r="AH19" s="54"/>
-      <c r="AI19" s="54"/>
-      <c r="AJ19" s="54" t="s">
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="58"/>
+      <c r="AG19" s="58"/>
+      <c r="AH19" s="58"/>
+      <c r="AI19" s="58"/>
+      <c r="AJ19" s="58" t="s">
         <v>36</v>
       </c>
-      <c r="AK19" s="54"/>
-      <c r="AL19" s="54"/>
-      <c r="AM19" s="54"/>
-      <c r="AN19" s="54"/>
-      <c r="AO19" s="54"/>
-      <c r="AP19" s="54"/>
-      <c r="AQ19" s="54"/>
-      <c r="AR19" s="54"/>
-      <c r="AS19" s="54"/>
-      <c r="AT19" s="54"/>
-      <c r="AU19" s="54"/>
-      <c r="AV19" s="54"/>
-      <c r="AW19" s="54"/>
-      <c r="AX19" s="54"/>
-      <c r="AY19" s="54" t="s">
+      <c r="AK19" s="58"/>
+      <c r="AL19" s="58"/>
+      <c r="AM19" s="58"/>
+      <c r="AN19" s="58"/>
+      <c r="AO19" s="58"/>
+      <c r="AP19" s="58"/>
+      <c r="AQ19" s="58"/>
+      <c r="AR19" s="58"/>
+      <c r="AS19" s="58"/>
+      <c r="AT19" s="58"/>
+      <c r="AU19" s="58"/>
+      <c r="AV19" s="58"/>
+      <c r="AW19" s="58"/>
+      <c r="AX19" s="58"/>
+      <c r="AY19" s="58" t="s">
         <v>37</v>
       </c>
-      <c r="AZ19" s="54"/>
-      <c r="BA19" s="54"/>
-      <c r="BB19" s="54"/>
-      <c r="BC19" s="54"/>
-      <c r="BD19" s="54"/>
-      <c r="BE19" s="54" t="s">
+      <c r="AZ19" s="58"/>
+      <c r="BA19" s="58"/>
+      <c r="BB19" s="58"/>
+      <c r="BC19" s="58"/>
+      <c r="BD19" s="58"/>
+      <c r="BE19" s="58" t="s">
         <v>38</v>
       </c>
-      <c r="BF19" s="54"/>
-      <c r="BG19" s="54"/>
-      <c r="BH19" s="54"/>
-      <c r="BI19" s="54"/>
-      <c r="BJ19" s="54"/>
-      <c r="BK19" s="54" t="s">
+      <c r="BF19" s="58"/>
+      <c r="BG19" s="58"/>
+      <c r="BH19" s="58"/>
+      <c r="BI19" s="58"/>
+      <c r="BJ19" s="58"/>
+      <c r="BK19" s="58" t="s">
         <v>39</v>
       </c>
-      <c r="BL19" s="54"/>
-      <c r="BM19" s="54"/>
-      <c r="BN19" s="54"/>
-      <c r="BO19" s="54"/>
-      <c r="BP19" s="54"/>
-      <c r="BQ19" s="54"/>
-      <c r="BR19" s="54"/>
-      <c r="BS19" s="54"/>
-      <c r="BT19" s="54" t="s">
+      <c r="BL19" s="58"/>
+      <c r="BM19" s="58"/>
+      <c r="BN19" s="58"/>
+      <c r="BO19" s="58"/>
+      <c r="BP19" s="58"/>
+      <c r="BQ19" s="58"/>
+      <c r="BR19" s="58"/>
+      <c r="BS19" s="58"/>
+      <c r="BT19" s="58" t="s">
         <v>40</v>
       </c>
-      <c r="BU19" s="54"/>
-      <c r="BV19" s="54"/>
-      <c r="BW19" s="54"/>
-      <c r="BX19" s="54"/>
-      <c r="BY19" s="54"/>
-      <c r="BZ19" s="54"/>
-      <c r="CA19" s="54"/>
-      <c r="CB19" s="54"/>
-      <c r="CC19" s="54"/>
-      <c r="CD19" s="54"/>
-      <c r="CE19" s="54" t="s">
+      <c r="BU19" s="58"/>
+      <c r="BV19" s="58"/>
+      <c r="BW19" s="58"/>
+      <c r="BX19" s="58"/>
+      <c r="BY19" s="58"/>
+      <c r="BZ19" s="58"/>
+      <c r="CA19" s="58"/>
+      <c r="CB19" s="58"/>
+      <c r="CC19" s="58"/>
+      <c r="CD19" s="58"/>
+      <c r="CE19" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="CF19" s="54"/>
-      <c r="CG19" s="54"/>
-      <c r="CH19" s="54"/>
-      <c r="CI19" s="54"/>
-      <c r="CJ19" s="54"/>
-      <c r="CK19" s="54"/>
-      <c r="CL19" s="54"/>
-      <c r="CM19" s="54"/>
-      <c r="CN19" s="54"/>
-      <c r="CO19" s="54"/>
-      <c r="CP19" s="55" t="s">
+      <c r="CF19" s="58"/>
+      <c r="CG19" s="58"/>
+      <c r="CH19" s="58"/>
+      <c r="CI19" s="58"/>
+      <c r="CJ19" s="58"/>
+      <c r="CK19" s="58"/>
+      <c r="CL19" s="58"/>
+      <c r="CM19" s="58"/>
+      <c r="CN19" s="58"/>
+      <c r="CO19" s="58"/>
+      <c r="CP19" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="CQ19" s="55"/>
-      <c r="CR19" s="55"/>
-      <c r="CS19" s="55"/>
-      <c r="CT19" s="55"/>
-      <c r="CU19" s="55"/>
+      <c r="CQ19" s="59"/>
+      <c r="CR19" s="59"/>
+      <c r="CS19" s="59"/>
+      <c r="CT19" s="59"/>
+      <c r="CU19" s="59"/>
     </row>
     <row r="20" spans="1:99" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53"/>
-      <c r="N20" s="53"/>
-      <c r="O20" s="53"/>
-      <c r="P20" s="53"/>
-      <c r="Q20" s="53"/>
-      <c r="R20" s="54" t="s">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="60"/>
+      <c r="K20" s="60"/>
+      <c r="L20" s="60"/>
+      <c r="M20" s="60"/>
+      <c r="N20" s="60"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="S20" s="54"/>
-      <c r="T20" s="54"/>
-      <c r="U20" s="54"/>
-      <c r="V20" s="54"/>
-      <c r="W20" s="54"/>
-      <c r="X20" s="54" t="s">
+      <c r="S20" s="58"/>
+      <c r="T20" s="58"/>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="58"/>
+      <c r="X20" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="Y20" s="54"/>
-      <c r="Z20" s="54"/>
-      <c r="AA20" s="54"/>
-      <c r="AB20" s="54"/>
-      <c r="AC20" s="54"/>
-      <c r="AD20" s="54" t="s">
+      <c r="Y20" s="58"/>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="58"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="AE20" s="54"/>
-      <c r="AF20" s="54"/>
-      <c r="AG20" s="54"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="54" t="s">
+      <c r="AE20" s="58"/>
+      <c r="AF20" s="58"/>
+      <c r="AG20" s="58"/>
+      <c r="AH20" s="58"/>
+      <c r="AI20" s="58"/>
+      <c r="AJ20" s="58" t="s">
         <v>18</v>
       </c>
-      <c r="AK20" s="54"/>
-      <c r="AL20" s="54"/>
-      <c r="AM20" s="54"/>
-      <c r="AN20" s="54"/>
-      <c r="AO20" s="54"/>
-      <c r="AP20" s="54"/>
-      <c r="AQ20" s="54"/>
-      <c r="AR20" s="54"/>
-      <c r="AS20" s="54"/>
-      <c r="AT20" s="54"/>
-      <c r="AU20" s="54"/>
-      <c r="AV20" s="54"/>
-      <c r="AW20" s="54"/>
-      <c r="AX20" s="54"/>
-      <c r="AY20" s="54" t="s">
+      <c r="AK20" s="58"/>
+      <c r="AL20" s="58"/>
+      <c r="AM20" s="58"/>
+      <c r="AN20" s="58"/>
+      <c r="AO20" s="58"/>
+      <c r="AP20" s="58"/>
+      <c r="AQ20" s="58"/>
+      <c r="AR20" s="58"/>
+      <c r="AS20" s="58"/>
+      <c r="AT20" s="58"/>
+      <c r="AU20" s="58"/>
+      <c r="AV20" s="58"/>
+      <c r="AW20" s="58"/>
+      <c r="AX20" s="58"/>
+      <c r="AY20" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="AZ20" s="54"/>
-      <c r="BA20" s="54"/>
-      <c r="BB20" s="54"/>
-      <c r="BC20" s="54"/>
-      <c r="BD20" s="54"/>
-      <c r="BE20" s="54"/>
-      <c r="BF20" s="54"/>
-      <c r="BG20" s="54"/>
-      <c r="BH20" s="54"/>
-      <c r="BI20" s="54"/>
-      <c r="BJ20" s="54"/>
-      <c r="BK20" s="54"/>
-      <c r="BL20" s="54"/>
-      <c r="BM20" s="54"/>
-      <c r="BN20" s="54"/>
-      <c r="BO20" s="54"/>
-      <c r="BP20" s="54"/>
-      <c r="BQ20" s="54"/>
-      <c r="BR20" s="54"/>
-      <c r="BS20" s="54"/>
-      <c r="BT20" s="54"/>
-      <c r="BU20" s="54"/>
-      <c r="BV20" s="54"/>
-      <c r="BW20" s="54"/>
-      <c r="BX20" s="54"/>
-      <c r="BY20" s="54"/>
-      <c r="BZ20" s="54"/>
-      <c r="CA20" s="54"/>
-      <c r="CB20" s="54"/>
-      <c r="CC20" s="54"/>
-      <c r="CD20" s="54"/>
-      <c r="CE20" s="54"/>
-      <c r="CF20" s="54"/>
-      <c r="CG20" s="54"/>
-      <c r="CH20" s="54"/>
-      <c r="CI20" s="54"/>
-      <c r="CJ20" s="54"/>
-      <c r="CK20" s="54"/>
-      <c r="CL20" s="54"/>
-      <c r="CM20" s="54"/>
-      <c r="CN20" s="54"/>
-      <c r="CO20" s="54"/>
-      <c r="CP20" s="55"/>
-      <c r="CQ20" s="55"/>
-      <c r="CR20" s="55"/>
-      <c r="CS20" s="55"/>
-      <c r="CT20" s="55"/>
-      <c r="CU20" s="55"/>
+      <c r="AZ20" s="58"/>
+      <c r="BA20" s="58"/>
+      <c r="BB20" s="58"/>
+      <c r="BC20" s="58"/>
+      <c r="BD20" s="58"/>
+      <c r="BE20" s="58"/>
+      <c r="BF20" s="58"/>
+      <c r="BG20" s="58"/>
+      <c r="BH20" s="58"/>
+      <c r="BI20" s="58"/>
+      <c r="BJ20" s="58"/>
+      <c r="BK20" s="58"/>
+      <c r="BL20" s="58"/>
+      <c r="BM20" s="58"/>
+      <c r="BN20" s="58"/>
+      <c r="BO20" s="58"/>
+      <c r="BP20" s="58"/>
+      <c r="BQ20" s="58"/>
+      <c r="BR20" s="58"/>
+      <c r="BS20" s="58"/>
+      <c r="BT20" s="58"/>
+      <c r="BU20" s="58"/>
+      <c r="BV20" s="58"/>
+      <c r="BW20" s="58"/>
+      <c r="BX20" s="58"/>
+      <c r="BY20" s="58"/>
+      <c r="BZ20" s="58"/>
+      <c r="CA20" s="58"/>
+      <c r="CB20" s="58"/>
+      <c r="CC20" s="58"/>
+      <c r="CD20" s="58"/>
+      <c r="CE20" s="58"/>
+      <c r="CF20" s="58"/>
+      <c r="CG20" s="58"/>
+      <c r="CH20" s="58"/>
+      <c r="CI20" s="58"/>
+      <c r="CJ20" s="58"/>
+      <c r="CK20" s="58"/>
+      <c r="CL20" s="58"/>
+      <c r="CM20" s="58"/>
+      <c r="CN20" s="58"/>
+      <c r="CO20" s="58"/>
+      <c r="CP20" s="59"/>
+      <c r="CQ20" s="59"/>
+      <c r="CR20" s="59"/>
+      <c r="CS20" s="59"/>
+      <c r="CT20" s="59"/>
+      <c r="CU20" s="59"/>
     </row>
     <row r="21" spans="1:99" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56"/>
-      <c r="B21" s="56"/>
-      <c r="C21" s="56"/>
-      <c r="D21" s="56"/>
-      <c r="E21" s="56"/>
-      <c r="F21" s="56"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="56"/>
-      <c r="I21" s="56"/>
-      <c r="J21" s="56"/>
-      <c r="K21" s="56"/>
-      <c r="L21" s="56"/>
-      <c r="M21" s="56"/>
-      <c r="N21" s="56"/>
-      <c r="O21" s="56"/>
-      <c r="P21" s="56"/>
-      <c r="Q21" s="56"/>
-      <c r="R21" s="57" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="57"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="S21" s="57"/>
-      <c r="T21" s="57"/>
-      <c r="U21" s="57"/>
-      <c r="V21" s="57"/>
-      <c r="W21" s="57"/>
-      <c r="X21" s="57" t="s">
+      <c r="S21" s="52"/>
+      <c r="T21" s="52"/>
+      <c r="U21" s="52"/>
+      <c r="V21" s="52"/>
+      <c r="W21" s="52"/>
+      <c r="X21" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="Y21" s="57"/>
-      <c r="Z21" s="57"/>
-      <c r="AA21" s="57"/>
-      <c r="AB21" s="57"/>
-      <c r="AC21" s="57"/>
-      <c r="AD21" s="57"/>
-      <c r="AE21" s="57"/>
-      <c r="AF21" s="57"/>
-      <c r="AG21" s="57"/>
-      <c r="AH21" s="57"/>
-      <c r="AI21" s="57"/>
-      <c r="AJ21" s="57"/>
-      <c r="AK21" s="57"/>
-      <c r="AL21" s="57"/>
-      <c r="AM21" s="57"/>
-      <c r="AN21" s="57"/>
-      <c r="AO21" s="57"/>
-      <c r="AP21" s="57"/>
-      <c r="AQ21" s="57"/>
-      <c r="AR21" s="57"/>
-      <c r="AS21" s="57"/>
-      <c r="AT21" s="57"/>
-      <c r="AU21" s="57"/>
-      <c r="AV21" s="57"/>
-      <c r="AW21" s="57"/>
-      <c r="AX21" s="57"/>
-      <c r="AY21" s="57"/>
-      <c r="AZ21" s="57"/>
-      <c r="BA21" s="57"/>
-      <c r="BB21" s="57"/>
-      <c r="BC21" s="57"/>
-      <c r="BD21" s="57"/>
-      <c r="BE21" s="57"/>
-      <c r="BF21" s="57"/>
-      <c r="BG21" s="57"/>
-      <c r="BH21" s="57"/>
-      <c r="BI21" s="57"/>
-      <c r="BJ21" s="57"/>
-      <c r="BK21" s="57"/>
-      <c r="BL21" s="57"/>
-      <c r="BM21" s="57"/>
-      <c r="BN21" s="57"/>
-      <c r="BO21" s="57"/>
-      <c r="BP21" s="57"/>
-      <c r="BQ21" s="57"/>
-      <c r="BR21" s="57"/>
-      <c r="BS21" s="57"/>
-      <c r="BT21" s="57"/>
-      <c r="BU21" s="57"/>
-      <c r="BV21" s="57"/>
-      <c r="BW21" s="57"/>
-      <c r="BX21" s="57"/>
-      <c r="BY21" s="57"/>
-      <c r="BZ21" s="57"/>
-      <c r="CA21" s="57"/>
-      <c r="CB21" s="57"/>
-      <c r="CC21" s="57"/>
-      <c r="CD21" s="57"/>
-      <c r="CE21" s="57"/>
-      <c r="CF21" s="57"/>
-      <c r="CG21" s="57"/>
-      <c r="CH21" s="57"/>
-      <c r="CI21" s="57"/>
-      <c r="CJ21" s="57"/>
-      <c r="CK21" s="57"/>
-      <c r="CL21" s="57"/>
-      <c r="CM21" s="57"/>
-      <c r="CN21" s="57"/>
-      <c r="CO21" s="57"/>
-      <c r="CP21" s="58"/>
-      <c r="CQ21" s="58"/>
-      <c r="CR21" s="58"/>
-      <c r="CS21" s="58"/>
-      <c r="CT21" s="58"/>
-      <c r="CU21" s="58"/>
+      <c r="Y21" s="52"/>
+      <c r="Z21" s="52"/>
+      <c r="AA21" s="52"/>
+      <c r="AB21" s="52"/>
+      <c r="AC21" s="52"/>
+      <c r="AD21" s="52"/>
+      <c r="AE21" s="52"/>
+      <c r="AF21" s="52"/>
+      <c r="AG21" s="52"/>
+      <c r="AH21" s="52"/>
+      <c r="AI21" s="52"/>
+      <c r="AJ21" s="52"/>
+      <c r="AK21" s="52"/>
+      <c r="AL21" s="52"/>
+      <c r="AM21" s="52"/>
+      <c r="AN21" s="52"/>
+      <c r="AO21" s="52"/>
+      <c r="AP21" s="52"/>
+      <c r="AQ21" s="52"/>
+      <c r="AR21" s="52"/>
+      <c r="AS21" s="52"/>
+      <c r="AT21" s="52"/>
+      <c r="AU21" s="52"/>
+      <c r="AV21" s="52"/>
+      <c r="AW21" s="52"/>
+      <c r="AX21" s="52"/>
+      <c r="AY21" s="52"/>
+      <c r="AZ21" s="52"/>
+      <c r="BA21" s="52"/>
+      <c r="BB21" s="52"/>
+      <c r="BC21" s="52"/>
+      <c r="BD21" s="52"/>
+      <c r="BE21" s="52"/>
+      <c r="BF21" s="52"/>
+      <c r="BG21" s="52"/>
+      <c r="BH21" s="52"/>
+      <c r="BI21" s="52"/>
+      <c r="BJ21" s="52"/>
+      <c r="BK21" s="52"/>
+      <c r="BL21" s="52"/>
+      <c r="BM21" s="52"/>
+      <c r="BN21" s="52"/>
+      <c r="BO21" s="52"/>
+      <c r="BP21" s="52"/>
+      <c r="BQ21" s="52"/>
+      <c r="BR21" s="52"/>
+      <c r="BS21" s="52"/>
+      <c r="BT21" s="52"/>
+      <c r="BU21" s="52"/>
+      <c r="BV21" s="52"/>
+      <c r="BW21" s="52"/>
+      <c r="BX21" s="52"/>
+      <c r="BY21" s="52"/>
+      <c r="BZ21" s="52"/>
+      <c r="CA21" s="52"/>
+      <c r="CB21" s="52"/>
+      <c r="CC21" s="52"/>
+      <c r="CD21" s="52"/>
+      <c r="CE21" s="52"/>
+      <c r="CF21" s="52"/>
+      <c r="CG21" s="52"/>
+      <c r="CH21" s="52"/>
+      <c r="CI21" s="52"/>
+      <c r="CJ21" s="52"/>
+      <c r="CK21" s="52"/>
+      <c r="CL21" s="52"/>
+      <c r="CM21" s="52"/>
+      <c r="CN21" s="52"/>
+      <c r="CO21" s="52"/>
+      <c r="CP21" s="53"/>
+      <c r="CQ21" s="53"/>
+      <c r="CR21" s="53"/>
+      <c r="CS21" s="53"/>
+      <c r="CT21" s="53"/>
+      <c r="CU21" s="53"/>
     </row>
     <row r="22" spans="1:99" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="59">
+      <c r="A22" s="54">
         <v>1</v>
       </c>
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="60">
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="54"/>
+      <c r="H22" s="54"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="54"/>
+      <c r="R22" s="55">
         <v>2</v>
       </c>
-      <c r="S22" s="60"/>
-      <c r="T22" s="60"/>
-      <c r="U22" s="60"/>
-      <c r="V22" s="60"/>
-      <c r="W22" s="60"/>
-      <c r="X22" s="60">
+      <c r="S22" s="55"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="55"/>
+      <c r="V22" s="55"/>
+      <c r="W22" s="55"/>
+      <c r="X22" s="55">
         <v>3</v>
       </c>
-      <c r="Y22" s="60"/>
-      <c r="Z22" s="60"/>
-      <c r="AA22" s="60"/>
-      <c r="AB22" s="60"/>
-      <c r="AC22" s="60"/>
-      <c r="AD22" s="60">
+      <c r="Y22" s="55"/>
+      <c r="Z22" s="55"/>
+      <c r="AA22" s="55"/>
+      <c r="AB22" s="55"/>
+      <c r="AC22" s="55"/>
+      <c r="AD22" s="55">
         <v>4</v>
       </c>
-      <c r="AE22" s="60"/>
-      <c r="AF22" s="60"/>
-      <c r="AG22" s="60"/>
-      <c r="AH22" s="60"/>
-      <c r="AI22" s="60"/>
-      <c r="AJ22" s="60">
+      <c r="AE22" s="55"/>
+      <c r="AF22" s="55"/>
+      <c r="AG22" s="55"/>
+      <c r="AH22" s="55"/>
+      <c r="AI22" s="55"/>
+      <c r="AJ22" s="55">
         <v>5</v>
       </c>
-      <c r="AK22" s="60"/>
-      <c r="AL22" s="60"/>
-      <c r="AM22" s="60"/>
-      <c r="AN22" s="60"/>
-      <c r="AO22" s="60"/>
-      <c r="AP22" s="60">
+      <c r="AK22" s="55"/>
+      <c r="AL22" s="55"/>
+      <c r="AM22" s="55"/>
+      <c r="AN22" s="55"/>
+      <c r="AO22" s="55"/>
+      <c r="AP22" s="55">
         <v>6</v>
       </c>
-      <c r="AQ22" s="60"/>
-      <c r="AR22" s="60"/>
-      <c r="AS22" s="60"/>
-      <c r="AT22" s="60"/>
-      <c r="AU22" s="60"/>
-      <c r="AV22" s="60"/>
-      <c r="AW22" s="60"/>
-      <c r="AX22" s="60"/>
-      <c r="AY22" s="60">
+      <c r="AQ22" s="55"/>
+      <c r="AR22" s="55"/>
+      <c r="AS22" s="55"/>
+      <c r="AT22" s="55"/>
+      <c r="AU22" s="55"/>
+      <c r="AV22" s="55"/>
+      <c r="AW22" s="55"/>
+      <c r="AX22" s="55"/>
+      <c r="AY22" s="55">
         <v>7</v>
       </c>
-      <c r="AZ22" s="60"/>
-      <c r="BA22" s="60"/>
-      <c r="BB22" s="60"/>
-      <c r="BC22" s="60"/>
-      <c r="BD22" s="60"/>
-      <c r="BE22" s="60">
+      <c r="AZ22" s="55"/>
+      <c r="BA22" s="55"/>
+      <c r="BB22" s="55"/>
+      <c r="BC22" s="55"/>
+      <c r="BD22" s="55"/>
+      <c r="BE22" s="55">
         <v>8</v>
       </c>
-      <c r="BF22" s="60"/>
-      <c r="BG22" s="60"/>
-      <c r="BH22" s="60"/>
-      <c r="BI22" s="60"/>
-      <c r="BJ22" s="60"/>
-      <c r="BK22" s="60">
+      <c r="BF22" s="55"/>
+      <c r="BG22" s="55"/>
+      <c r="BH22" s="55"/>
+      <c r="BI22" s="55"/>
+      <c r="BJ22" s="55"/>
+      <c r="BK22" s="55">
         <v>9</v>
       </c>
-      <c r="BL22" s="60"/>
-      <c r="BM22" s="60"/>
-      <c r="BN22" s="60"/>
-      <c r="BO22" s="60"/>
-      <c r="BP22" s="60"/>
-      <c r="BQ22" s="60"/>
-      <c r="BR22" s="60"/>
-      <c r="BS22" s="60"/>
-      <c r="BT22" s="60">
+      <c r="BL22" s="55"/>
+      <c r="BM22" s="55"/>
+      <c r="BN22" s="55"/>
+      <c r="BO22" s="55"/>
+      <c r="BP22" s="55"/>
+      <c r="BQ22" s="55"/>
+      <c r="BR22" s="55"/>
+      <c r="BS22" s="55"/>
+      <c r="BT22" s="55">
         <v>10</v>
       </c>
-      <c r="BU22" s="60"/>
-      <c r="BV22" s="60"/>
-      <c r="BW22" s="60"/>
-      <c r="BX22" s="60"/>
-      <c r="BY22" s="60"/>
-      <c r="BZ22" s="60"/>
-      <c r="CA22" s="60"/>
-      <c r="CB22" s="60"/>
-      <c r="CC22" s="60"/>
-      <c r="CD22" s="60"/>
-      <c r="CE22" s="60">
+      <c r="BU22" s="55"/>
+      <c r="BV22" s="55"/>
+      <c r="BW22" s="55"/>
+      <c r="BX22" s="55"/>
+      <c r="BY22" s="55"/>
+      <c r="BZ22" s="55"/>
+      <c r="CA22" s="55"/>
+      <c r="CB22" s="55"/>
+      <c r="CC22" s="55"/>
+      <c r="CD22" s="55"/>
+      <c r="CE22" s="55">
         <v>11</v>
       </c>
-      <c r="CF22" s="60"/>
-      <c r="CG22" s="60"/>
-      <c r="CH22" s="60"/>
-      <c r="CI22" s="60"/>
-      <c r="CJ22" s="60"/>
-      <c r="CK22" s="60"/>
-      <c r="CL22" s="60"/>
-      <c r="CM22" s="60"/>
-      <c r="CN22" s="60"/>
-      <c r="CO22" s="60"/>
-      <c r="CP22" s="61">
+      <c r="CF22" s="55"/>
+      <c r="CG22" s="55"/>
+      <c r="CH22" s="55"/>
+      <c r="CI22" s="55"/>
+      <c r="CJ22" s="55"/>
+      <c r="CK22" s="55"/>
+      <c r="CL22" s="55"/>
+      <c r="CM22" s="55"/>
+      <c r="CN22" s="55"/>
+      <c r="CO22" s="55"/>
+      <c r="CP22" s="56">
         <v>12</v>
       </c>
-      <c r="CQ22" s="61"/>
-      <c r="CR22" s="61"/>
-      <c r="CS22" s="61"/>
-      <c r="CT22" s="61"/>
-      <c r="CU22" s="61"/>
+      <c r="CQ22" s="56"/>
+      <c r="CR22" s="56"/>
+      <c r="CS22" s="56"/>
+      <c r="CT22" s="56"/>
+      <c r="CU22" s="56"/>
     </row>
     <row r="23" spans="1:99" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="66"/>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="66"/>
-      <c r="K23" s="66"/>
-      <c r="L23" s="66"/>
-      <c r="M23" s="66"/>
-      <c r="N23" s="66"/>
-      <c r="O23" s="66"/>
-      <c r="P23" s="66"/>
-      <c r="Q23" s="66"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62" t="s">
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="48"/>
+      <c r="L23" s="48"/>
+      <c r="M23" s="48"/>
+      <c r="N23" s="48"/>
+      <c r="O23" s="48"/>
+      <c r="P23" s="48"/>
+      <c r="Q23" s="48"/>
+      <c r="R23" s="49"/>
+      <c r="S23" s="49"/>
+      <c r="T23" s="49"/>
+      <c r="U23" s="49"/>
+      <c r="V23" s="49"/>
+      <c r="W23" s="49"/>
+      <c r="X23" s="49" t="s">
         <v>49</v>
       </c>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="63"/>
-      <c r="AQ23" s="63"/>
-      <c r="AR23" s="63"/>
-      <c r="AS23" s="63"/>
-      <c r="AT23" s="63"/>
-      <c r="AU23" s="63"/>
-      <c r="AV23" s="63"/>
-      <c r="AW23" s="63"/>
-      <c r="AX23" s="63"/>
-      <c r="AY23" s="64"/>
-      <c r="AZ23" s="64"/>
-      <c r="BA23" s="64"/>
-      <c r="BB23" s="64"/>
-      <c r="BC23" s="64"/>
-      <c r="BD23" s="64"/>
-      <c r="BE23" s="64"/>
-      <c r="BF23" s="64"/>
-      <c r="BG23" s="64"/>
-      <c r="BH23" s="64"/>
-      <c r="BI23" s="64"/>
-      <c r="BJ23" s="64"/>
-      <c r="BK23" s="63"/>
-      <c r="BL23" s="63"/>
-      <c r="BM23" s="63"/>
-      <c r="BN23" s="63"/>
-      <c r="BO23" s="63"/>
-      <c r="BP23" s="63"/>
-      <c r="BQ23" s="63"/>
-      <c r="BR23" s="63"/>
-      <c r="BS23" s="63"/>
-      <c r="BT23" s="65"/>
-      <c r="BU23" s="65"/>
-      <c r="BV23" s="65"/>
-      <c r="BW23" s="65"/>
-      <c r="BX23" s="65"/>
-      <c r="BY23" s="65"/>
-      <c r="BZ23" s="65"/>
-      <c r="CA23" s="65"/>
-      <c r="CB23" s="65"/>
-      <c r="CC23" s="65"/>
-      <c r="CD23" s="65"/>
-      <c r="CE23" s="65"/>
-      <c r="CF23" s="65"/>
-      <c r="CG23" s="65"/>
-      <c r="CH23" s="65"/>
-      <c r="CI23" s="65"/>
-      <c r="CJ23" s="65"/>
-      <c r="CK23" s="65"/>
-      <c r="CL23" s="65"/>
-      <c r="CM23" s="65"/>
-      <c r="CN23" s="65"/>
-      <c r="CO23" s="65"/>
-      <c r="CP23" s="67" t="s">
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
+      <c r="AA23" s="49"/>
+      <c r="AB23" s="49"/>
+      <c r="AC23" s="49"/>
+      <c r="AD23" s="49"/>
+      <c r="AE23" s="49"/>
+      <c r="AF23" s="49"/>
+      <c r="AG23" s="49"/>
+      <c r="AH23" s="49"/>
+      <c r="AI23" s="49"/>
+      <c r="AJ23" s="49"/>
+      <c r="AK23" s="49"/>
+      <c r="AL23" s="49"/>
+      <c r="AM23" s="49"/>
+      <c r="AN23" s="49"/>
+      <c r="AO23" s="49"/>
+      <c r="AP23" s="50"/>
+      <c r="AQ23" s="50"/>
+      <c r="AR23" s="50"/>
+      <c r="AS23" s="50"/>
+      <c r="AT23" s="50"/>
+      <c r="AU23" s="50"/>
+      <c r="AV23" s="50"/>
+      <c r="AW23" s="50"/>
+      <c r="AX23" s="50"/>
+      <c r="AY23" s="51"/>
+      <c r="AZ23" s="51"/>
+      <c r="BA23" s="51"/>
+      <c r="BB23" s="51"/>
+      <c r="BC23" s="51"/>
+      <c r="BD23" s="51"/>
+      <c r="BE23" s="51"/>
+      <c r="BF23" s="51"/>
+      <c r="BG23" s="51"/>
+      <c r="BH23" s="51"/>
+      <c r="BI23" s="51"/>
+      <c r="BJ23" s="51"/>
+      <c r="BK23" s="50"/>
+      <c r="BL23" s="50"/>
+      <c r="BM23" s="50"/>
+      <c r="BN23" s="50"/>
+      <c r="BO23" s="50"/>
+      <c r="BP23" s="50"/>
+      <c r="BQ23" s="50"/>
+      <c r="BR23" s="50"/>
+      <c r="BS23" s="50"/>
+      <c r="BT23" s="45"/>
+      <c r="BU23" s="45"/>
+      <c r="BV23" s="45"/>
+      <c r="BW23" s="45"/>
+      <c r="BX23" s="45"/>
+      <c r="BY23" s="45"/>
+      <c r="BZ23" s="45"/>
+      <c r="CA23" s="45"/>
+      <c r="CB23" s="45"/>
+      <c r="CC23" s="45"/>
+      <c r="CD23" s="45"/>
+      <c r="CE23" s="45"/>
+      <c r="CF23" s="45"/>
+      <c r="CG23" s="45"/>
+      <c r="CH23" s="45"/>
+      <c r="CI23" s="45"/>
+      <c r="CJ23" s="45"/>
+      <c r="CK23" s="45"/>
+      <c r="CL23" s="45"/>
+      <c r="CM23" s="45"/>
+      <c r="CN23" s="45"/>
+      <c r="CO23" s="45"/>
+      <c r="CP23" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="CQ23" s="67"/>
-      <c r="CR23" s="67"/>
-      <c r="CS23" s="67"/>
-      <c r="CT23" s="67"/>
-      <c r="CU23" s="67"/>
+      <c r="CQ23" s="42"/>
+      <c r="CR23" s="42"/>
+      <c r="CS23" s="42"/>
+      <c r="CT23" s="42"/>
+      <c r="CU23" s="42"/>
     </row>
     <row r="24" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AO24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AP24" s="68" t="s">
+      <c r="AP24" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AQ24" s="68"/>
-      <c r="AR24" s="68"/>
-      <c r="AS24" s="68"/>
-      <c r="AT24" s="68"/>
-      <c r="AU24" s="68"/>
-      <c r="AV24" s="68"/>
-      <c r="AW24" s="68"/>
-      <c r="AX24" s="68"/>
-      <c r="AY24" s="68" t="s">
+      <c r="AQ24" s="43"/>
+      <c r="AR24" s="43"/>
+      <c r="AS24" s="43"/>
+      <c r="AT24" s="43"/>
+      <c r="AU24" s="43"/>
+      <c r="AV24" s="43"/>
+      <c r="AW24" s="43"/>
+      <c r="AX24" s="43"/>
+      <c r="AY24" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="AZ24" s="68"/>
-      <c r="BA24" s="68"/>
-      <c r="BB24" s="68"/>
-      <c r="BC24" s="68"/>
-      <c r="BD24" s="68"/>
-      <c r="BE24" s="68" t="s">
+      <c r="AZ24" s="43"/>
+      <c r="BA24" s="43"/>
+      <c r="BB24" s="43"/>
+      <c r="BC24" s="43"/>
+      <c r="BD24" s="43"/>
+      <c r="BE24" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="BF24" s="68"/>
-      <c r="BG24" s="68"/>
-      <c r="BH24" s="68"/>
-      <c r="BI24" s="68"/>
-      <c r="BJ24" s="68"/>
-      <c r="BK24" s="69"/>
-      <c r="BL24" s="69"/>
-      <c r="BM24" s="69"/>
-      <c r="BN24" s="69"/>
-      <c r="BO24" s="69"/>
-      <c r="BP24" s="69"/>
-      <c r="BQ24" s="69"/>
-      <c r="BR24" s="69"/>
-      <c r="BS24" s="69"/>
-      <c r="BT24" s="65"/>
-      <c r="BU24" s="65"/>
-      <c r="BV24" s="65"/>
-      <c r="BW24" s="65"/>
-      <c r="BX24" s="65"/>
-      <c r="BY24" s="65"/>
-      <c r="BZ24" s="65"/>
-      <c r="CA24" s="65"/>
-      <c r="CB24" s="65"/>
-      <c r="CC24" s="65"/>
-      <c r="CD24" s="65"/>
-      <c r="CE24" s="65"/>
-      <c r="CF24" s="65"/>
-      <c r="CG24" s="65"/>
-      <c r="CH24" s="65"/>
-      <c r="CI24" s="65"/>
-      <c r="CJ24" s="65"/>
-      <c r="CK24" s="65"/>
-      <c r="CL24" s="65"/>
-      <c r="CM24" s="65"/>
-      <c r="CN24" s="65"/>
-      <c r="CO24" s="65"/>
+      <c r="BF24" s="43"/>
+      <c r="BG24" s="43"/>
+      <c r="BH24" s="43"/>
+      <c r="BI24" s="43"/>
+      <c r="BJ24" s="43"/>
+      <c r="BK24" s="44"/>
+      <c r="BL24" s="44"/>
+      <c r="BM24" s="44"/>
+      <c r="BN24" s="44"/>
+      <c r="BO24" s="44"/>
+      <c r="BP24" s="44"/>
+      <c r="BQ24" s="44"/>
+      <c r="BR24" s="44"/>
+      <c r="BS24" s="44"/>
+      <c r="BT24" s="45"/>
+      <c r="BU24" s="45"/>
+      <c r="BV24" s="45"/>
+      <c r="BW24" s="45"/>
+      <c r="BX24" s="45"/>
+      <c r="BY24" s="45"/>
+      <c r="BZ24" s="45"/>
+      <c r="CA24" s="45"/>
+      <c r="CB24" s="45"/>
+      <c r="CC24" s="45"/>
+      <c r="CD24" s="45"/>
+      <c r="CE24" s="45"/>
+      <c r="CF24" s="45"/>
+      <c r="CG24" s="45"/>
+      <c r="CH24" s="45"/>
+      <c r="CI24" s="45"/>
+      <c r="CJ24" s="45"/>
+      <c r="CK24" s="45"/>
+      <c r="CL24" s="45"/>
+      <c r="CM24" s="45"/>
+      <c r="CN24" s="45"/>
+      <c r="CO24" s="45"/>
     </row>
     <row r="25" spans="1:99" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:99" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
@@ -3255,83 +3264,83 @@
       <c r="CU29" s="22"/>
     </row>
     <row r="30" spans="1:99" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="72"/>
-      <c r="B30" s="72"/>
-      <c r="C30" s="72"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="72"/>
-      <c r="F30" s="72"/>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
-      <c r="I30" s="72"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="41"/>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="41"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
+      <c r="I30" s="41"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46"/>
-      <c r="N30" s="46"/>
-      <c r="O30" s="46"/>
-      <c r="P30" s="46"/>
-      <c r="Q30" s="46"/>
+      <c r="K30" s="37"/>
+      <c r="L30" s="37"/>
+      <c r="M30" s="37"/>
+      <c r="N30" s="37"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
+      <c r="Q30" s="37"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="39"/>
-      <c r="T30" s="39"/>
-      <c r="U30" s="39"/>
-      <c r="V30" s="39"/>
-      <c r="W30" s="39"/>
-      <c r="X30" s="39"/>
-      <c r="Y30" s="39"/>
-      <c r="Z30" s="39"/>
-      <c r="AA30" s="39"/>
-      <c r="AB30" s="39"/>
-      <c r="AC30" s="39"/>
-      <c r="AF30" s="39"/>
-      <c r="AG30" s="39"/>
-      <c r="AH30" s="39"/>
-      <c r="AI30" s="39"/>
-      <c r="AJ30" s="39"/>
-      <c r="AK30" s="39"/>
-      <c r="AL30" s="39"/>
-      <c r="AM30" s="39"/>
-      <c r="AN30" s="39"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+      <c r="Z30" s="35"/>
+      <c r="AA30" s="35"/>
+      <c r="AB30" s="35"/>
+      <c r="AC30" s="35"/>
+      <c r="AF30" s="35"/>
+      <c r="AG30" s="35"/>
+      <c r="AH30" s="35"/>
+      <c r="AI30" s="35"/>
+      <c r="AJ30" s="35"/>
+      <c r="AK30" s="35"/>
+      <c r="AL30" s="35"/>
+      <c r="AM30" s="35"/>
+      <c r="AN30" s="35"/>
       <c r="AO30" s="1"/>
-      <c r="AP30" s="46"/>
-      <c r="AQ30" s="46"/>
-      <c r="AR30" s="46"/>
-      <c r="AS30" s="46"/>
-      <c r="AT30" s="46"/>
-      <c r="AU30" s="46"/>
-      <c r="AV30" s="46"/>
+      <c r="AP30" s="37"/>
+      <c r="AQ30" s="37"/>
+      <c r="AR30" s="37"/>
+      <c r="AS30" s="37"/>
+      <c r="AT30" s="37"/>
+      <c r="AU30" s="37"/>
+      <c r="AV30" s="37"/>
       <c r="AW30" s="1"/>
-      <c r="AX30" s="39"/>
-      <c r="AY30" s="39"/>
-      <c r="AZ30" s="39"/>
-      <c r="BA30" s="39"/>
-      <c r="BB30" s="39"/>
-      <c r="BC30" s="39"/>
-      <c r="BD30" s="39"/>
-      <c r="BE30" s="39"/>
-      <c r="BF30" s="39"/>
-      <c r="BG30" s="39"/>
-      <c r="BH30" s="39"/>
+      <c r="AX30" s="35"/>
+      <c r="AY30" s="35"/>
+      <c r="AZ30" s="35"/>
+      <c r="BA30" s="35"/>
+      <c r="BB30" s="35"/>
+      <c r="BC30" s="35"/>
+      <c r="BD30" s="35"/>
+      <c r="BE30" s="35"/>
+      <c r="BF30" s="35"/>
+      <c r="BG30" s="35"/>
+      <c r="BH30" s="35"/>
       <c r="BJ30" s="19"/>
       <c r="BL30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="BZ30" s="70"/>
-      <c r="CA30" s="70"/>
-      <c r="CB30" s="70"/>
-      <c r="CC30" s="70"/>
-      <c r="CD30" s="70"/>
-      <c r="CE30" s="70"/>
-      <c r="CF30" s="70"/>
-      <c r="CG30" s="70"/>
-      <c r="CH30" s="71">
+      <c r="BZ30" s="46"/>
+      <c r="CA30" s="46"/>
+      <c r="CB30" s="46"/>
+      <c r="CC30" s="46"/>
+      <c r="CD30" s="46"/>
+      <c r="CE30" s="46"/>
+      <c r="CF30" s="46"/>
+      <c r="CG30" s="46"/>
+      <c r="CH30" s="47">
         <v>20</v>
       </c>
-      <c r="CI30" s="71"/>
-      <c r="CJ30" s="70"/>
-      <c r="CK30" s="70"/>
-      <c r="CL30" s="70"/>
+      <c r="CI30" s="47"/>
+      <c r="CJ30" s="46"/>
+      <c r="CK30" s="46"/>
+      <c r="CL30" s="46"/>
       <c r="CM30" s="24" t="s">
         <v>10</v>
       </c>
@@ -3339,76 +3348,76 @@
       <c r="CU30" s="22"/>
     </row>
     <row r="31" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="47" t="s">
+      <c r="A31" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="48" t="s">
+      <c r="K31" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="48"/>
-      <c r="P31" s="48"/>
-      <c r="Q31" s="48"/>
+      <c r="L31" s="39"/>
+      <c r="M31" s="39"/>
+      <c r="N31" s="39"/>
+      <c r="O31" s="39"/>
+      <c r="P31" s="39"/>
+      <c r="Q31" s="39"/>
       <c r="R31" s="14"/>
-      <c r="S31" s="48" t="s">
+      <c r="S31" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
-      <c r="V31" s="48"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="48"/>
-      <c r="Y31" s="48"/>
-      <c r="Z31" s="48"/>
-      <c r="AA31" s="48"/>
-      <c r="AB31" s="48"/>
-      <c r="AC31" s="48"/>
-      <c r="AF31" s="47" t="s">
+      <c r="T31" s="39"/>
+      <c r="U31" s="39"/>
+      <c r="V31" s="39"/>
+      <c r="W31" s="39"/>
+      <c r="X31" s="39"/>
+      <c r="Y31" s="39"/>
+      <c r="Z31" s="39"/>
+      <c r="AA31" s="39"/>
+      <c r="AB31" s="39"/>
+      <c r="AC31" s="39"/>
+      <c r="AF31" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="AG31" s="47"/>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="47"/>
-      <c r="AL31" s="47"/>
-      <c r="AM31" s="47"/>
-      <c r="AN31" s="47"/>
+      <c r="AG31" s="38"/>
+      <c r="AH31" s="38"/>
+      <c r="AI31" s="38"/>
+      <c r="AJ31" s="38"/>
+      <c r="AK31" s="38"/>
+      <c r="AL31" s="38"/>
+      <c r="AM31" s="38"/>
+      <c r="AN31" s="38"/>
       <c r="AO31" s="14"/>
-      <c r="AP31" s="48" t="s">
+      <c r="AP31" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="AQ31" s="48"/>
-      <c r="AR31" s="48"/>
-      <c r="AS31" s="48"/>
-      <c r="AT31" s="48"/>
-      <c r="AU31" s="48"/>
-      <c r="AV31" s="48"/>
+      <c r="AQ31" s="39"/>
+      <c r="AR31" s="39"/>
+      <c r="AS31" s="39"/>
+      <c r="AT31" s="39"/>
+      <c r="AU31" s="39"/>
+      <c r="AV31" s="39"/>
       <c r="AW31" s="14"/>
-      <c r="AX31" s="48" t="s">
+      <c r="AX31" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AY31" s="48"/>
-      <c r="AZ31" s="48"/>
-      <c r="BA31" s="48"/>
-      <c r="BB31" s="48"/>
-      <c r="BC31" s="48"/>
-      <c r="BD31" s="48"/>
-      <c r="BE31" s="48"/>
-      <c r="BF31" s="48"/>
-      <c r="BG31" s="48"/>
-      <c r="BH31" s="48"/>
+      <c r="AY31" s="39"/>
+      <c r="AZ31" s="39"/>
+      <c r="BA31" s="39"/>
+      <c r="BB31" s="39"/>
+      <c r="BC31" s="39"/>
+      <c r="BD31" s="39"/>
+      <c r="BE31" s="39"/>
+      <c r="BF31" s="39"/>
+      <c r="BG31" s="39"/>
+      <c r="BH31" s="39"/>
       <c r="BJ31" s="19"/>
       <c r="CU31" s="22"/>
     </row>
@@ -3475,126 +3484,126 @@
       <c r="BK32" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="BS32" s="39"/>
-      <c r="BT32" s="39"/>
-      <c r="BU32" s="39"/>
-      <c r="BV32" s="39"/>
-      <c r="BW32" s="39"/>
-      <c r="BX32" s="39"/>
-      <c r="BY32" s="39"/>
-      <c r="BZ32" s="39"/>
-      <c r="CB32" s="73"/>
-      <c r="CC32" s="73"/>
-      <c r="CD32" s="73"/>
-      <c r="CE32" s="73"/>
-      <c r="CF32" s="73"/>
-      <c r="CG32" s="73"/>
-      <c r="CI32" s="39"/>
-      <c r="CJ32" s="39"/>
-      <c r="CK32" s="39"/>
-      <c r="CL32" s="39"/>
-      <c r="CM32" s="39"/>
-      <c r="CN32" s="39"/>
-      <c r="CO32" s="39"/>
-      <c r="CP32" s="39"/>
-      <c r="CQ32" s="39"/>
-      <c r="CR32" s="39"/>
-      <c r="CS32" s="39"/>
-      <c r="CT32" s="39"/>
+      <c r="BS32" s="35"/>
+      <c r="BT32" s="35"/>
+      <c r="BU32" s="35"/>
+      <c r="BV32" s="35"/>
+      <c r="BW32" s="35"/>
+      <c r="BX32" s="35"/>
+      <c r="BY32" s="35"/>
+      <c r="BZ32" s="35"/>
+      <c r="CB32" s="40"/>
+      <c r="CC32" s="40"/>
+      <c r="CD32" s="40"/>
+      <c r="CE32" s="40"/>
+      <c r="CF32" s="40"/>
+      <c r="CG32" s="40"/>
+      <c r="CI32" s="35"/>
+      <c r="CJ32" s="35"/>
+      <c r="CK32" s="35"/>
+      <c r="CL32" s="35"/>
+      <c r="CM32" s="35"/>
+      <c r="CN32" s="35"/>
+      <c r="CO32" s="35"/>
+      <c r="CP32" s="35"/>
+      <c r="CQ32" s="35"/>
+      <c r="CR32" s="35"/>
+      <c r="CS32" s="35"/>
+      <c r="CT32" s="35"/>
       <c r="CU32" s="22"/>
     </row>
     <row r="33" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="39"/>
-      <c r="M33" s="39"/>
-      <c r="N33" s="39"/>
-      <c r="O33" s="39"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="35"/>
+      <c r="I33" s="35"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="35"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="35"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="35"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="7" t="s">
+      <c r="Q33" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="R33" s="40"/>
-      <c r="S33" s="40"/>
+      <c r="R33" s="36"/>
+      <c r="S33" s="36"/>
       <c r="T33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="AF33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AG33" s="39"/>
-      <c r="AH33" s="39"/>
+      <c r="AG33" s="35"/>
+      <c r="AH33" s="35"/>
       <c r="AI33" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AJ33" s="39"/>
-      <c r="AK33" s="39"/>
-      <c r="AL33" s="39"/>
-      <c r="AM33" s="39"/>
-      <c r="AN33" s="39"/>
-      <c r="AO33" s="39"/>
-      <c r="AP33" s="39"/>
-      <c r="AQ33" s="39"/>
-      <c r="AR33" s="39"/>
-      <c r="AS33" s="39"/>
-      <c r="AT33" s="39"/>
+      <c r="AJ33" s="35"/>
+      <c r="AK33" s="35"/>
+      <c r="AL33" s="35"/>
+      <c r="AM33" s="35"/>
+      <c r="AN33" s="35"/>
+      <c r="AO33" s="35"/>
+      <c r="AP33" s="35"/>
+      <c r="AQ33" s="35"/>
+      <c r="AR33" s="35"/>
+      <c r="AS33" s="35"/>
+      <c r="AT33" s="35"/>
       <c r="AU33" s="1"/>
-      <c r="AV33" s="7" t="s">
+      <c r="AV33" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="AW33" s="40"/>
-      <c r="AX33" s="40"/>
+      <c r="AW33" s="36"/>
+      <c r="AX33" s="36"/>
       <c r="AY33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BJ33" s="19"/>
-      <c r="BS33" s="47" t="s">
+      <c r="BS33" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="BT33" s="47"/>
-      <c r="BU33" s="47"/>
-      <c r="BV33" s="47"/>
-      <c r="BW33" s="47"/>
-      <c r="BX33" s="47"/>
-      <c r="BY33" s="47"/>
-      <c r="BZ33" s="47"/>
+      <c r="BT33" s="38"/>
+      <c r="BU33" s="38"/>
+      <c r="BV33" s="38"/>
+      <c r="BW33" s="38"/>
+      <c r="BX33" s="38"/>
+      <c r="BY33" s="38"/>
+      <c r="BZ33" s="38"/>
       <c r="CA33" s="30"/>
-      <c r="CB33" s="47" t="s">
+      <c r="CB33" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="CC33" s="47"/>
-      <c r="CD33" s="47"/>
-      <c r="CE33" s="47"/>
-      <c r="CF33" s="47"/>
-      <c r="CG33" s="47"/>
+      <c r="CC33" s="38"/>
+      <c r="CD33" s="38"/>
+      <c r="CE33" s="38"/>
+      <c r="CF33" s="38"/>
+      <c r="CG33" s="38"/>
       <c r="CH33" s="30"/>
-      <c r="CI33" s="47" t="s">
+      <c r="CI33" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="CJ33" s="47"/>
-      <c r="CK33" s="47"/>
-      <c r="CL33" s="47"/>
-      <c r="CM33" s="47"/>
-      <c r="CN33" s="47"/>
-      <c r="CO33" s="47"/>
-      <c r="CP33" s="47"/>
-      <c r="CQ33" s="47"/>
-      <c r="CR33" s="47"/>
-      <c r="CS33" s="47"/>
-      <c r="CT33" s="47"/>
+      <c r="CJ33" s="38"/>
+      <c r="CK33" s="38"/>
+      <c r="CL33" s="38"/>
+      <c r="CM33" s="38"/>
+      <c r="CN33" s="38"/>
+      <c r="CO33" s="38"/>
+      <c r="CP33" s="38"/>
+      <c r="CQ33" s="38"/>
+      <c r="CR33" s="38"/>
+      <c r="CS33" s="38"/>
+      <c r="CT33" s="38"/>
       <c r="CU33" s="22"/>
     </row>
     <row r="34" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -3608,27 +3617,27 @@
       <c r="BK34" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="BL34" s="39"/>
-      <c r="BM34" s="39"/>
+      <c r="BL34" s="35"/>
+      <c r="BM34" s="35"/>
       <c r="BN34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="BO34" s="39"/>
-      <c r="BP34" s="39"/>
-      <c r="BQ34" s="39"/>
-      <c r="BR34" s="39"/>
-      <c r="BS34" s="39"/>
-      <c r="BT34" s="39"/>
-      <c r="BU34" s="39"/>
-      <c r="BV34" s="39"/>
-      <c r="BW34" s="39"/>
-      <c r="BX34" s="39"/>
-      <c r="BY34" s="39"/>
+      <c r="BO34" s="35"/>
+      <c r="BP34" s="35"/>
+      <c r="BQ34" s="35"/>
+      <c r="BR34" s="35"/>
+      <c r="BS34" s="35"/>
+      <c r="BT34" s="35"/>
+      <c r="BU34" s="35"/>
+      <c r="BV34" s="35"/>
+      <c r="BW34" s="35"/>
+      <c r="BX34" s="35"/>
+      <c r="BY34" s="35"/>
       <c r="CA34" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CB34" s="40"/>
-      <c r="CC34" s="40"/>
+      <c r="CB34" s="36"/>
+      <c r="CC34" s="36"/>
       <c r="CD34" s="20" t="s">
         <v>10</v>
       </c>
@@ -3638,51 +3647,51 @@
       <c r="A35" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="39"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="39"/>
-      <c r="J35" s="39"/>
-      <c r="K35" s="39"/>
-      <c r="L35" s="39"/>
-      <c r="M35" s="39"/>
-      <c r="N35" s="39"/>
-      <c r="O35" s="39"/>
-      <c r="P35" s="39"/>
-      <c r="Q35" s="39"/>
-      <c r="R35" s="39"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="39"/>
-      <c r="V35" s="46"/>
-      <c r="W35" s="46"/>
-      <c r="X35" s="46"/>
-      <c r="Y35" s="46"/>
-      <c r="Z35" s="46"/>
-      <c r="AA35" s="46"/>
-      <c r="AB35" s="46"/>
-      <c r="AC35" s="46"/>
-      <c r="AD35" s="46"/>
-      <c r="AE35" s="46"/>
-      <c r="AF35" s="46"/>
-      <c r="AG35" s="46"/>
-      <c r="AI35" s="39"/>
-      <c r="AJ35" s="39"/>
-      <c r="AK35" s="39"/>
-      <c r="AL35" s="39"/>
-      <c r="AM35" s="39"/>
-      <c r="AN35" s="39"/>
-      <c r="AO35" s="39"/>
-      <c r="AP35" s="39"/>
-      <c r="AQ35" s="39"/>
-      <c r="AR35" s="39"/>
-      <c r="AS35" s="39"/>
-      <c r="AT35" s="39"/>
-      <c r="AU35" s="39"/>
-      <c r="AV35" s="39"/>
-      <c r="AW35" s="39"/>
-      <c r="AX35" s="39"/>
-      <c r="AY35" s="39"/>
-      <c r="AZ35" s="39"/>
-      <c r="BA35" s="39"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="35"/>
+      <c r="I35" s="35"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="35"/>
+      <c r="L35" s="35"/>
+      <c r="M35" s="35"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="35"/>
+      <c r="P35" s="35"/>
+      <c r="Q35" s="35"/>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="V35" s="37"/>
+      <c r="W35" s="37"/>
+      <c r="X35" s="37"/>
+      <c r="Y35" s="37"/>
+      <c r="Z35" s="37"/>
+      <c r="AA35" s="37"/>
+      <c r="AB35" s="37"/>
+      <c r="AC35" s="37"/>
+      <c r="AD35" s="37"/>
+      <c r="AE35" s="37"/>
+      <c r="AF35" s="37"/>
+      <c r="AG35" s="37"/>
+      <c r="AI35" s="35"/>
+      <c r="AJ35" s="35"/>
+      <c r="AK35" s="35"/>
+      <c r="AL35" s="35"/>
+      <c r="AM35" s="35"/>
+      <c r="AN35" s="35"/>
+      <c r="AO35" s="35"/>
+      <c r="AP35" s="35"/>
+      <c r="AQ35" s="35"/>
+      <c r="AR35" s="35"/>
+      <c r="AS35" s="35"/>
+      <c r="AT35" s="35"/>
+      <c r="AU35" s="35"/>
+      <c r="AV35" s="35"/>
+      <c r="AW35" s="35"/>
+      <c r="AX35" s="35"/>
+      <c r="AY35" s="35"/>
+      <c r="AZ35" s="35"/>
+      <c r="BA35" s="35"/>
       <c r="BJ35" s="32"/>
       <c r="BK35" s="33"/>
       <c r="BL35" s="33"/>
@@ -3723,83 +3732,83 @@
       <c r="CU35" s="34"/>
     </row>
     <row r="36" spans="1:99" s="14" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="G36" s="47" t="s">
+      <c r="G36" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="47"/>
-      <c r="K36" s="47"/>
-      <c r="L36" s="47"/>
-      <c r="M36" s="47"/>
-      <c r="N36" s="47"/>
-      <c r="O36" s="47"/>
-      <c r="P36" s="47"/>
-      <c r="Q36" s="47"/>
-      <c r="R36" s="47"/>
-      <c r="S36" s="47"/>
-      <c r="T36" s="47"/>
-      <c r="V36" s="48" t="s">
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
+      <c r="V36" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="W36" s="48"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="Z36" s="48"/>
-      <c r="AA36" s="48"/>
-      <c r="AB36" s="48"/>
-      <c r="AC36" s="48"/>
-      <c r="AD36" s="48"/>
-      <c r="AE36" s="48"/>
-      <c r="AF36" s="48"/>
-      <c r="AG36" s="48"/>
-      <c r="AI36" s="48" t="s">
+      <c r="W36" s="39"/>
+      <c r="X36" s="39"/>
+      <c r="Y36" s="39"/>
+      <c r="Z36" s="39"/>
+      <c r="AA36" s="39"/>
+      <c r="AB36" s="39"/>
+      <c r="AC36" s="39"/>
+      <c r="AD36" s="39"/>
+      <c r="AE36" s="39"/>
+      <c r="AF36" s="39"/>
+      <c r="AG36" s="39"/>
+      <c r="AI36" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="AJ36" s="48"/>
-      <c r="AK36" s="48"/>
-      <c r="AL36" s="48"/>
-      <c r="AM36" s="48"/>
-      <c r="AN36" s="48"/>
-      <c r="AO36" s="48"/>
-      <c r="AP36" s="48"/>
-      <c r="AQ36" s="48"/>
-      <c r="AR36" s="48"/>
-      <c r="AS36" s="48"/>
-      <c r="AT36" s="48"/>
-      <c r="AU36" s="48"/>
-      <c r="AV36" s="48"/>
-      <c r="AW36" s="48"/>
-      <c r="AX36" s="48"/>
-      <c r="AY36" s="48"/>
-      <c r="AZ36" s="48"/>
-      <c r="BA36" s="48"/>
+      <c r="AJ36" s="39"/>
+      <c r="AK36" s="39"/>
+      <c r="AL36" s="39"/>
+      <c r="AM36" s="39"/>
+      <c r="AN36" s="39"/>
+      <c r="AO36" s="39"/>
+      <c r="AP36" s="39"/>
+      <c r="AQ36" s="39"/>
+      <c r="AR36" s="39"/>
+      <c r="AS36" s="39"/>
+      <c r="AT36" s="39"/>
+      <c r="AU36" s="39"/>
+      <c r="AV36" s="39"/>
+      <c r="AW36" s="39"/>
+      <c r="AX36" s="39"/>
+      <c r="AY36" s="39"/>
+      <c r="AZ36" s="39"/>
+      <c r="BA36" s="39"/>
     </row>
     <row r="37" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="39"/>
-      <c r="C37" s="39"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
       <c r="D37" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="39"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="39"/>
-      <c r="J37" s="39"/>
-      <c r="K37" s="39"/>
-      <c r="L37" s="39"/>
-      <c r="M37" s="39"/>
-      <c r="N37" s="39"/>
-      <c r="O37" s="39"/>
-      <c r="Q37" s="7" t="s">
+      <c r="E37" s="35"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="35"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="35"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="35"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="35"/>
+      <c r="Q37" s="74" t="s">
         <v>9</v>
       </c>
-      <c r="R37" s="40"/>
-      <c r="S37" s="40"/>
+      <c r="R37" s="36"/>
+      <c r="S37" s="36"/>
       <c r="T37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3807,63 +3816,61 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="136">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="E37:O37"/>
-    <mergeCell ref="R37:S37"/>
-    <mergeCell ref="BL34:BM34"/>
-    <mergeCell ref="BO34:BY34"/>
-    <mergeCell ref="CB34:CC34"/>
-    <mergeCell ref="G35:T35"/>
-    <mergeCell ref="V35:AG35"/>
-    <mergeCell ref="AI35:BA35"/>
-    <mergeCell ref="G36:T36"/>
-    <mergeCell ref="V36:AG36"/>
-    <mergeCell ref="AI36:BA36"/>
-    <mergeCell ref="CB32:CG32"/>
-    <mergeCell ref="CI32:CT32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="E33:O33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="AG33:AH33"/>
-    <mergeCell ref="AJ33:AT33"/>
-    <mergeCell ref="AW33:AX33"/>
-    <mergeCell ref="BS33:BZ33"/>
-    <mergeCell ref="CB33:CG33"/>
-    <mergeCell ref="CI33:CT33"/>
-    <mergeCell ref="A31:I31"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="S31:AC31"/>
-    <mergeCell ref="AF31:AN31"/>
-    <mergeCell ref="AP31:AV31"/>
-    <mergeCell ref="AX31:BH31"/>
-    <mergeCell ref="A30:I30"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="BS32:BZ32"/>
-    <mergeCell ref="CP23:CU23"/>
-    <mergeCell ref="AP24:AX24"/>
-    <mergeCell ref="AY24:BD24"/>
-    <mergeCell ref="BE24:BJ24"/>
-    <mergeCell ref="BK24:BS24"/>
-    <mergeCell ref="BT24:CD24"/>
-    <mergeCell ref="CE24:CO24"/>
-    <mergeCell ref="S30:AC30"/>
-    <mergeCell ref="AF30:AN30"/>
-    <mergeCell ref="AP30:AV30"/>
-    <mergeCell ref="AX30:BH30"/>
-    <mergeCell ref="BT23:CD23"/>
-    <mergeCell ref="BZ30:CG30"/>
-    <mergeCell ref="CE23:CO23"/>
-    <mergeCell ref="CH30:CI30"/>
-    <mergeCell ref="CJ30:CL30"/>
-    <mergeCell ref="A23:Q23"/>
-    <mergeCell ref="R23:W23"/>
-    <mergeCell ref="X23:AC23"/>
-    <mergeCell ref="AD23:AI23"/>
-    <mergeCell ref="AJ23:AO23"/>
-    <mergeCell ref="AP23:AX23"/>
-    <mergeCell ref="AY23:BD23"/>
-    <mergeCell ref="BE23:BJ23"/>
-    <mergeCell ref="BK23:BS23"/>
+    <mergeCell ref="AC4:AZ5"/>
+    <mergeCell ref="BA4:BI5"/>
+    <mergeCell ref="CL5:CU5"/>
+    <mergeCell ref="CL6:CU6"/>
+    <mergeCell ref="AK7:AM7"/>
+    <mergeCell ref="AO7:AY7"/>
+    <mergeCell ref="BB7:BC7"/>
+    <mergeCell ref="CL7:CU7"/>
+    <mergeCell ref="O8:CC8"/>
+    <mergeCell ref="CL8:CU8"/>
+    <mergeCell ref="CL9:CU10"/>
+    <mergeCell ref="O10:CC10"/>
+    <mergeCell ref="CL11:CU12"/>
+    <mergeCell ref="O12:CC12"/>
+    <mergeCell ref="CL13:CU13"/>
+    <mergeCell ref="H15:U15"/>
+    <mergeCell ref="W15:AO15"/>
+    <mergeCell ref="BA15:BN15"/>
+    <mergeCell ref="BP15:CA15"/>
+    <mergeCell ref="CC15:CU15"/>
+    <mergeCell ref="H16:U16"/>
+    <mergeCell ref="W16:AO16"/>
+    <mergeCell ref="BA16:BN16"/>
+    <mergeCell ref="BP16:CA16"/>
+    <mergeCell ref="CC16:CU16"/>
+    <mergeCell ref="A18:AC18"/>
+    <mergeCell ref="AD18:AO18"/>
+    <mergeCell ref="AP18:AX18"/>
+    <mergeCell ref="AY18:BJ18"/>
+    <mergeCell ref="BK18:BS18"/>
+    <mergeCell ref="BT18:CO18"/>
+    <mergeCell ref="CP18:CU18"/>
+    <mergeCell ref="CE19:CO19"/>
+    <mergeCell ref="CP19:CU19"/>
+    <mergeCell ref="A20:Q20"/>
+    <mergeCell ref="R20:W20"/>
+    <mergeCell ref="X20:AC20"/>
+    <mergeCell ref="AD20:AI20"/>
+    <mergeCell ref="AJ20:AO20"/>
+    <mergeCell ref="AP20:AX20"/>
+    <mergeCell ref="AY20:BD20"/>
+    <mergeCell ref="BE20:BJ20"/>
+    <mergeCell ref="BK20:BS20"/>
+    <mergeCell ref="BT20:CD20"/>
+    <mergeCell ref="CE20:CO20"/>
+    <mergeCell ref="CP20:CU20"/>
+    <mergeCell ref="A19:Q19"/>
+    <mergeCell ref="R19:AC19"/>
+    <mergeCell ref="AD19:AI19"/>
+    <mergeCell ref="AJ19:AO19"/>
+    <mergeCell ref="AP19:AX19"/>
+    <mergeCell ref="AY19:BD19"/>
+    <mergeCell ref="BE19:BJ19"/>
+    <mergeCell ref="BK19:BS19"/>
+    <mergeCell ref="BT19:CD19"/>
     <mergeCell ref="BT21:CD21"/>
     <mergeCell ref="CE21:CO21"/>
     <mergeCell ref="CP21:CU21"/>
@@ -3888,61 +3895,63 @@
     <mergeCell ref="AY21:BD21"/>
     <mergeCell ref="BE21:BJ21"/>
     <mergeCell ref="BK21:BS21"/>
-    <mergeCell ref="CE19:CO19"/>
-    <mergeCell ref="CP19:CU19"/>
-    <mergeCell ref="A20:Q20"/>
-    <mergeCell ref="R20:W20"/>
-    <mergeCell ref="X20:AC20"/>
-    <mergeCell ref="AD20:AI20"/>
-    <mergeCell ref="AJ20:AO20"/>
-    <mergeCell ref="AP20:AX20"/>
-    <mergeCell ref="AY20:BD20"/>
-    <mergeCell ref="BE20:BJ20"/>
-    <mergeCell ref="BK20:BS20"/>
-    <mergeCell ref="BT20:CD20"/>
-    <mergeCell ref="CE20:CO20"/>
-    <mergeCell ref="CP20:CU20"/>
-    <mergeCell ref="A19:Q19"/>
-    <mergeCell ref="R19:AC19"/>
-    <mergeCell ref="AD19:AI19"/>
-    <mergeCell ref="AJ19:AO19"/>
-    <mergeCell ref="AP19:AX19"/>
-    <mergeCell ref="AY19:BD19"/>
-    <mergeCell ref="BE19:BJ19"/>
-    <mergeCell ref="BK19:BS19"/>
-    <mergeCell ref="BT19:CD19"/>
-    <mergeCell ref="H16:U16"/>
-    <mergeCell ref="W16:AO16"/>
-    <mergeCell ref="BA16:BN16"/>
-    <mergeCell ref="BP16:CA16"/>
-    <mergeCell ref="CC16:CU16"/>
-    <mergeCell ref="A18:AC18"/>
-    <mergeCell ref="AD18:AO18"/>
-    <mergeCell ref="AP18:AX18"/>
-    <mergeCell ref="AY18:BJ18"/>
-    <mergeCell ref="BK18:BS18"/>
-    <mergeCell ref="BT18:CO18"/>
-    <mergeCell ref="CP18:CU18"/>
-    <mergeCell ref="CL9:CU10"/>
-    <mergeCell ref="O10:CC10"/>
-    <mergeCell ref="CL11:CU12"/>
-    <mergeCell ref="O12:CC12"/>
-    <mergeCell ref="CL13:CU13"/>
-    <mergeCell ref="H15:U15"/>
-    <mergeCell ref="W15:AO15"/>
-    <mergeCell ref="BA15:BN15"/>
-    <mergeCell ref="BP15:CA15"/>
-    <mergeCell ref="CC15:CU15"/>
-    <mergeCell ref="AC4:AZ5"/>
-    <mergeCell ref="BA4:BI5"/>
-    <mergeCell ref="CL5:CU5"/>
-    <mergeCell ref="CL6:CU6"/>
-    <mergeCell ref="AK7:AM7"/>
-    <mergeCell ref="AO7:AY7"/>
-    <mergeCell ref="BB7:BC7"/>
-    <mergeCell ref="CL7:CU7"/>
-    <mergeCell ref="O8:CC8"/>
-    <mergeCell ref="CL8:CU8"/>
+    <mergeCell ref="A23:Q23"/>
+    <mergeCell ref="R23:W23"/>
+    <mergeCell ref="X23:AC23"/>
+    <mergeCell ref="AD23:AI23"/>
+    <mergeCell ref="AJ23:AO23"/>
+    <mergeCell ref="AP23:AX23"/>
+    <mergeCell ref="AY23:BD23"/>
+    <mergeCell ref="BE23:BJ23"/>
+    <mergeCell ref="BK23:BS23"/>
+    <mergeCell ref="CP23:CU23"/>
+    <mergeCell ref="AP24:AX24"/>
+    <mergeCell ref="AY24:BD24"/>
+    <mergeCell ref="BE24:BJ24"/>
+    <mergeCell ref="BK24:BS24"/>
+    <mergeCell ref="BT24:CD24"/>
+    <mergeCell ref="CE24:CO24"/>
+    <mergeCell ref="S30:AC30"/>
+    <mergeCell ref="AF30:AN30"/>
+    <mergeCell ref="AP30:AV30"/>
+    <mergeCell ref="AX30:BH30"/>
+    <mergeCell ref="BT23:CD23"/>
+    <mergeCell ref="BZ30:CG30"/>
+    <mergeCell ref="CE23:CO23"/>
+    <mergeCell ref="CH30:CI30"/>
+    <mergeCell ref="CJ30:CL30"/>
+    <mergeCell ref="A31:I31"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="S31:AC31"/>
+    <mergeCell ref="AF31:AN31"/>
+    <mergeCell ref="AP31:AV31"/>
+    <mergeCell ref="AX31:BH31"/>
+    <mergeCell ref="A30:I30"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="BS32:BZ32"/>
+    <mergeCell ref="CB32:CG32"/>
+    <mergeCell ref="CI32:CT32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="E33:O33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="AG33:AH33"/>
+    <mergeCell ref="AJ33:AT33"/>
+    <mergeCell ref="AW33:AX33"/>
+    <mergeCell ref="BS33:BZ33"/>
+    <mergeCell ref="CB33:CG33"/>
+    <mergeCell ref="CI33:CT33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="E37:O37"/>
+    <mergeCell ref="R37:S37"/>
+    <mergeCell ref="BL34:BM34"/>
+    <mergeCell ref="BO34:BY34"/>
+    <mergeCell ref="CB34:CC34"/>
+    <mergeCell ref="G35:T35"/>
+    <mergeCell ref="V35:AG35"/>
+    <mergeCell ref="AI35:BA35"/>
+    <mergeCell ref="G36:T36"/>
+    <mergeCell ref="V36:AG36"/>
+    <mergeCell ref="AI36:BA36"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/templates/naklad.xlsx
+++ b/templates/naklad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="61">
   <si>
     <t>Утв. приказом Минфина России</t>
   </si>
@@ -201,17 +201,14 @@
     <t>93916714</t>
   </si>
   <si>
-    <t>Главный врач</t>
-  </si>
-  <si>
-    <t>Блюсова М.Е,</t>
+    <t>ГЛАВНЫЙ ВРАЧ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial Cyr"/>
@@ -366,14 +363,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <sz val="11"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <i/>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -427,6 +416,35 @@
       <charset val="204"/>
     </font>
     <font>
+      <i/>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="6"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="7"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -573,7 +591,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -904,6 +922,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -944,12 +971,12 @@
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -974,17 +1001,17 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -995,13 +1022,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1014,7 +1041,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1023,55 +1050,76 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="23" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="28" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="24" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="26" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="25" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="27" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1080,15 +1128,18 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1116,17 +1167,20 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="18" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1135,11 +1189,14 @@
     <xf numFmtId="49" fontId="18" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1552,8 +1609,8 @@
   </sheetPr>
   <dimension ref="A1:CU37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="Q37" sqref="Q37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="BA15" sqref="BA15:BN15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1601,41 +1658,41 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
       <c r="AB4" s="4"/>
-      <c r="AC4" s="69" t="s">
+      <c r="AC4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="AD4" s="69"/>
-      <c r="AE4" s="69"/>
-      <c r="AF4" s="69"/>
-      <c r="AG4" s="69"/>
-      <c r="AH4" s="69"/>
-      <c r="AI4" s="69"/>
-      <c r="AJ4" s="69"/>
-      <c r="AK4" s="69"/>
-      <c r="AL4" s="69"/>
-      <c r="AM4" s="69"/>
-      <c r="AN4" s="69"/>
-      <c r="AO4" s="69"/>
-      <c r="AP4" s="69"/>
-      <c r="AQ4" s="69"/>
-      <c r="AR4" s="69"/>
-      <c r="AS4" s="69"/>
-      <c r="AT4" s="69"/>
-      <c r="AU4" s="69"/>
-      <c r="AV4" s="69"/>
-      <c r="AW4" s="69"/>
-      <c r="AX4" s="69"/>
-      <c r="AY4" s="69"/>
-      <c r="AZ4" s="69"/>
-      <c r="BA4" s="70"/>
-      <c r="BB4" s="70"/>
-      <c r="BC4" s="70"/>
-      <c r="BD4" s="70"/>
-      <c r="BE4" s="70"/>
-      <c r="BF4" s="70"/>
-      <c r="BG4" s="70"/>
-      <c r="BH4" s="70"/>
-      <c r="BI4" s="70"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="78"/>
+      <c r="AF4" s="78"/>
+      <c r="AG4" s="78"/>
+      <c r="AH4" s="78"/>
+      <c r="AI4" s="78"/>
+      <c r="AJ4" s="78"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="78"/>
+      <c r="AM4" s="78"/>
+      <c r="AN4" s="78"/>
+      <c r="AO4" s="78"/>
+      <c r="AP4" s="78"/>
+      <c r="AQ4" s="78"/>
+      <c r="AR4" s="78"/>
+      <c r="AS4" s="78"/>
+      <c r="AT4" s="78"/>
+      <c r="AU4" s="78"/>
+      <c r="AV4" s="78"/>
+      <c r="AW4" s="78"/>
+      <c r="AX4" s="78"/>
+      <c r="AY4" s="78"/>
+      <c r="AZ4" s="78"/>
+      <c r="BA4" s="79"/>
+      <c r="BB4" s="79"/>
+      <c r="BC4" s="79"/>
+      <c r="BD4" s="79"/>
+      <c r="BE4" s="79"/>
+      <c r="BF4" s="79"/>
+      <c r="BG4" s="79"/>
+      <c r="BH4" s="79"/>
+      <c r="BI4" s="79"/>
       <c r="CA4" s="4"/>
       <c r="CB4" s="4"/>
       <c r="CC4" s="4"/>
@@ -1687,39 +1744,39 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
       <c r="AB5" s="4"/>
-      <c r="AC5" s="69"/>
-      <c r="AD5" s="69"/>
-      <c r="AE5" s="69"/>
-      <c r="AF5" s="69"/>
-      <c r="AG5" s="69"/>
-      <c r="AH5" s="69"/>
-      <c r="AI5" s="69"/>
-      <c r="AJ5" s="69"/>
-      <c r="AK5" s="69"/>
-      <c r="AL5" s="69"/>
-      <c r="AM5" s="69"/>
-      <c r="AN5" s="69"/>
-      <c r="AO5" s="69"/>
-      <c r="AP5" s="69"/>
-      <c r="AQ5" s="69"/>
-      <c r="AR5" s="69"/>
-      <c r="AS5" s="69"/>
-      <c r="AT5" s="69"/>
-      <c r="AU5" s="69"/>
-      <c r="AV5" s="69"/>
-      <c r="AW5" s="69"/>
-      <c r="AX5" s="69"/>
-      <c r="AY5" s="69"/>
-      <c r="AZ5" s="69"/>
-      <c r="BA5" s="70"/>
-      <c r="BB5" s="70"/>
-      <c r="BC5" s="70"/>
-      <c r="BD5" s="70"/>
-      <c r="BE5" s="70"/>
-      <c r="BF5" s="70"/>
-      <c r="BG5" s="70"/>
-      <c r="BH5" s="70"/>
-      <c r="BI5" s="70"/>
+      <c r="AC5" s="78"/>
+      <c r="AD5" s="78"/>
+      <c r="AE5" s="78"/>
+      <c r="AF5" s="78"/>
+      <c r="AG5" s="78"/>
+      <c r="AH5" s="78"/>
+      <c r="AI5" s="78"/>
+      <c r="AJ5" s="78"/>
+      <c r="AK5" s="78"/>
+      <c r="AL5" s="78"/>
+      <c r="AM5" s="78"/>
+      <c r="AN5" s="78"/>
+      <c r="AO5" s="78"/>
+      <c r="AP5" s="78"/>
+      <c r="AQ5" s="78"/>
+      <c r="AR5" s="78"/>
+      <c r="AS5" s="78"/>
+      <c r="AT5" s="78"/>
+      <c r="AU5" s="78"/>
+      <c r="AV5" s="78"/>
+      <c r="AW5" s="78"/>
+      <c r="AX5" s="78"/>
+      <c r="AY5" s="78"/>
+      <c r="AZ5" s="78"/>
+      <c r="BA5" s="79"/>
+      <c r="BB5" s="79"/>
+      <c r="BC5" s="79"/>
+      <c r="BD5" s="79"/>
+      <c r="BE5" s="79"/>
+      <c r="BF5" s="79"/>
+      <c r="BG5" s="79"/>
+      <c r="BH5" s="79"/>
+      <c r="BI5" s="79"/>
       <c r="CA5" s="4"/>
       <c r="CB5" s="4"/>
       <c r="CC5" s="4"/>
@@ -1731,35 +1788,35 @@
       <c r="CI5" s="4"/>
       <c r="CJ5" s="4"/>
       <c r="CK5" s="4"/>
-      <c r="CL5" s="71" t="s">
+      <c r="CL5" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="CM5" s="71"/>
-      <c r="CN5" s="71"/>
-      <c r="CO5" s="71"/>
-      <c r="CP5" s="71"/>
-      <c r="CQ5" s="71"/>
-      <c r="CR5" s="71"/>
-      <c r="CS5" s="71"/>
-      <c r="CT5" s="71"/>
-      <c r="CU5" s="71"/>
+      <c r="CM5" s="80"/>
+      <c r="CN5" s="80"/>
+      <c r="CO5" s="80"/>
+      <c r="CP5" s="80"/>
+      <c r="CQ5" s="80"/>
+      <c r="CR5" s="80"/>
+      <c r="CS5" s="80"/>
+      <c r="CT5" s="80"/>
+      <c r="CU5" s="80"/>
     </row>
     <row r="6" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CJ6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="CL6" s="72" t="s">
+      <c r="CL6" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="CM6" s="72"/>
-      <c r="CN6" s="72"/>
-      <c r="CO6" s="72"/>
-      <c r="CP6" s="72"/>
-      <c r="CQ6" s="72"/>
-      <c r="CR6" s="72"/>
-      <c r="CS6" s="72"/>
-      <c r="CT6" s="72"/>
-      <c r="CU6" s="72"/>
+      <c r="CM6" s="81"/>
+      <c r="CN6" s="81"/>
+      <c r="CO6" s="81"/>
+      <c r="CP6" s="81"/>
+      <c r="CQ6" s="81"/>
+      <c r="CR6" s="81"/>
+      <c r="CS6" s="81"/>
+      <c r="CT6" s="81"/>
+      <c r="CU6" s="81"/>
     </row>
     <row r="7" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AH7" s="1" t="s">
@@ -1768,329 +1825,329 @@
       <c r="AJ7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AK7" s="35"/>
-      <c r="AL7" s="35"/>
-      <c r="AM7" s="35"/>
+      <c r="AK7" s="36"/>
+      <c r="AL7" s="36"/>
+      <c r="AM7" s="36"/>
       <c r="AN7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="AO7" s="35"/>
-      <c r="AP7" s="35"/>
-      <c r="AQ7" s="35"/>
-      <c r="AR7" s="35"/>
-      <c r="AS7" s="35"/>
-      <c r="AT7" s="35"/>
-      <c r="AU7" s="35"/>
-      <c r="AV7" s="35"/>
-      <c r="AW7" s="35"/>
-      <c r="AX7" s="35"/>
-      <c r="AY7" s="35"/>
+      <c r="AO7" s="36"/>
+      <c r="AP7" s="36"/>
+      <c r="AQ7" s="36"/>
+      <c r="AR7" s="36"/>
+      <c r="AS7" s="36"/>
+      <c r="AT7" s="36"/>
+      <c r="AU7" s="36"/>
+      <c r="AV7" s="36"/>
+      <c r="AW7" s="36"/>
+      <c r="AX7" s="36"/>
+      <c r="AY7" s="36"/>
       <c r="BA7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="BB7" s="36"/>
-      <c r="BC7" s="36"/>
+      <c r="BB7" s="82"/>
+      <c r="BC7" s="82"/>
       <c r="BD7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="CJ7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="CL7" s="73"/>
-      <c r="CM7" s="73"/>
-      <c r="CN7" s="73"/>
-      <c r="CO7" s="73"/>
-      <c r="CP7" s="73"/>
-      <c r="CQ7" s="73"/>
-      <c r="CR7" s="73"/>
-      <c r="CS7" s="73"/>
-      <c r="CT7" s="73"/>
-      <c r="CU7" s="73"/>
+      <c r="CL7" s="83"/>
+      <c r="CM7" s="83"/>
+      <c r="CN7" s="83"/>
+      <c r="CO7" s="83"/>
+      <c r="CP7" s="83"/>
+      <c r="CQ7" s="83"/>
+      <c r="CR7" s="83"/>
+      <c r="CS7" s="83"/>
+      <c r="CT7" s="83"/>
+      <c r="CU7" s="83"/>
     </row>
     <row r="8" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66"/>
-      <c r="Q8" s="66"/>
-      <c r="R8" s="66"/>
-      <c r="S8" s="66"/>
-      <c r="T8" s="66"/>
-      <c r="U8" s="66"/>
-      <c r="V8" s="66"/>
-      <c r="W8" s="66"/>
-      <c r="X8" s="66"/>
-      <c r="Y8" s="66"/>
-      <c r="Z8" s="66"/>
-      <c r="AA8" s="66"/>
-      <c r="AB8" s="66"/>
-      <c r="AC8" s="66"/>
-      <c r="AD8" s="66"/>
-      <c r="AE8" s="66"/>
-      <c r="AF8" s="66"/>
-      <c r="AG8" s="66"/>
-      <c r="AH8" s="66"/>
-      <c r="AI8" s="66"/>
-      <c r="AJ8" s="66"/>
-      <c r="AK8" s="66"/>
-      <c r="AL8" s="66"/>
-      <c r="AM8" s="66"/>
-      <c r="AN8" s="66"/>
-      <c r="AO8" s="66"/>
-      <c r="AP8" s="66"/>
-      <c r="AQ8" s="66"/>
-      <c r="AR8" s="66"/>
-      <c r="AS8" s="66"/>
-      <c r="AT8" s="66"/>
-      <c r="AU8" s="66"/>
-      <c r="AV8" s="66"/>
-      <c r="AW8" s="66"/>
-      <c r="AX8" s="66"/>
-      <c r="AY8" s="66"/>
-      <c r="AZ8" s="66"/>
-      <c r="BA8" s="66"/>
-      <c r="BB8" s="66"/>
-      <c r="BC8" s="66"/>
-      <c r="BD8" s="66"/>
-      <c r="BE8" s="66"/>
-      <c r="BF8" s="66"/>
-      <c r="BG8" s="66"/>
-      <c r="BH8" s="66"/>
-      <c r="BI8" s="66"/>
-      <c r="BJ8" s="66"/>
-      <c r="BK8" s="66"/>
-      <c r="BL8" s="66"/>
-      <c r="BM8" s="66"/>
-      <c r="BN8" s="66"/>
-      <c r="BO8" s="66"/>
-      <c r="BP8" s="66"/>
-      <c r="BQ8" s="66"/>
-      <c r="BR8" s="66"/>
-      <c r="BS8" s="66"/>
-      <c r="BT8" s="66"/>
-      <c r="BU8" s="66"/>
-      <c r="BV8" s="66"/>
-      <c r="BW8" s="66"/>
-      <c r="BX8" s="66"/>
-      <c r="BY8" s="66"/>
-      <c r="BZ8" s="66"/>
-      <c r="CA8" s="66"/>
-      <c r="CB8" s="66"/>
-      <c r="CC8" s="66"/>
+      <c r="O8" s="74"/>
+      <c r="P8" s="74"/>
+      <c r="Q8" s="74"/>
+      <c r="R8" s="74"/>
+      <c r="S8" s="74"/>
+      <c r="T8" s="74"/>
+      <c r="U8" s="74"/>
+      <c r="V8" s="74"/>
+      <c r="W8" s="74"/>
+      <c r="X8" s="74"/>
+      <c r="Y8" s="74"/>
+      <c r="Z8" s="74"/>
+      <c r="AA8" s="74"/>
+      <c r="AB8" s="74"/>
+      <c r="AC8" s="74"/>
+      <c r="AD8" s="74"/>
+      <c r="AE8" s="74"/>
+      <c r="AF8" s="74"/>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="74"/>
+      <c r="AI8" s="74"/>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="74"/>
+      <c r="AL8" s="74"/>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="74"/>
+      <c r="AO8" s="74"/>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="74"/>
+      <c r="AR8" s="74"/>
+      <c r="AS8" s="74"/>
+      <c r="AT8" s="74"/>
+      <c r="AU8" s="74"/>
+      <c r="AV8" s="74"/>
+      <c r="AW8" s="74"/>
+      <c r="AX8" s="74"/>
+      <c r="AY8" s="74"/>
+      <c r="AZ8" s="74"/>
+      <c r="BA8" s="74"/>
+      <c r="BB8" s="74"/>
+      <c r="BC8" s="74"/>
+      <c r="BD8" s="74"/>
+      <c r="BE8" s="74"/>
+      <c r="BF8" s="74"/>
+      <c r="BG8" s="74"/>
+      <c r="BH8" s="74"/>
+      <c r="BI8" s="74"/>
+      <c r="BJ8" s="74"/>
+      <c r="BK8" s="74"/>
+      <c r="BL8" s="74"/>
+      <c r="BM8" s="74"/>
+      <c r="BN8" s="74"/>
+      <c r="BO8" s="74"/>
+      <c r="BP8" s="74"/>
+      <c r="BQ8" s="74"/>
+      <c r="BR8" s="74"/>
+      <c r="BS8" s="74"/>
+      <c r="BT8" s="74"/>
+      <c r="BU8" s="74"/>
+      <c r="BV8" s="74"/>
+      <c r="BW8" s="74"/>
+      <c r="BX8" s="74"/>
+      <c r="BY8" s="74"/>
+      <c r="BZ8" s="74"/>
+      <c r="CA8" s="74"/>
+      <c r="CB8" s="74"/>
+      <c r="CC8" s="74"/>
       <c r="CJ8" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="CL8" s="73" t="s">
+      <c r="CL8" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="CM8" s="73"/>
-      <c r="CN8" s="73"/>
-      <c r="CO8" s="73"/>
-      <c r="CP8" s="73"/>
-      <c r="CQ8" s="73"/>
-      <c r="CR8" s="73"/>
-      <c r="CS8" s="73"/>
-      <c r="CT8" s="73"/>
-      <c r="CU8" s="73"/>
+      <c r="CM8" s="83"/>
+      <c r="CN8" s="83"/>
+      <c r="CO8" s="83"/>
+      <c r="CP8" s="83"/>
+      <c r="CQ8" s="83"/>
+      <c r="CR8" s="83"/>
+      <c r="CS8" s="83"/>
+      <c r="CT8" s="83"/>
+      <c r="CU8" s="83"/>
     </row>
     <row r="9" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="CJ9" s="6"/>
-      <c r="CL9" s="65"/>
-      <c r="CM9" s="65"/>
-      <c r="CN9" s="65"/>
-      <c r="CO9" s="65"/>
-      <c r="CP9" s="65"/>
-      <c r="CQ9" s="65"/>
-      <c r="CR9" s="65"/>
-      <c r="CS9" s="65"/>
-      <c r="CT9" s="65"/>
-      <c r="CU9" s="65"/>
+      <c r="CL9" s="73"/>
+      <c r="CM9" s="73"/>
+      <c r="CN9" s="73"/>
+      <c r="CO9" s="73"/>
+      <c r="CP9" s="73"/>
+      <c r="CQ9" s="73"/>
+      <c r="CR9" s="73"/>
+      <c r="CS9" s="73"/>
+      <c r="CT9" s="73"/>
+      <c r="CU9" s="73"/>
     </row>
     <row r="10" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O10" s="66"/>
-      <c r="P10" s="66"/>
-      <c r="Q10" s="66"/>
-      <c r="R10" s="66"/>
-      <c r="S10" s="66"/>
-      <c r="T10" s="66"/>
-      <c r="U10" s="66"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="66"/>
-      <c r="X10" s="66"/>
-      <c r="Y10" s="66"/>
-      <c r="Z10" s="66"/>
-      <c r="AA10" s="66"/>
-      <c r="AB10" s="66"/>
-      <c r="AC10" s="66"/>
-      <c r="AD10" s="66"/>
-      <c r="AE10" s="66"/>
-      <c r="AF10" s="66"/>
-      <c r="AG10" s="66"/>
-      <c r="AH10" s="66"/>
-      <c r="AI10" s="66"/>
-      <c r="AJ10" s="66"/>
-      <c r="AK10" s="66"/>
-      <c r="AL10" s="66"/>
-      <c r="AM10" s="66"/>
-      <c r="AN10" s="66"/>
-      <c r="AO10" s="66"/>
-      <c r="AP10" s="66"/>
-      <c r="AQ10" s="66"/>
-      <c r="AR10" s="66"/>
-      <c r="AS10" s="66"/>
-      <c r="AT10" s="66"/>
-      <c r="AU10" s="66"/>
-      <c r="AV10" s="66"/>
-      <c r="AW10" s="66"/>
-      <c r="AX10" s="66"/>
-      <c r="AY10" s="66"/>
-      <c r="AZ10" s="66"/>
-      <c r="BA10" s="66"/>
-      <c r="BB10" s="66"/>
-      <c r="BC10" s="66"/>
-      <c r="BD10" s="66"/>
-      <c r="BE10" s="66"/>
-      <c r="BF10" s="66"/>
-      <c r="BG10" s="66"/>
-      <c r="BH10" s="66"/>
-      <c r="BI10" s="66"/>
-      <c r="BJ10" s="66"/>
-      <c r="BK10" s="66"/>
-      <c r="BL10" s="66"/>
-      <c r="BM10" s="66"/>
-      <c r="BN10" s="66"/>
-      <c r="BO10" s="66"/>
-      <c r="BP10" s="66"/>
-      <c r="BQ10" s="66"/>
-      <c r="BR10" s="66"/>
-      <c r="BS10" s="66"/>
-      <c r="BT10" s="66"/>
-      <c r="BU10" s="66"/>
-      <c r="BV10" s="66"/>
-      <c r="BW10" s="66"/>
-      <c r="BX10" s="66"/>
-      <c r="BY10" s="66"/>
-      <c r="BZ10" s="66"/>
-      <c r="CA10" s="66"/>
-      <c r="CB10" s="66"/>
-      <c r="CC10" s="66"/>
+      <c r="O10" s="74"/>
+      <c r="P10" s="74"/>
+      <c r="Q10" s="74"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="74"/>
+      <c r="Y10" s="74"/>
+      <c r="Z10" s="74"/>
+      <c r="AA10" s="74"/>
+      <c r="AB10" s="74"/>
+      <c r="AC10" s="74"/>
+      <c r="AD10" s="74"/>
+      <c r="AE10" s="74"/>
+      <c r="AF10" s="74"/>
+      <c r="AG10" s="74"/>
+      <c r="AH10" s="74"/>
+      <c r="AI10" s="74"/>
+      <c r="AJ10" s="74"/>
+      <c r="AK10" s="74"/>
+      <c r="AL10" s="74"/>
+      <c r="AM10" s="74"/>
+      <c r="AN10" s="74"/>
+      <c r="AO10" s="74"/>
+      <c r="AP10" s="74"/>
+      <c r="AQ10" s="74"/>
+      <c r="AR10" s="74"/>
+      <c r="AS10" s="74"/>
+      <c r="AT10" s="74"/>
+      <c r="AU10" s="74"/>
+      <c r="AV10" s="74"/>
+      <c r="AW10" s="74"/>
+      <c r="AX10" s="74"/>
+      <c r="AY10" s="74"/>
+      <c r="AZ10" s="74"/>
+      <c r="BA10" s="74"/>
+      <c r="BB10" s="74"/>
+      <c r="BC10" s="74"/>
+      <c r="BD10" s="74"/>
+      <c r="BE10" s="74"/>
+      <c r="BF10" s="74"/>
+      <c r="BG10" s="74"/>
+      <c r="BH10" s="74"/>
+      <c r="BI10" s="74"/>
+      <c r="BJ10" s="74"/>
+      <c r="BK10" s="74"/>
+      <c r="BL10" s="74"/>
+      <c r="BM10" s="74"/>
+      <c r="BN10" s="74"/>
+      <c r="BO10" s="74"/>
+      <c r="BP10" s="74"/>
+      <c r="BQ10" s="74"/>
+      <c r="BR10" s="74"/>
+      <c r="BS10" s="74"/>
+      <c r="BT10" s="74"/>
+      <c r="BU10" s="74"/>
+      <c r="BV10" s="74"/>
+      <c r="BW10" s="74"/>
+      <c r="BX10" s="74"/>
+      <c r="BY10" s="74"/>
+      <c r="BZ10" s="74"/>
+      <c r="CA10" s="74"/>
+      <c r="CB10" s="74"/>
+      <c r="CC10" s="74"/>
       <c r="CJ10" s="6"/>
-      <c r="CL10" s="65"/>
-      <c r="CM10" s="65"/>
-      <c r="CN10" s="65"/>
-      <c r="CO10" s="65"/>
-      <c r="CP10" s="65"/>
-      <c r="CQ10" s="65"/>
-      <c r="CR10" s="65"/>
-      <c r="CS10" s="65"/>
-      <c r="CT10" s="65"/>
-      <c r="CU10" s="65"/>
+      <c r="CL10" s="73"/>
+      <c r="CM10" s="73"/>
+      <c r="CN10" s="73"/>
+      <c r="CO10" s="73"/>
+      <c r="CP10" s="73"/>
+      <c r="CQ10" s="73"/>
+      <c r="CR10" s="73"/>
+      <c r="CS10" s="73"/>
+      <c r="CT10" s="73"/>
+      <c r="CU10" s="73"/>
     </row>
     <row r="11" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="CJ11" s="6"/>
-      <c r="CL11" s="67"/>
-      <c r="CM11" s="67"/>
-      <c r="CN11" s="67"/>
-      <c r="CO11" s="67"/>
-      <c r="CP11" s="67"/>
-      <c r="CQ11" s="67"/>
-      <c r="CR11" s="67"/>
-      <c r="CS11" s="67"/>
-      <c r="CT11" s="67"/>
-      <c r="CU11" s="67"/>
+      <c r="CL11" s="75"/>
+      <c r="CM11" s="75"/>
+      <c r="CN11" s="75"/>
+      <c r="CO11" s="75"/>
+      <c r="CP11" s="75"/>
+      <c r="CQ11" s="75"/>
+      <c r="CR11" s="75"/>
+      <c r="CS11" s="75"/>
+      <c r="CT11" s="75"/>
+      <c r="CU11" s="75"/>
     </row>
     <row r="12" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="O12" s="66"/>
-      <c r="P12" s="66"/>
-      <c r="Q12" s="66"/>
-      <c r="R12" s="66"/>
-      <c r="S12" s="66"/>
-      <c r="T12" s="66"/>
-      <c r="U12" s="66"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="66"/>
-      <c r="X12" s="66"/>
-      <c r="Y12" s="66"/>
-      <c r="Z12" s="66"/>
-      <c r="AA12" s="66"/>
-      <c r="AB12" s="66"/>
-      <c r="AC12" s="66"/>
-      <c r="AD12" s="66"/>
-      <c r="AE12" s="66"/>
-      <c r="AF12" s="66"/>
-      <c r="AG12" s="66"/>
-      <c r="AH12" s="66"/>
-      <c r="AI12" s="66"/>
-      <c r="AJ12" s="66"/>
-      <c r="AK12" s="66"/>
-      <c r="AL12" s="66"/>
-      <c r="AM12" s="66"/>
-      <c r="AN12" s="66"/>
-      <c r="AO12" s="66"/>
-      <c r="AP12" s="66"/>
-      <c r="AQ12" s="66"/>
-      <c r="AR12" s="66"/>
-      <c r="AS12" s="66"/>
-      <c r="AT12" s="66"/>
-      <c r="AU12" s="66"/>
-      <c r="AV12" s="66"/>
-      <c r="AW12" s="66"/>
-      <c r="AX12" s="66"/>
-      <c r="AY12" s="66"/>
-      <c r="AZ12" s="66"/>
-      <c r="BA12" s="66"/>
-      <c r="BB12" s="66"/>
-      <c r="BC12" s="66"/>
-      <c r="BD12" s="66"/>
-      <c r="BE12" s="66"/>
-      <c r="BF12" s="66"/>
-      <c r="BG12" s="66"/>
-      <c r="BH12" s="66"/>
-      <c r="BI12" s="66"/>
-      <c r="BJ12" s="66"/>
-      <c r="BK12" s="66"/>
-      <c r="BL12" s="66"/>
-      <c r="BM12" s="66"/>
-      <c r="BN12" s="66"/>
-      <c r="BO12" s="66"/>
-      <c r="BP12" s="66"/>
-      <c r="BQ12" s="66"/>
-      <c r="BR12" s="66"/>
-      <c r="BS12" s="66"/>
-      <c r="BT12" s="66"/>
-      <c r="BU12" s="66"/>
-      <c r="BV12" s="66"/>
-      <c r="BW12" s="66"/>
-      <c r="BX12" s="66"/>
-      <c r="BY12" s="66"/>
-      <c r="BZ12" s="66"/>
-      <c r="CA12" s="66"/>
-      <c r="CB12" s="66"/>
-      <c r="CC12" s="66"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="74"/>
+      <c r="Y12" s="74"/>
+      <c r="Z12" s="74"/>
+      <c r="AA12" s="74"/>
+      <c r="AB12" s="74"/>
+      <c r="AC12" s="74"/>
+      <c r="AD12" s="74"/>
+      <c r="AE12" s="74"/>
+      <c r="AF12" s="74"/>
+      <c r="AG12" s="74"/>
+      <c r="AH12" s="74"/>
+      <c r="AI12" s="74"/>
+      <c r="AJ12" s="74"/>
+      <c r="AK12" s="74"/>
+      <c r="AL12" s="74"/>
+      <c r="AM12" s="74"/>
+      <c r="AN12" s="74"/>
+      <c r="AO12" s="74"/>
+      <c r="AP12" s="74"/>
+      <c r="AQ12" s="74"/>
+      <c r="AR12" s="74"/>
+      <c r="AS12" s="74"/>
+      <c r="AT12" s="74"/>
+      <c r="AU12" s="74"/>
+      <c r="AV12" s="74"/>
+      <c r="AW12" s="74"/>
+      <c r="AX12" s="74"/>
+      <c r="AY12" s="74"/>
+      <c r="AZ12" s="74"/>
+      <c r="BA12" s="74"/>
+      <c r="BB12" s="74"/>
+      <c r="BC12" s="74"/>
+      <c r="BD12" s="74"/>
+      <c r="BE12" s="74"/>
+      <c r="BF12" s="74"/>
+      <c r="BG12" s="74"/>
+      <c r="BH12" s="74"/>
+      <c r="BI12" s="74"/>
+      <c r="BJ12" s="74"/>
+      <c r="BK12" s="74"/>
+      <c r="BL12" s="74"/>
+      <c r="BM12" s="74"/>
+      <c r="BN12" s="74"/>
+      <c r="BO12" s="74"/>
+      <c r="BP12" s="74"/>
+      <c r="BQ12" s="74"/>
+      <c r="BR12" s="74"/>
+      <c r="BS12" s="74"/>
+      <c r="BT12" s="74"/>
+      <c r="BU12" s="74"/>
+      <c r="BV12" s="74"/>
+      <c r="BW12" s="74"/>
+      <c r="BX12" s="74"/>
+      <c r="BY12" s="74"/>
+      <c r="BZ12" s="74"/>
+      <c r="CA12" s="74"/>
+      <c r="CB12" s="74"/>
+      <c r="CC12" s="74"/>
       <c r="CJ12" s="6"/>
-      <c r="CL12" s="67"/>
-      <c r="CM12" s="67"/>
-      <c r="CN12" s="67"/>
-      <c r="CO12" s="67"/>
-      <c r="CP12" s="67"/>
-      <c r="CQ12" s="67"/>
-      <c r="CR12" s="67"/>
-      <c r="CS12" s="67"/>
-      <c r="CT12" s="67"/>
-      <c r="CU12" s="67"/>
+      <c r="CL12" s="75"/>
+      <c r="CM12" s="75"/>
+      <c r="CN12" s="75"/>
+      <c r="CO12" s="75"/>
+      <c r="CP12" s="75"/>
+      <c r="CQ12" s="75"/>
+      <c r="CR12" s="75"/>
+      <c r="CS12" s="75"/>
+      <c r="CT12" s="75"/>
+      <c r="CU12" s="75"/>
     </row>
     <row r="13" spans="1:99" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
@@ -2129,18 +2186,18 @@
       <c r="CJ13" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="CL13" s="68" t="s">
+      <c r="CL13" s="76" t="s">
         <v>19</v>
       </c>
-      <c r="CM13" s="68"/>
-      <c r="CN13" s="68"/>
-      <c r="CO13" s="68"/>
-      <c r="CP13" s="68"/>
-      <c r="CQ13" s="68"/>
-      <c r="CR13" s="68"/>
-      <c r="CS13" s="68"/>
-      <c r="CT13" s="68"/>
-      <c r="CU13" s="68"/>
+      <c r="CM13" s="76"/>
+      <c r="CN13" s="76"/>
+      <c r="CO13" s="76"/>
+      <c r="CP13" s="76"/>
+      <c r="CQ13" s="76"/>
+      <c r="CR13" s="76"/>
+      <c r="CS13" s="76"/>
+      <c r="CT13" s="76"/>
+      <c r="CU13" s="76"/>
     </row>
     <row r="14" spans="1:99" ht="8.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
@@ -2190,932 +2247,930 @@
       <c r="A15" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35"/>
-      <c r="K15" s="35"/>
-      <c r="L15" s="35"/>
-      <c r="M15" s="35"/>
-      <c r="N15" s="35"/>
-      <c r="O15" s="35"/>
-      <c r="P15" s="35"/>
-      <c r="Q15" s="35"/>
-      <c r="R15" s="35"/>
-      <c r="S15" s="35"/>
-      <c r="T15" s="35"/>
-      <c r="U15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="35"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="35"/>
-      <c r="AD15" s="35"/>
-      <c r="AE15" s="35"/>
-      <c r="AF15" s="35"/>
-      <c r="AG15" s="35"/>
-      <c r="AH15" s="35"/>
-      <c r="AI15" s="35"/>
-      <c r="AJ15" s="35"/>
-      <c r="AK15" s="35"/>
-      <c r="AL15" s="35"/>
-      <c r="AM15" s="35"/>
-      <c r="AN15" s="35"/>
-      <c r="AO15" s="35"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="38"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="38"/>
+      <c r="Q15" s="38"/>
+      <c r="R15" s="38"/>
+      <c r="S15" s="38"/>
+      <c r="T15" s="38"/>
+      <c r="U15" s="38"/>
+      <c r="W15" s="77"/>
+      <c r="X15" s="77"/>
+      <c r="Y15" s="77"/>
+      <c r="Z15" s="77"/>
+      <c r="AA15" s="77"/>
+      <c r="AB15" s="77"/>
+      <c r="AC15" s="77"/>
+      <c r="AD15" s="77"/>
+      <c r="AE15" s="77"/>
+      <c r="AF15" s="77"/>
+      <c r="AG15" s="77"/>
+      <c r="AH15" s="77"/>
+      <c r="AI15" s="77"/>
+      <c r="AJ15" s="77"/>
+      <c r="AK15" s="77"/>
+      <c r="AL15" s="77"/>
+      <c r="AM15" s="77"/>
+      <c r="AN15" s="77"/>
+      <c r="AO15" s="77"/>
       <c r="AU15" s="10" t="s">
         <v>21</v>
       </c>
       <c r="AZ15" s="9"/>
-      <c r="BA15" s="35" t="s">
+      <c r="BA15" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="BB15" s="35"/>
-      <c r="BC15" s="35"/>
-      <c r="BD15" s="35"/>
-      <c r="BE15" s="35"/>
-      <c r="BF15" s="35"/>
-      <c r="BG15" s="35"/>
-      <c r="BH15" s="35"/>
-      <c r="BI15" s="35"/>
-      <c r="BJ15" s="35"/>
-      <c r="BK15" s="35"/>
-      <c r="BL15" s="35"/>
-      <c r="BM15" s="35"/>
-      <c r="BN15" s="35"/>
-      <c r="BP15" s="37"/>
-      <c r="BQ15" s="37"/>
-      <c r="BR15" s="37"/>
-      <c r="BS15" s="37"/>
-      <c r="BT15" s="37"/>
-      <c r="BU15" s="37"/>
-      <c r="BV15" s="37"/>
-      <c r="BW15" s="37"/>
-      <c r="BX15" s="37"/>
-      <c r="BY15" s="37"/>
-      <c r="BZ15" s="37"/>
-      <c r="CA15" s="37"/>
-      <c r="CC15" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="CD15" s="35"/>
-      <c r="CE15" s="35"/>
-      <c r="CF15" s="35"/>
-      <c r="CG15" s="35"/>
-      <c r="CH15" s="35"/>
-      <c r="CI15" s="35"/>
-      <c r="CJ15" s="35"/>
-      <c r="CK15" s="35"/>
-      <c r="CL15" s="35"/>
-      <c r="CM15" s="35"/>
-      <c r="CN15" s="35"/>
-      <c r="CO15" s="35"/>
-      <c r="CP15" s="35"/>
-      <c r="CQ15" s="35"/>
-      <c r="CR15" s="35"/>
-      <c r="CS15" s="35"/>
-      <c r="CT15" s="35"/>
-      <c r="CU15" s="35"/>
+      <c r="BB15" s="77"/>
+      <c r="BC15" s="77"/>
+      <c r="BD15" s="77"/>
+      <c r="BE15" s="77"/>
+      <c r="BF15" s="77"/>
+      <c r="BG15" s="77"/>
+      <c r="BH15" s="77"/>
+      <c r="BI15" s="77"/>
+      <c r="BJ15" s="77"/>
+      <c r="BK15" s="77"/>
+      <c r="BL15" s="77"/>
+      <c r="BM15" s="77"/>
+      <c r="BN15" s="77"/>
+      <c r="BP15" s="39"/>
+      <c r="BQ15" s="39"/>
+      <c r="BR15" s="39"/>
+      <c r="BS15" s="39"/>
+      <c r="BT15" s="39"/>
+      <c r="BU15" s="39"/>
+      <c r="BV15" s="39"/>
+      <c r="BW15" s="39"/>
+      <c r="BX15" s="39"/>
+      <c r="BY15" s="39"/>
+      <c r="BZ15" s="39"/>
+      <c r="CA15" s="39"/>
+      <c r="CC15" s="77"/>
+      <c r="CD15" s="77"/>
+      <c r="CE15" s="77"/>
+      <c r="CF15" s="77"/>
+      <c r="CG15" s="77"/>
+      <c r="CH15" s="77"/>
+      <c r="CI15" s="77"/>
+      <c r="CJ15" s="77"/>
+      <c r="CK15" s="77"/>
+      <c r="CL15" s="77"/>
+      <c r="CM15" s="77"/>
+      <c r="CN15" s="77"/>
+      <c r="CO15" s="77"/>
+      <c r="CP15" s="77"/>
+      <c r="CQ15" s="77"/>
+      <c r="CR15" s="77"/>
+      <c r="CS15" s="77"/>
+      <c r="CT15" s="77"/>
+      <c r="CU15" s="77"/>
     </row>
     <row r="16" spans="1:99" s="12" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
       <c r="A16" s="11"/>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
-      <c r="Q16" s="38"/>
-      <c r="R16" s="38"/>
-      <c r="S16" s="38"/>
-      <c r="T16" s="38"/>
-      <c r="U16" s="38"/>
-      <c r="W16" s="39" t="s">
+      <c r="I16" s="41"/>
+      <c r="J16" s="41"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
+      <c r="M16" s="41"/>
+      <c r="N16" s="41"/>
+      <c r="O16" s="41"/>
+      <c r="P16" s="41"/>
+      <c r="Q16" s="41"/>
+      <c r="R16" s="41"/>
+      <c r="S16" s="41"/>
+      <c r="T16" s="41"/>
+      <c r="U16" s="41"/>
+      <c r="W16" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="X16" s="39"/>
-      <c r="Y16" s="39"/>
-      <c r="Z16" s="39"/>
-      <c r="AA16" s="39"/>
-      <c r="AB16" s="39"/>
-      <c r="AC16" s="39"/>
-      <c r="AD16" s="39"/>
-      <c r="AE16" s="39"/>
-      <c r="AF16" s="39"/>
-      <c r="AG16" s="39"/>
-      <c r="AH16" s="39"/>
-      <c r="AI16" s="39"/>
-      <c r="AJ16" s="39"/>
-      <c r="AK16" s="39"/>
-      <c r="AL16" s="39"/>
-      <c r="AM16" s="39"/>
-      <c r="AN16" s="39"/>
-      <c r="AO16" s="39"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+      <c r="AG16" s="42"/>
+      <c r="AH16" s="42"/>
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42"/>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="42"/>
       <c r="AZ16" s="13"/>
-      <c r="BA16" s="38" t="s">
+      <c r="BA16" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="BB16" s="38"/>
-      <c r="BC16" s="38"/>
-      <c r="BD16" s="38"/>
-      <c r="BE16" s="38"/>
-      <c r="BF16" s="38"/>
-      <c r="BG16" s="38"/>
-      <c r="BH16" s="38"/>
-      <c r="BI16" s="38"/>
-      <c r="BJ16" s="38"/>
-      <c r="BK16" s="38"/>
-      <c r="BL16" s="38"/>
-      <c r="BM16" s="38"/>
-      <c r="BN16" s="38"/>
+      <c r="BB16" s="41"/>
+      <c r="BC16" s="41"/>
+      <c r="BD16" s="41"/>
+      <c r="BE16" s="41"/>
+      <c r="BF16" s="41"/>
+      <c r="BG16" s="41"/>
+      <c r="BH16" s="41"/>
+      <c r="BI16" s="41"/>
+      <c r="BJ16" s="41"/>
+      <c r="BK16" s="41"/>
+      <c r="BL16" s="41"/>
+      <c r="BM16" s="41"/>
+      <c r="BN16" s="41"/>
       <c r="BO16" s="14"/>
-      <c r="BP16" s="39" t="s">
+      <c r="BP16" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="BQ16" s="39"/>
-      <c r="BR16" s="39"/>
-      <c r="BS16" s="39"/>
-      <c r="BT16" s="39"/>
-      <c r="BU16" s="39"/>
-      <c r="BV16" s="39"/>
-      <c r="BW16" s="39"/>
-      <c r="BX16" s="39"/>
-      <c r="BY16" s="39"/>
-      <c r="BZ16" s="39"/>
-      <c r="CA16" s="39"/>
+      <c r="BQ16" s="42"/>
+      <c r="BR16" s="42"/>
+      <c r="BS16" s="42"/>
+      <c r="BT16" s="42"/>
+      <c r="BU16" s="42"/>
+      <c r="BV16" s="42"/>
+      <c r="BW16" s="42"/>
+      <c r="BX16" s="42"/>
+      <c r="BY16" s="42"/>
+      <c r="BZ16" s="42"/>
+      <c r="CA16" s="42"/>
       <c r="CB16" s="14"/>
-      <c r="CC16" s="39" t="s">
+      <c r="CC16" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="CD16" s="39"/>
-      <c r="CE16" s="39"/>
-      <c r="CF16" s="39"/>
-      <c r="CG16" s="39"/>
-      <c r="CH16" s="39"/>
-      <c r="CI16" s="39"/>
-      <c r="CJ16" s="39"/>
-      <c r="CK16" s="39"/>
-      <c r="CL16" s="39"/>
-      <c r="CM16" s="39"/>
-      <c r="CN16" s="39"/>
-      <c r="CO16" s="39"/>
-      <c r="CP16" s="39"/>
-      <c r="CQ16" s="39"/>
-      <c r="CR16" s="39"/>
-      <c r="CS16" s="39"/>
-      <c r="CT16" s="39"/>
-      <c r="CU16" s="39"/>
+      <c r="CD16" s="42"/>
+      <c r="CE16" s="42"/>
+      <c r="CF16" s="42"/>
+      <c r="CG16" s="42"/>
+      <c r="CH16" s="42"/>
+      <c r="CI16" s="42"/>
+      <c r="CJ16" s="42"/>
+      <c r="CK16" s="42"/>
+      <c r="CL16" s="42"/>
+      <c r="CM16" s="42"/>
+      <c r="CN16" s="42"/>
+      <c r="CO16" s="42"/>
+      <c r="CP16" s="42"/>
+      <c r="CQ16" s="42"/>
+      <c r="CR16" s="42"/>
+      <c r="CS16" s="42"/>
+      <c r="CT16" s="42"/>
+      <c r="CU16" s="42"/>
     </row>
     <row r="17" spans="1:99" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="18" spans="1:99" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="62" t="s">
+      <c r="A18" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="61" t="s">
+      <c r="B18" s="70"/>
+      <c r="C18" s="70"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="70"/>
+      <c r="P18" s="70"/>
+      <c r="Q18" s="70"/>
+      <c r="R18" s="70"/>
+      <c r="S18" s="70"/>
+      <c r="T18" s="70"/>
+      <c r="U18" s="70"/>
+      <c r="V18" s="70"/>
+      <c r="W18" s="70"/>
+      <c r="X18" s="70"/>
+      <c r="Y18" s="70"/>
+      <c r="Z18" s="70"/>
+      <c r="AA18" s="70"/>
+      <c r="AB18" s="70"/>
+      <c r="AC18" s="70"/>
+      <c r="AD18" s="69" t="s">
         <v>27</v>
       </c>
-      <c r="AE18" s="61"/>
-      <c r="AF18" s="61"/>
-      <c r="AG18" s="61"/>
-      <c r="AH18" s="61"/>
-      <c r="AI18" s="61"/>
-      <c r="AJ18" s="61"/>
-      <c r="AK18" s="61"/>
-      <c r="AL18" s="61"/>
-      <c r="AM18" s="61"/>
-      <c r="AN18" s="61"/>
-      <c r="AO18" s="61"/>
-      <c r="AP18" s="63" t="s">
+      <c r="AE18" s="69"/>
+      <c r="AF18" s="69"/>
+      <c r="AG18" s="69"/>
+      <c r="AH18" s="69"/>
+      <c r="AI18" s="69"/>
+      <c r="AJ18" s="69"/>
+      <c r="AK18" s="69"/>
+      <c r="AL18" s="69"/>
+      <c r="AM18" s="69"/>
+      <c r="AN18" s="69"/>
+      <c r="AO18" s="69"/>
+      <c r="AP18" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="AQ18" s="63"/>
-      <c r="AR18" s="63"/>
-      <c r="AS18" s="63"/>
-      <c r="AT18" s="63"/>
-      <c r="AU18" s="63"/>
-      <c r="AV18" s="63"/>
-      <c r="AW18" s="63"/>
-      <c r="AX18" s="63"/>
-      <c r="AY18" s="61" t="s">
+      <c r="AQ18" s="71"/>
+      <c r="AR18" s="71"/>
+      <c r="AS18" s="71"/>
+      <c r="AT18" s="71"/>
+      <c r="AU18" s="71"/>
+      <c r="AV18" s="71"/>
+      <c r="AW18" s="71"/>
+      <c r="AX18" s="71"/>
+      <c r="AY18" s="69" t="s">
         <v>29</v>
       </c>
-      <c r="AZ18" s="61"/>
-      <c r="BA18" s="61"/>
-      <c r="BB18" s="61"/>
-      <c r="BC18" s="61"/>
-      <c r="BD18" s="61"/>
-      <c r="BE18" s="61"/>
-      <c r="BF18" s="61"/>
-      <c r="BG18" s="61"/>
-      <c r="BH18" s="61"/>
-      <c r="BI18" s="61"/>
-      <c r="BJ18" s="61"/>
-      <c r="BK18" s="63" t="s">
+      <c r="AZ18" s="69"/>
+      <c r="BA18" s="69"/>
+      <c r="BB18" s="69"/>
+      <c r="BC18" s="69"/>
+      <c r="BD18" s="69"/>
+      <c r="BE18" s="69"/>
+      <c r="BF18" s="69"/>
+      <c r="BG18" s="69"/>
+      <c r="BH18" s="69"/>
+      <c r="BI18" s="69"/>
+      <c r="BJ18" s="69"/>
+      <c r="BK18" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="BL18" s="63"/>
-      <c r="BM18" s="63"/>
-      <c r="BN18" s="63"/>
-      <c r="BO18" s="63"/>
-      <c r="BP18" s="63"/>
-      <c r="BQ18" s="63"/>
-      <c r="BR18" s="63"/>
-      <c r="BS18" s="63"/>
-      <c r="BT18" s="61" t="s">
+      <c r="BL18" s="71"/>
+      <c r="BM18" s="71"/>
+      <c r="BN18" s="71"/>
+      <c r="BO18" s="71"/>
+      <c r="BP18" s="71"/>
+      <c r="BQ18" s="71"/>
+      <c r="BR18" s="71"/>
+      <c r="BS18" s="71"/>
+      <c r="BT18" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="BU18" s="61"/>
-      <c r="BV18" s="61"/>
-      <c r="BW18" s="61"/>
-      <c r="BX18" s="61"/>
-      <c r="BY18" s="61"/>
-      <c r="BZ18" s="61"/>
-      <c r="CA18" s="61"/>
-      <c r="CB18" s="61"/>
-      <c r="CC18" s="61"/>
-      <c r="CD18" s="61"/>
-      <c r="CE18" s="61"/>
-      <c r="CF18" s="61"/>
-      <c r="CG18" s="61"/>
-      <c r="CH18" s="61"/>
-      <c r="CI18" s="61"/>
-      <c r="CJ18" s="61"/>
-      <c r="CK18" s="61"/>
-      <c r="CL18" s="61"/>
-      <c r="CM18" s="61"/>
-      <c r="CN18" s="61"/>
-      <c r="CO18" s="61"/>
-      <c r="CP18" s="64" t="s">
+      <c r="BU18" s="69"/>
+      <c r="BV18" s="69"/>
+      <c r="BW18" s="69"/>
+      <c r="BX18" s="69"/>
+      <c r="BY18" s="69"/>
+      <c r="BZ18" s="69"/>
+      <c r="CA18" s="69"/>
+      <c r="CB18" s="69"/>
+      <c r="CC18" s="69"/>
+      <c r="CD18" s="69"/>
+      <c r="CE18" s="69"/>
+      <c r="CF18" s="69"/>
+      <c r="CG18" s="69"/>
+      <c r="CH18" s="69"/>
+      <c r="CI18" s="69"/>
+      <c r="CJ18" s="69"/>
+      <c r="CK18" s="69"/>
+      <c r="CL18" s="69"/>
+      <c r="CM18" s="69"/>
+      <c r="CN18" s="69"/>
+      <c r="CO18" s="69"/>
+      <c r="CP18" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="CQ18" s="64"/>
-      <c r="CR18" s="64"/>
-      <c r="CS18" s="64"/>
-      <c r="CT18" s="64"/>
-      <c r="CU18" s="64"/>
+      <c r="CQ18" s="72"/>
+      <c r="CR18" s="72"/>
+      <c r="CS18" s="72"/>
+      <c r="CT18" s="72"/>
+      <c r="CU18" s="71"/>
     </row>
     <row r="19" spans="1:99" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="60" t="s">
+      <c r="A19" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="60"/>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="60"/>
-      <c r="H19" s="60"/>
-      <c r="I19" s="60"/>
-      <c r="J19" s="60"/>
-      <c r="K19" s="60"/>
-      <c r="L19" s="60"/>
-      <c r="M19" s="60"/>
-      <c r="N19" s="60"/>
-      <c r="O19" s="60"/>
-      <c r="P19" s="60"/>
-      <c r="Q19" s="60"/>
-      <c r="R19" s="61" t="s">
+      <c r="B19" s="68"/>
+      <c r="C19" s="68"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="68"/>
+      <c r="G19" s="68"/>
+      <c r="H19" s="68"/>
+      <c r="I19" s="68"/>
+      <c r="J19" s="68"/>
+      <c r="K19" s="68"/>
+      <c r="L19" s="68"/>
+      <c r="M19" s="68"/>
+      <c r="N19" s="68"/>
+      <c r="O19" s="68"/>
+      <c r="P19" s="68"/>
+      <c r="Q19" s="68"/>
+      <c r="R19" s="69" t="s">
         <v>34</v>
       </c>
-      <c r="S19" s="61"/>
-      <c r="T19" s="61"/>
-      <c r="U19" s="61"/>
-      <c r="V19" s="61"/>
-      <c r="W19" s="61"/>
-      <c r="X19" s="61"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="61"/>
-      <c r="AA19" s="61"/>
-      <c r="AB19" s="61"/>
-      <c r="AC19" s="61"/>
-      <c r="AD19" s="58" t="s">
+      <c r="S19" s="69"/>
+      <c r="T19" s="69"/>
+      <c r="U19" s="69"/>
+      <c r="V19" s="69"/>
+      <c r="W19" s="69"/>
+      <c r="X19" s="69"/>
+      <c r="Y19" s="69"/>
+      <c r="Z19" s="69"/>
+      <c r="AA19" s="69"/>
+      <c r="AB19" s="69"/>
+      <c r="AC19" s="69"/>
+      <c r="AD19" s="66" t="s">
         <v>35</v>
       </c>
-      <c r="AE19" s="58"/>
-      <c r="AF19" s="58"/>
-      <c r="AG19" s="58"/>
-      <c r="AH19" s="58"/>
-      <c r="AI19" s="58"/>
-      <c r="AJ19" s="58" t="s">
+      <c r="AE19" s="66"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="66"/>
+      <c r="AJ19" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="AK19" s="58"/>
-      <c r="AL19" s="58"/>
-      <c r="AM19" s="58"/>
-      <c r="AN19" s="58"/>
-      <c r="AO19" s="58"/>
-      <c r="AP19" s="58"/>
-      <c r="AQ19" s="58"/>
-      <c r="AR19" s="58"/>
-      <c r="AS19" s="58"/>
-      <c r="AT19" s="58"/>
-      <c r="AU19" s="58"/>
-      <c r="AV19" s="58"/>
-      <c r="AW19" s="58"/>
-      <c r="AX19" s="58"/>
-      <c r="AY19" s="58" t="s">
+      <c r="AK19" s="66"/>
+      <c r="AL19" s="66"/>
+      <c r="AM19" s="66"/>
+      <c r="AN19" s="66"/>
+      <c r="AO19" s="66"/>
+      <c r="AP19" s="66"/>
+      <c r="AQ19" s="66"/>
+      <c r="AR19" s="66"/>
+      <c r="AS19" s="66"/>
+      <c r="AT19" s="66"/>
+      <c r="AU19" s="66"/>
+      <c r="AV19" s="66"/>
+      <c r="AW19" s="66"/>
+      <c r="AX19" s="66"/>
+      <c r="AY19" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="AZ19" s="58"/>
-      <c r="BA19" s="58"/>
-      <c r="BB19" s="58"/>
-      <c r="BC19" s="58"/>
-      <c r="BD19" s="58"/>
-      <c r="BE19" s="58" t="s">
+      <c r="AZ19" s="66"/>
+      <c r="BA19" s="66"/>
+      <c r="BB19" s="66"/>
+      <c r="BC19" s="66"/>
+      <c r="BD19" s="66"/>
+      <c r="BE19" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="BF19" s="58"/>
-      <c r="BG19" s="58"/>
-      <c r="BH19" s="58"/>
-      <c r="BI19" s="58"/>
-      <c r="BJ19" s="58"/>
-      <c r="BK19" s="58" t="s">
+      <c r="BF19" s="66"/>
+      <c r="BG19" s="66"/>
+      <c r="BH19" s="66"/>
+      <c r="BI19" s="66"/>
+      <c r="BJ19" s="66"/>
+      <c r="BK19" s="66" t="s">
         <v>39</v>
       </c>
-      <c r="BL19" s="58"/>
-      <c r="BM19" s="58"/>
-      <c r="BN19" s="58"/>
-      <c r="BO19" s="58"/>
-      <c r="BP19" s="58"/>
-      <c r="BQ19" s="58"/>
-      <c r="BR19" s="58"/>
-      <c r="BS19" s="58"/>
-      <c r="BT19" s="58" t="s">
+      <c r="BL19" s="66"/>
+      <c r="BM19" s="66"/>
+      <c r="BN19" s="66"/>
+      <c r="BO19" s="66"/>
+      <c r="BP19" s="66"/>
+      <c r="BQ19" s="66"/>
+      <c r="BR19" s="66"/>
+      <c r="BS19" s="66"/>
+      <c r="BT19" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="BU19" s="58"/>
-      <c r="BV19" s="58"/>
-      <c r="BW19" s="58"/>
-      <c r="BX19" s="58"/>
-      <c r="BY19" s="58"/>
-      <c r="BZ19" s="58"/>
-      <c r="CA19" s="58"/>
-      <c r="CB19" s="58"/>
-      <c r="CC19" s="58"/>
-      <c r="CD19" s="58"/>
-      <c r="CE19" s="58" t="s">
+      <c r="BU19" s="66"/>
+      <c r="BV19" s="66"/>
+      <c r="BW19" s="66"/>
+      <c r="BX19" s="66"/>
+      <c r="BY19" s="66"/>
+      <c r="BZ19" s="66"/>
+      <c r="CA19" s="66"/>
+      <c r="CB19" s="66"/>
+      <c r="CC19" s="66"/>
+      <c r="CD19" s="66"/>
+      <c r="CE19" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="CF19" s="58"/>
-      <c r="CG19" s="58"/>
-      <c r="CH19" s="58"/>
-      <c r="CI19" s="58"/>
-      <c r="CJ19" s="58"/>
-      <c r="CK19" s="58"/>
-      <c r="CL19" s="58"/>
-      <c r="CM19" s="58"/>
-      <c r="CN19" s="58"/>
-      <c r="CO19" s="58"/>
-      <c r="CP19" s="59" t="s">
+      <c r="CF19" s="66"/>
+      <c r="CG19" s="66"/>
+      <c r="CH19" s="66"/>
+      <c r="CI19" s="66"/>
+      <c r="CJ19" s="66"/>
+      <c r="CK19" s="66"/>
+      <c r="CL19" s="66"/>
+      <c r="CM19" s="66"/>
+      <c r="CN19" s="66"/>
+      <c r="CO19" s="66"/>
+      <c r="CP19" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="CQ19" s="59"/>
-      <c r="CR19" s="59"/>
-      <c r="CS19" s="59"/>
-      <c r="CT19" s="59"/>
-      <c r="CU19" s="59"/>
+      <c r="CQ19" s="67"/>
+      <c r="CR19" s="67"/>
+      <c r="CS19" s="67"/>
+      <c r="CT19" s="67"/>
+      <c r="CU19" s="66"/>
     </row>
     <row r="20" spans="1:99" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60"/>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
-      <c r="J20" s="60"/>
-      <c r="K20" s="60"/>
-      <c r="L20" s="60"/>
-      <c r="M20" s="60"/>
-      <c r="N20" s="60"/>
-      <c r="O20" s="60"/>
-      <c r="P20" s="60"/>
-      <c r="Q20" s="60"/>
-      <c r="R20" s="58" t="s">
+      <c r="A20" s="66"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="68"/>
+      <c r="L20" s="68"/>
+      <c r="M20" s="68"/>
+      <c r="N20" s="68"/>
+      <c r="O20" s="68"/>
+      <c r="P20" s="68"/>
+      <c r="Q20" s="68"/>
+      <c r="R20" s="66" t="s">
         <v>43</v>
       </c>
-      <c r="S20" s="58"/>
-      <c r="T20" s="58"/>
-      <c r="U20" s="58"/>
-      <c r="V20" s="58"/>
-      <c r="W20" s="58"/>
-      <c r="X20" s="58" t="s">
+      <c r="S20" s="66"/>
+      <c r="T20" s="66"/>
+      <c r="U20" s="66"/>
+      <c r="V20" s="66"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="Y20" s="58"/>
-      <c r="Z20" s="58"/>
-      <c r="AA20" s="58"/>
-      <c r="AB20" s="58"/>
-      <c r="AC20" s="58"/>
-      <c r="AD20" s="58" t="s">
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="66"/>
+      <c r="AC20" s="66"/>
+      <c r="AD20" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="AE20" s="58"/>
-      <c r="AF20" s="58"/>
-      <c r="AG20" s="58"/>
-      <c r="AH20" s="58"/>
-      <c r="AI20" s="58"/>
-      <c r="AJ20" s="58" t="s">
+      <c r="AE20" s="66"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="AK20" s="58"/>
-      <c r="AL20" s="58"/>
-      <c r="AM20" s="58"/>
-      <c r="AN20" s="58"/>
-      <c r="AO20" s="58"/>
-      <c r="AP20" s="58"/>
-      <c r="AQ20" s="58"/>
-      <c r="AR20" s="58"/>
-      <c r="AS20" s="58"/>
-      <c r="AT20" s="58"/>
-      <c r="AU20" s="58"/>
-      <c r="AV20" s="58"/>
-      <c r="AW20" s="58"/>
-      <c r="AX20" s="58"/>
-      <c r="AY20" s="58" t="s">
+      <c r="AK20" s="66"/>
+      <c r="AL20" s="66"/>
+      <c r="AM20" s="66"/>
+      <c r="AN20" s="66"/>
+      <c r="AO20" s="66"/>
+      <c r="AP20" s="66"/>
+      <c r="AQ20" s="66"/>
+      <c r="AR20" s="66"/>
+      <c r="AS20" s="66"/>
+      <c r="AT20" s="66"/>
+      <c r="AU20" s="66"/>
+      <c r="AV20" s="66"/>
+      <c r="AW20" s="66"/>
+      <c r="AX20" s="66"/>
+      <c r="AY20" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="AZ20" s="58"/>
-      <c r="BA20" s="58"/>
-      <c r="BB20" s="58"/>
-      <c r="BC20" s="58"/>
-      <c r="BD20" s="58"/>
-      <c r="BE20" s="58"/>
-      <c r="BF20" s="58"/>
-      <c r="BG20" s="58"/>
-      <c r="BH20" s="58"/>
-      <c r="BI20" s="58"/>
-      <c r="BJ20" s="58"/>
-      <c r="BK20" s="58"/>
-      <c r="BL20" s="58"/>
-      <c r="BM20" s="58"/>
-      <c r="BN20" s="58"/>
-      <c r="BO20" s="58"/>
-      <c r="BP20" s="58"/>
-      <c r="BQ20" s="58"/>
-      <c r="BR20" s="58"/>
-      <c r="BS20" s="58"/>
-      <c r="BT20" s="58"/>
-      <c r="BU20" s="58"/>
-      <c r="BV20" s="58"/>
-      <c r="BW20" s="58"/>
-      <c r="BX20" s="58"/>
-      <c r="BY20" s="58"/>
-      <c r="BZ20" s="58"/>
-      <c r="CA20" s="58"/>
-      <c r="CB20" s="58"/>
-      <c r="CC20" s="58"/>
-      <c r="CD20" s="58"/>
-      <c r="CE20" s="58"/>
-      <c r="CF20" s="58"/>
-      <c r="CG20" s="58"/>
-      <c r="CH20" s="58"/>
-      <c r="CI20" s="58"/>
-      <c r="CJ20" s="58"/>
-      <c r="CK20" s="58"/>
-      <c r="CL20" s="58"/>
-      <c r="CM20" s="58"/>
-      <c r="CN20" s="58"/>
-      <c r="CO20" s="58"/>
-      <c r="CP20" s="59"/>
-      <c r="CQ20" s="59"/>
-      <c r="CR20" s="59"/>
-      <c r="CS20" s="59"/>
-      <c r="CT20" s="59"/>
-      <c r="CU20" s="59"/>
+      <c r="AZ20" s="66"/>
+      <c r="BA20" s="66"/>
+      <c r="BB20" s="66"/>
+      <c r="BC20" s="66"/>
+      <c r="BD20" s="66"/>
+      <c r="BE20" s="66"/>
+      <c r="BF20" s="66"/>
+      <c r="BG20" s="66"/>
+      <c r="BH20" s="66"/>
+      <c r="BI20" s="66"/>
+      <c r="BJ20" s="66"/>
+      <c r="BK20" s="66"/>
+      <c r="BL20" s="66"/>
+      <c r="BM20" s="66"/>
+      <c r="BN20" s="66"/>
+      <c r="BO20" s="66"/>
+      <c r="BP20" s="66"/>
+      <c r="BQ20" s="66"/>
+      <c r="BR20" s="66"/>
+      <c r="BS20" s="66"/>
+      <c r="BT20" s="66"/>
+      <c r="BU20" s="66"/>
+      <c r="BV20" s="66"/>
+      <c r="BW20" s="66"/>
+      <c r="BX20" s="66"/>
+      <c r="BY20" s="66"/>
+      <c r="BZ20" s="66"/>
+      <c r="CA20" s="66"/>
+      <c r="CB20" s="66"/>
+      <c r="CC20" s="66"/>
+      <c r="CD20" s="66"/>
+      <c r="CE20" s="66"/>
+      <c r="CF20" s="66"/>
+      <c r="CG20" s="66"/>
+      <c r="CH20" s="66"/>
+      <c r="CI20" s="66"/>
+      <c r="CJ20" s="66"/>
+      <c r="CK20" s="66"/>
+      <c r="CL20" s="66"/>
+      <c r="CM20" s="66"/>
+      <c r="CN20" s="66"/>
+      <c r="CO20" s="66"/>
+      <c r="CP20" s="67"/>
+      <c r="CQ20" s="67"/>
+      <c r="CR20" s="67"/>
+      <c r="CS20" s="67"/>
+      <c r="CT20" s="67"/>
+      <c r="CU20" s="66"/>
     </row>
     <row r="21" spans="1:99" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="57"/>
-      <c r="B21" s="57"/>
-      <c r="C21" s="57"/>
-      <c r="D21" s="57"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-      <c r="K21" s="57"/>
-      <c r="L21" s="57"/>
-      <c r="M21" s="57"/>
-      <c r="N21" s="57"/>
-      <c r="O21" s="57"/>
-      <c r="P21" s="57"/>
-      <c r="Q21" s="57"/>
-      <c r="R21" s="52" t="s">
+      <c r="A21" s="59"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
+      <c r="L21" s="65"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="65"/>
+      <c r="O21" s="65"/>
+      <c r="P21" s="65"/>
+      <c r="Q21" s="65"/>
+      <c r="R21" s="59" t="s">
         <v>47</v>
       </c>
-      <c r="S21" s="52"/>
-      <c r="T21" s="52"/>
-      <c r="U21" s="52"/>
-      <c r="V21" s="52"/>
-      <c r="W21" s="52"/>
-      <c r="X21" s="52" t="s">
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59" t="s">
         <v>48</v>
       </c>
-      <c r="Y21" s="52"/>
-      <c r="Z21" s="52"/>
-      <c r="AA21" s="52"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="52"/>
-      <c r="AG21" s="52"/>
-      <c r="AH21" s="52"/>
-      <c r="AI21" s="52"/>
-      <c r="AJ21" s="52"/>
-      <c r="AK21" s="52"/>
-      <c r="AL21" s="52"/>
-      <c r="AM21" s="52"/>
-      <c r="AN21" s="52"/>
-      <c r="AO21" s="52"/>
-      <c r="AP21" s="52"/>
-      <c r="AQ21" s="52"/>
-      <c r="AR21" s="52"/>
-      <c r="AS21" s="52"/>
-      <c r="AT21" s="52"/>
-      <c r="AU21" s="52"/>
-      <c r="AV21" s="52"/>
-      <c r="AW21" s="52"/>
-      <c r="AX21" s="52"/>
-      <c r="AY21" s="52"/>
-      <c r="AZ21" s="52"/>
-      <c r="BA21" s="52"/>
-      <c r="BB21" s="52"/>
-      <c r="BC21" s="52"/>
-      <c r="BD21" s="52"/>
-      <c r="BE21" s="52"/>
-      <c r="BF21" s="52"/>
-      <c r="BG21" s="52"/>
-      <c r="BH21" s="52"/>
-      <c r="BI21" s="52"/>
-      <c r="BJ21" s="52"/>
-      <c r="BK21" s="52"/>
-      <c r="BL21" s="52"/>
-      <c r="BM21" s="52"/>
-      <c r="BN21" s="52"/>
-      <c r="BO21" s="52"/>
-      <c r="BP21" s="52"/>
-      <c r="BQ21" s="52"/>
-      <c r="BR21" s="52"/>
-      <c r="BS21" s="52"/>
-      <c r="BT21" s="52"/>
-      <c r="BU21" s="52"/>
-      <c r="BV21" s="52"/>
-      <c r="BW21" s="52"/>
-      <c r="BX21" s="52"/>
-      <c r="BY21" s="52"/>
-      <c r="BZ21" s="52"/>
-      <c r="CA21" s="52"/>
-      <c r="CB21" s="52"/>
-      <c r="CC21" s="52"/>
-      <c r="CD21" s="52"/>
-      <c r="CE21" s="52"/>
-      <c r="CF21" s="52"/>
-      <c r="CG21" s="52"/>
-      <c r="CH21" s="52"/>
-      <c r="CI21" s="52"/>
-      <c r="CJ21" s="52"/>
-      <c r="CK21" s="52"/>
-      <c r="CL21" s="52"/>
-      <c r="CM21" s="52"/>
-      <c r="CN21" s="52"/>
-      <c r="CO21" s="52"/>
-      <c r="CP21" s="53"/>
-      <c r="CQ21" s="53"/>
-      <c r="CR21" s="53"/>
-      <c r="CS21" s="53"/>
-      <c r="CT21" s="53"/>
-      <c r="CU21" s="53"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="59"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="59"/>
+      <c r="AU21" s="59"/>
+      <c r="AV21" s="59"/>
+      <c r="AW21" s="59"/>
+      <c r="AX21" s="59"/>
+      <c r="AY21" s="59"/>
+      <c r="AZ21" s="59"/>
+      <c r="BA21" s="59"/>
+      <c r="BB21" s="59"/>
+      <c r="BC21" s="59"/>
+      <c r="BD21" s="59"/>
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="59"/>
+      <c r="BG21" s="59"/>
+      <c r="BH21" s="59"/>
+      <c r="BI21" s="59"/>
+      <c r="BJ21" s="59"/>
+      <c r="BK21" s="59"/>
+      <c r="BL21" s="59"/>
+      <c r="BM21" s="59"/>
+      <c r="BN21" s="59"/>
+      <c r="BO21" s="59"/>
+      <c r="BP21" s="59"/>
+      <c r="BQ21" s="59"/>
+      <c r="BR21" s="59"/>
+      <c r="BS21" s="59"/>
+      <c r="BT21" s="59"/>
+      <c r="BU21" s="59"/>
+      <c r="BV21" s="59"/>
+      <c r="BW21" s="59"/>
+      <c r="BX21" s="59"/>
+      <c r="BY21" s="59"/>
+      <c r="BZ21" s="59"/>
+      <c r="CA21" s="59"/>
+      <c r="CB21" s="59"/>
+      <c r="CC21" s="59"/>
+      <c r="CD21" s="59"/>
+      <c r="CE21" s="59"/>
+      <c r="CF21" s="59"/>
+      <c r="CG21" s="59"/>
+      <c r="CH21" s="59"/>
+      <c r="CI21" s="59"/>
+      <c r="CJ21" s="59"/>
+      <c r="CK21" s="59"/>
+      <c r="CL21" s="59"/>
+      <c r="CM21" s="59"/>
+      <c r="CN21" s="59"/>
+      <c r="CO21" s="59"/>
+      <c r="CP21" s="60"/>
+      <c r="CQ21" s="60"/>
+      <c r="CR21" s="60"/>
+      <c r="CS21" s="60"/>
+      <c r="CT21" s="60"/>
+      <c r="CU21" s="59"/>
     </row>
     <row r="22" spans="1:99" s="15" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="54">
+      <c r="A22" s="61">
         <v>1</v>
       </c>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="54"/>
-      <c r="I22" s="54"/>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="54"/>
-      <c r="Q22" s="54"/>
-      <c r="R22" s="55">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="61">
         <v>2</v>
       </c>
-      <c r="S22" s="55"/>
-      <c r="T22" s="55"/>
-      <c r="U22" s="55"/>
-      <c r="V22" s="55"/>
-      <c r="W22" s="55"/>
-      <c r="X22" s="55">
+      <c r="S22" s="61"/>
+      <c r="T22" s="61"/>
+      <c r="U22" s="61"/>
+      <c r="V22" s="61"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="61">
         <v>3</v>
       </c>
-      <c r="Y22" s="55"/>
-      <c r="Z22" s="55"/>
-      <c r="AA22" s="55"/>
-      <c r="AB22" s="55"/>
-      <c r="AC22" s="55"/>
-      <c r="AD22" s="55">
+      <c r="Y22" s="61"/>
+      <c r="Z22" s="61"/>
+      <c r="AA22" s="61"/>
+      <c r="AB22" s="61"/>
+      <c r="AC22" s="61"/>
+      <c r="AD22" s="61">
         <v>4</v>
       </c>
-      <c r="AE22" s="55"/>
-      <c r="AF22" s="55"/>
-      <c r="AG22" s="55"/>
-      <c r="AH22" s="55"/>
-      <c r="AI22" s="55"/>
-      <c r="AJ22" s="55">
+      <c r="AE22" s="61"/>
+      <c r="AF22" s="61"/>
+      <c r="AG22" s="61"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="61">
         <v>5</v>
       </c>
-      <c r="AK22" s="55"/>
-      <c r="AL22" s="55"/>
-      <c r="AM22" s="55"/>
-      <c r="AN22" s="55"/>
-      <c r="AO22" s="55"/>
-      <c r="AP22" s="55">
+      <c r="AK22" s="61"/>
+      <c r="AL22" s="61"/>
+      <c r="AM22" s="61"/>
+      <c r="AN22" s="61"/>
+      <c r="AO22" s="61"/>
+      <c r="AP22" s="61">
         <v>6</v>
       </c>
-      <c r="AQ22" s="55"/>
-      <c r="AR22" s="55"/>
-      <c r="AS22" s="55"/>
-      <c r="AT22" s="55"/>
-      <c r="AU22" s="55"/>
-      <c r="AV22" s="55"/>
-      <c r="AW22" s="55"/>
-      <c r="AX22" s="55"/>
-      <c r="AY22" s="55">
+      <c r="AQ22" s="61"/>
+      <c r="AR22" s="61"/>
+      <c r="AS22" s="61"/>
+      <c r="AT22" s="61"/>
+      <c r="AU22" s="61"/>
+      <c r="AV22" s="61"/>
+      <c r="AW22" s="61"/>
+      <c r="AX22" s="61"/>
+      <c r="AY22" s="61">
         <v>7</v>
       </c>
-      <c r="AZ22" s="55"/>
-      <c r="BA22" s="55"/>
-      <c r="BB22" s="55"/>
-      <c r="BC22" s="55"/>
-      <c r="BD22" s="55"/>
-      <c r="BE22" s="55">
+      <c r="AZ22" s="61"/>
+      <c r="BA22" s="61"/>
+      <c r="BB22" s="61"/>
+      <c r="BC22" s="61"/>
+      <c r="BD22" s="61"/>
+      <c r="BE22" s="61">
         <v>8</v>
       </c>
-      <c r="BF22" s="55"/>
-      <c r="BG22" s="55"/>
-      <c r="BH22" s="55"/>
-      <c r="BI22" s="55"/>
-      <c r="BJ22" s="55"/>
-      <c r="BK22" s="55">
+      <c r="BF22" s="61"/>
+      <c r="BG22" s="61"/>
+      <c r="BH22" s="61"/>
+      <c r="BI22" s="61"/>
+      <c r="BJ22" s="61"/>
+      <c r="BK22" s="61">
         <v>9</v>
       </c>
-      <c r="BL22" s="55"/>
-      <c r="BM22" s="55"/>
-      <c r="BN22" s="55"/>
-      <c r="BO22" s="55"/>
-      <c r="BP22" s="55"/>
-      <c r="BQ22" s="55"/>
-      <c r="BR22" s="55"/>
-      <c r="BS22" s="55"/>
-      <c r="BT22" s="55">
+      <c r="BL22" s="61"/>
+      <c r="BM22" s="61"/>
+      <c r="BN22" s="61"/>
+      <c r="BO22" s="61"/>
+      <c r="BP22" s="61"/>
+      <c r="BQ22" s="61"/>
+      <c r="BR22" s="61"/>
+      <c r="BS22" s="61"/>
+      <c r="BT22" s="61">
         <v>10</v>
       </c>
-      <c r="BU22" s="55"/>
-      <c r="BV22" s="55"/>
-      <c r="BW22" s="55"/>
-      <c r="BX22" s="55"/>
-      <c r="BY22" s="55"/>
-      <c r="BZ22" s="55"/>
-      <c r="CA22" s="55"/>
-      <c r="CB22" s="55"/>
-      <c r="CC22" s="55"/>
-      <c r="CD22" s="55"/>
-      <c r="CE22" s="55">
+      <c r="BU22" s="61"/>
+      <c r="BV22" s="61"/>
+      <c r="BW22" s="61"/>
+      <c r="BX22" s="61"/>
+      <c r="BY22" s="61"/>
+      <c r="BZ22" s="61"/>
+      <c r="CA22" s="61"/>
+      <c r="CB22" s="61"/>
+      <c r="CC22" s="61"/>
+      <c r="CD22" s="61"/>
+      <c r="CE22" s="61">
         <v>11</v>
       </c>
-      <c r="CF22" s="55"/>
-      <c r="CG22" s="55"/>
-      <c r="CH22" s="55"/>
-      <c r="CI22" s="55"/>
-      <c r="CJ22" s="55"/>
-      <c r="CK22" s="55"/>
-      <c r="CL22" s="55"/>
-      <c r="CM22" s="55"/>
-      <c r="CN22" s="55"/>
-      <c r="CO22" s="55"/>
-      <c r="CP22" s="56">
+      <c r="CF22" s="61"/>
+      <c r="CG22" s="61"/>
+      <c r="CH22" s="61"/>
+      <c r="CI22" s="61"/>
+      <c r="CJ22" s="61"/>
+      <c r="CK22" s="61"/>
+      <c r="CL22" s="61"/>
+      <c r="CM22" s="61"/>
+      <c r="CN22" s="61"/>
+      <c r="CO22" s="61"/>
+      <c r="CP22" s="63">
         <v>12</v>
       </c>
-      <c r="CQ22" s="56"/>
-      <c r="CR22" s="56"/>
-      <c r="CS22" s="56"/>
-      <c r="CT22" s="56"/>
-      <c r="CU22" s="56"/>
+      <c r="CQ22" s="63"/>
+      <c r="CR22" s="63"/>
+      <c r="CS22" s="63"/>
+      <c r="CT22" s="63"/>
+      <c r="CU22" s="64"/>
     </row>
     <row r="23" spans="1:99" s="5" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="48"/>
-      <c r="H23" s="48"/>
-      <c r="I23" s="48"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="48"/>
-      <c r="P23" s="48"/>
-      <c r="Q23" s="48"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="49"/>
-      <c r="T23" s="49"/>
-      <c r="U23" s="49"/>
-      <c r="V23" s="49"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="49" t="s">
+      <c r="A23" s="54"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
+      <c r="M23" s="55"/>
+      <c r="N23" s="55"/>
+      <c r="O23" s="55"/>
+      <c r="P23" s="55"/>
+      <c r="Q23" s="55"/>
+      <c r="R23" s="56"/>
+      <c r="S23" s="56"/>
+      <c r="T23" s="56"/>
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="Y23" s="49"/>
-      <c r="Z23" s="49"/>
-      <c r="AA23" s="49"/>
-      <c r="AB23" s="49"/>
-      <c r="AC23" s="49"/>
-      <c r="AD23" s="49"/>
-      <c r="AE23" s="49"/>
-      <c r="AF23" s="49"/>
-      <c r="AG23" s="49"/>
-      <c r="AH23" s="49"/>
-      <c r="AI23" s="49"/>
-      <c r="AJ23" s="49"/>
-      <c r="AK23" s="49"/>
-      <c r="AL23" s="49"/>
-      <c r="AM23" s="49"/>
-      <c r="AN23" s="49"/>
-      <c r="AO23" s="49"/>
-      <c r="AP23" s="50"/>
-      <c r="AQ23" s="50"/>
-      <c r="AR23" s="50"/>
-      <c r="AS23" s="50"/>
-      <c r="AT23" s="50"/>
-      <c r="AU23" s="50"/>
-      <c r="AV23" s="50"/>
-      <c r="AW23" s="50"/>
-      <c r="AX23" s="50"/>
-      <c r="AY23" s="51"/>
-      <c r="AZ23" s="51"/>
-      <c r="BA23" s="51"/>
-      <c r="BB23" s="51"/>
-      <c r="BC23" s="51"/>
-      <c r="BD23" s="51"/>
-      <c r="BE23" s="51"/>
-      <c r="BF23" s="51"/>
-      <c r="BG23" s="51"/>
-      <c r="BH23" s="51"/>
-      <c r="BI23" s="51"/>
-      <c r="BJ23" s="51"/>
-      <c r="BK23" s="50"/>
-      <c r="BL23" s="50"/>
-      <c r="BM23" s="50"/>
-      <c r="BN23" s="50"/>
-      <c r="BO23" s="50"/>
-      <c r="BP23" s="50"/>
-      <c r="BQ23" s="50"/>
-      <c r="BR23" s="50"/>
-      <c r="BS23" s="50"/>
-      <c r="BT23" s="45"/>
-      <c r="BU23" s="45"/>
-      <c r="BV23" s="45"/>
-      <c r="BW23" s="45"/>
-      <c r="BX23" s="45"/>
-      <c r="BY23" s="45"/>
-      <c r="BZ23" s="45"/>
-      <c r="CA23" s="45"/>
-      <c r="CB23" s="45"/>
-      <c r="CC23" s="45"/>
-      <c r="CD23" s="45"/>
-      <c r="CE23" s="45"/>
-      <c r="CF23" s="45"/>
-      <c r="CG23" s="45"/>
-      <c r="CH23" s="45"/>
-      <c r="CI23" s="45"/>
-      <c r="CJ23" s="45"/>
-      <c r="CK23" s="45"/>
-      <c r="CL23" s="45"/>
-      <c r="CM23" s="45"/>
-      <c r="CN23" s="45"/>
-      <c r="CO23" s="45"/>
-      <c r="CP23" s="42" t="s">
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="56"/>
+      <c r="AG23" s="56"/>
+      <c r="AH23" s="56"/>
+      <c r="AI23" s="56"/>
+      <c r="AJ23" s="56"/>
+      <c r="AK23" s="56"/>
+      <c r="AL23" s="56"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="57"/>
+      <c r="AS23" s="57"/>
+      <c r="AT23" s="57"/>
+      <c r="AU23" s="57"/>
+      <c r="AV23" s="57"/>
+      <c r="AW23" s="57"/>
+      <c r="AX23" s="57"/>
+      <c r="AY23" s="58"/>
+      <c r="AZ23" s="58"/>
+      <c r="BA23" s="58"/>
+      <c r="BB23" s="58"/>
+      <c r="BC23" s="58"/>
+      <c r="BD23" s="58"/>
+      <c r="BE23" s="58"/>
+      <c r="BF23" s="58"/>
+      <c r="BG23" s="58"/>
+      <c r="BH23" s="58"/>
+      <c r="BI23" s="58"/>
+      <c r="BJ23" s="58"/>
+      <c r="BK23" s="57"/>
+      <c r="BL23" s="57"/>
+      <c r="BM23" s="57"/>
+      <c r="BN23" s="57"/>
+      <c r="BO23" s="57"/>
+      <c r="BP23" s="57"/>
+      <c r="BQ23" s="57"/>
+      <c r="BR23" s="57"/>
+      <c r="BS23" s="57"/>
+      <c r="BT23" s="51"/>
+      <c r="BU23" s="51"/>
+      <c r="BV23" s="51"/>
+      <c r="BW23" s="51"/>
+      <c r="BX23" s="51"/>
+      <c r="BY23" s="51"/>
+      <c r="BZ23" s="51"/>
+      <c r="CA23" s="51"/>
+      <c r="CB23" s="51"/>
+      <c r="CC23" s="51"/>
+      <c r="CD23" s="51"/>
+      <c r="CE23" s="51"/>
+      <c r="CF23" s="51"/>
+      <c r="CG23" s="51"/>
+      <c r="CH23" s="51"/>
+      <c r="CI23" s="51"/>
+      <c r="CJ23" s="51"/>
+      <c r="CK23" s="51"/>
+      <c r="CL23" s="51"/>
+      <c r="CM23" s="51"/>
+      <c r="CN23" s="51"/>
+      <c r="CO23" s="51"/>
+      <c r="CP23" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="CQ23" s="42"/>
-      <c r="CR23" s="42"/>
-      <c r="CS23" s="42"/>
-      <c r="CT23" s="42"/>
-      <c r="CU23" s="42"/>
+      <c r="CQ23" s="46"/>
+      <c r="CR23" s="46"/>
+      <c r="CS23" s="46"/>
+      <c r="CT23" s="46"/>
+      <c r="CU23" s="47"/>
     </row>
     <row r="24" spans="1:99" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="AO24" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="AP24" s="43" t="s">
+      <c r="AP24" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="AQ24" s="43"/>
-      <c r="AR24" s="43"/>
-      <c r="AS24" s="43"/>
-      <c r="AT24" s="43"/>
-      <c r="AU24" s="43"/>
-      <c r="AV24" s="43"/>
-      <c r="AW24" s="43"/>
-      <c r="AX24" s="43"/>
-      <c r="AY24" s="43" t="s">
+      <c r="AQ24" s="48"/>
+      <c r="AR24" s="48"/>
+      <c r="AS24" s="48"/>
+      <c r="AT24" s="48"/>
+      <c r="AU24" s="48"/>
+      <c r="AV24" s="48"/>
+      <c r="AW24" s="48"/>
+      <c r="AX24" s="48"/>
+      <c r="AY24" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="AZ24" s="43"/>
-      <c r="BA24" s="43"/>
-      <c r="BB24" s="43"/>
-      <c r="BC24" s="43"/>
-      <c r="BD24" s="43"/>
-      <c r="BE24" s="43" t="s">
+      <c r="AZ24" s="48"/>
+      <c r="BA24" s="48"/>
+      <c r="BB24" s="48"/>
+      <c r="BC24" s="48"/>
+      <c r="BD24" s="48"/>
+      <c r="BE24" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="BF24" s="43"/>
-      <c r="BG24" s="43"/>
-      <c r="BH24" s="43"/>
-      <c r="BI24" s="43"/>
-      <c r="BJ24" s="43"/>
-      <c r="BK24" s="44"/>
-      <c r="BL24" s="44"/>
-      <c r="BM24" s="44"/>
-      <c r="BN24" s="44"/>
-      <c r="BO24" s="44"/>
-      <c r="BP24" s="44"/>
-      <c r="BQ24" s="44"/>
-      <c r="BR24" s="44"/>
-      <c r="BS24" s="44"/>
-      <c r="BT24" s="45"/>
-      <c r="BU24" s="45"/>
-      <c r="BV24" s="45"/>
-      <c r="BW24" s="45"/>
-      <c r="BX24" s="45"/>
-      <c r="BY24" s="45"/>
-      <c r="BZ24" s="45"/>
-      <c r="CA24" s="45"/>
-      <c r="CB24" s="45"/>
-      <c r="CC24" s="45"/>
-      <c r="CD24" s="45"/>
-      <c r="CE24" s="45"/>
-      <c r="CF24" s="45"/>
-      <c r="CG24" s="45"/>
-      <c r="CH24" s="45"/>
-      <c r="CI24" s="45"/>
-      <c r="CJ24" s="45"/>
-      <c r="CK24" s="45"/>
-      <c r="CL24" s="45"/>
-      <c r="CM24" s="45"/>
-      <c r="CN24" s="45"/>
-      <c r="CO24" s="45"/>
+      <c r="BF24" s="48"/>
+      <c r="BG24" s="48"/>
+      <c r="BH24" s="48"/>
+      <c r="BI24" s="48"/>
+      <c r="BJ24" s="48"/>
+      <c r="BK24" s="49"/>
+      <c r="BL24" s="49"/>
+      <c r="BM24" s="49"/>
+      <c r="BN24" s="49"/>
+      <c r="BO24" s="49"/>
+      <c r="BP24" s="49"/>
+      <c r="BQ24" s="49"/>
+      <c r="BR24" s="49"/>
+      <c r="BS24" s="49"/>
+      <c r="BT24" s="50"/>
+      <c r="BU24" s="50"/>
+      <c r="BV24" s="50"/>
+      <c r="BW24" s="50"/>
+      <c r="BX24" s="50"/>
+      <c r="BY24" s="50"/>
+      <c r="BZ24" s="50"/>
+      <c r="CA24" s="50"/>
+      <c r="CB24" s="50"/>
+      <c r="CC24" s="50"/>
+      <c r="CD24" s="50"/>
+      <c r="CE24" s="50"/>
+      <c r="CF24" s="50"/>
+      <c r="CG24" s="50"/>
+      <c r="CH24" s="50"/>
+      <c r="CI24" s="50"/>
+      <c r="CJ24" s="50"/>
+      <c r="CK24" s="50"/>
+      <c r="CL24" s="50"/>
+      <c r="CM24" s="50"/>
+      <c r="CN24" s="50"/>
+      <c r="CO24" s="50"/>
     </row>
     <row r="25" spans="1:99" ht="8.1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="26" spans="1:99" ht="5.0999999999999996" customHeight="1" x14ac:dyDescent="0.2">
@@ -3264,83 +3319,83 @@
       <c r="CU29" s="22"/>
     </row>
     <row r="30" spans="1:99" s="20" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="45"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="45"/>
+      <c r="E30" s="45"/>
+      <c r="F30" s="45"/>
+      <c r="G30" s="45"/>
+      <c r="H30" s="45"/>
+      <c r="I30" s="45"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="37"/>
-      <c r="L30" s="37"/>
-      <c r="M30" s="37"/>
-      <c r="N30" s="37"/>
-      <c r="O30" s="37"/>
-      <c r="P30" s="37"/>
-      <c r="Q30" s="37"/>
+      <c r="K30" s="39"/>
+      <c r="L30" s="39"/>
+      <c r="M30" s="39"/>
+      <c r="N30" s="39"/>
+      <c r="O30" s="39"/>
+      <c r="P30" s="39"/>
+      <c r="Q30" s="39"/>
       <c r="R30" s="1"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-      <c r="Z30" s="35"/>
-      <c r="AA30" s="35"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="35"/>
-      <c r="AF30" s="35"/>
-      <c r="AG30" s="35"/>
-      <c r="AH30" s="35"/>
-      <c r="AI30" s="35"/>
-      <c r="AJ30" s="35"/>
-      <c r="AK30" s="35"/>
-      <c r="AL30" s="35"/>
-      <c r="AM30" s="35"/>
-      <c r="AN30" s="35"/>
+      <c r="S30" s="40"/>
+      <c r="T30" s="40"/>
+      <c r="U30" s="40"/>
+      <c r="V30" s="40"/>
+      <c r="W30" s="40"/>
+      <c r="X30" s="40"/>
+      <c r="Y30" s="40"/>
+      <c r="Z30" s="40"/>
+      <c r="AA30" s="40"/>
+      <c r="AB30" s="40"/>
+      <c r="AC30" s="40"/>
+      <c r="AF30" s="38"/>
+      <c r="AG30" s="38"/>
+      <c r="AH30" s="38"/>
+      <c r="AI30" s="38"/>
+      <c r="AJ30" s="38"/>
+      <c r="AK30" s="38"/>
+      <c r="AL30" s="38"/>
+      <c r="AM30" s="38"/>
+      <c r="AN30" s="38"/>
       <c r="AO30" s="1"/>
-      <c r="AP30" s="37"/>
-      <c r="AQ30" s="37"/>
-      <c r="AR30" s="37"/>
-      <c r="AS30" s="37"/>
-      <c r="AT30" s="37"/>
-      <c r="AU30" s="37"/>
-      <c r="AV30" s="37"/>
+      <c r="AP30" s="39"/>
+      <c r="AQ30" s="39"/>
+      <c r="AR30" s="39"/>
+      <c r="AS30" s="39"/>
+      <c r="AT30" s="39"/>
+      <c r="AU30" s="39"/>
+      <c r="AV30" s="39"/>
       <c r="AW30" s="1"/>
-      <c r="AX30" s="35"/>
-      <c r="AY30" s="35"/>
-      <c r="AZ30" s="35"/>
-      <c r="BA30" s="35"/>
-      <c r="BB30" s="35"/>
-      <c r="BC30" s="35"/>
-      <c r="BD30" s="35"/>
-      <c r="BE30" s="35"/>
-      <c r="BF30" s="35"/>
-      <c r="BG30" s="35"/>
-      <c r="BH30" s="35"/>
+      <c r="AX30" s="40"/>
+      <c r="AY30" s="40"/>
+      <c r="AZ30" s="40"/>
+      <c r="BA30" s="40"/>
+      <c r="BB30" s="40"/>
+      <c r="BC30" s="40"/>
+      <c r="BD30" s="40"/>
+      <c r="BE30" s="40"/>
+      <c r="BF30" s="40"/>
+      <c r="BG30" s="40"/>
+      <c r="BH30" s="40"/>
       <c r="BJ30" s="19"/>
       <c r="BL30" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="BZ30" s="46"/>
-      <c r="CA30" s="46"/>
-      <c r="CB30" s="46"/>
-      <c r="CC30" s="46"/>
-      <c r="CD30" s="46"/>
-      <c r="CE30" s="46"/>
-      <c r="CF30" s="46"/>
-      <c r="CG30" s="46"/>
-      <c r="CH30" s="47">
+      <c r="BZ30" s="52"/>
+      <c r="CA30" s="52"/>
+      <c r="CB30" s="52"/>
+      <c r="CC30" s="52"/>
+      <c r="CD30" s="52"/>
+      <c r="CE30" s="52"/>
+      <c r="CF30" s="52"/>
+      <c r="CG30" s="52"/>
+      <c r="CH30" s="53">
         <v>20</v>
       </c>
-      <c r="CI30" s="47"/>
-      <c r="CJ30" s="46"/>
-      <c r="CK30" s="46"/>
-      <c r="CL30" s="46"/>
+      <c r="CI30" s="53"/>
+      <c r="CJ30" s="52"/>
+      <c r="CK30" s="52"/>
+      <c r="CL30" s="52"/>
       <c r="CM30" s="24" t="s">
         <v>10</v>
       </c>
@@ -3348,76 +3403,76 @@
       <c r="CU30" s="22"/>
     </row>
     <row r="31" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="B31" s="38"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="38"/>
-      <c r="F31" s="38"/>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
-      <c r="I31" s="38"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="41"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+      <c r="F31" s="41"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
       <c r="J31" s="14"/>
-      <c r="K31" s="39" t="s">
+      <c r="K31" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="L31" s="39"/>
-      <c r="M31" s="39"/>
-      <c r="N31" s="39"/>
-      <c r="O31" s="39"/>
-      <c r="P31" s="39"/>
-      <c r="Q31" s="39"/>
+      <c r="L31" s="42"/>
+      <c r="M31" s="42"/>
+      <c r="N31" s="42"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="42"/>
+      <c r="Q31" s="42"/>
       <c r="R31" s="14"/>
-      <c r="S31" s="39" t="s">
+      <c r="S31" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="T31" s="39"/>
-      <c r="U31" s="39"/>
-      <c r="V31" s="39"/>
-      <c r="W31" s="39"/>
-      <c r="X31" s="39"/>
-      <c r="Y31" s="39"/>
-      <c r="Z31" s="39"/>
-      <c r="AA31" s="39"/>
-      <c r="AB31" s="39"/>
-      <c r="AC31" s="39"/>
-      <c r="AF31" s="38" t="s">
+      <c r="T31" s="42"/>
+      <c r="U31" s="42"/>
+      <c r="V31" s="42"/>
+      <c r="W31" s="42"/>
+      <c r="X31" s="42"/>
+      <c r="Y31" s="42"/>
+      <c r="Z31" s="42"/>
+      <c r="AA31" s="42"/>
+      <c r="AB31" s="42"/>
+      <c r="AC31" s="42"/>
+      <c r="AF31" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AG31" s="38"/>
-      <c r="AH31" s="38"/>
-      <c r="AI31" s="38"/>
-      <c r="AJ31" s="38"/>
-      <c r="AK31" s="38"/>
-      <c r="AL31" s="38"/>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="38"/>
+      <c r="AG31" s="41"/>
+      <c r="AH31" s="41"/>
+      <c r="AI31" s="41"/>
+      <c r="AJ31" s="41"/>
+      <c r="AK31" s="41"/>
+      <c r="AL31" s="41"/>
+      <c r="AM31" s="41"/>
+      <c r="AN31" s="41"/>
       <c r="AO31" s="14"/>
-      <c r="AP31" s="39" t="s">
+      <c r="AP31" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="AQ31" s="39"/>
-      <c r="AR31" s="39"/>
-      <c r="AS31" s="39"/>
-      <c r="AT31" s="39"/>
-      <c r="AU31" s="39"/>
-      <c r="AV31" s="39"/>
+      <c r="AQ31" s="42"/>
+      <c r="AR31" s="42"/>
+      <c r="AS31" s="42"/>
+      <c r="AT31" s="42"/>
+      <c r="AU31" s="42"/>
+      <c r="AV31" s="42"/>
       <c r="AW31" s="14"/>
-      <c r="AX31" s="39" t="s">
+      <c r="AX31" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AY31" s="39"/>
-      <c r="AZ31" s="39"/>
-      <c r="BA31" s="39"/>
-      <c r="BB31" s="39"/>
-      <c r="BC31" s="39"/>
-      <c r="BD31" s="39"/>
-      <c r="BE31" s="39"/>
-      <c r="BF31" s="39"/>
-      <c r="BG31" s="39"/>
-      <c r="BH31" s="39"/>
+      <c r="AY31" s="42"/>
+      <c r="AZ31" s="42"/>
+      <c r="BA31" s="42"/>
+      <c r="BB31" s="42"/>
+      <c r="BC31" s="42"/>
+      <c r="BD31" s="42"/>
+      <c r="BE31" s="42"/>
+      <c r="BF31" s="42"/>
+      <c r="BG31" s="42"/>
+      <c r="BH31" s="42"/>
       <c r="BJ31" s="19"/>
       <c r="CU31" s="22"/>
     </row>
@@ -3484,32 +3539,32 @@
       <c r="BK32" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="BS32" s="35"/>
-      <c r="BT32" s="35"/>
-      <c r="BU32" s="35"/>
-      <c r="BV32" s="35"/>
-      <c r="BW32" s="35"/>
-      <c r="BX32" s="35"/>
-      <c r="BY32" s="35"/>
-      <c r="BZ32" s="35"/>
-      <c r="CB32" s="40"/>
-      <c r="CC32" s="40"/>
-      <c r="CD32" s="40"/>
-      <c r="CE32" s="40"/>
-      <c r="CF32" s="40"/>
-      <c r="CG32" s="40"/>
-      <c r="CI32" s="35"/>
-      <c r="CJ32" s="35"/>
-      <c r="CK32" s="35"/>
-      <c r="CL32" s="35"/>
-      <c r="CM32" s="35"/>
-      <c r="CN32" s="35"/>
-      <c r="CO32" s="35"/>
-      <c r="CP32" s="35"/>
-      <c r="CQ32" s="35"/>
-      <c r="CR32" s="35"/>
-      <c r="CS32" s="35"/>
-      <c r="CT32" s="35"/>
+      <c r="BS32" s="36"/>
+      <c r="BT32" s="36"/>
+      <c r="BU32" s="36"/>
+      <c r="BV32" s="36"/>
+      <c r="BW32" s="36"/>
+      <c r="BX32" s="36"/>
+      <c r="BY32" s="36"/>
+      <c r="BZ32" s="36"/>
+      <c r="CB32" s="44"/>
+      <c r="CC32" s="44"/>
+      <c r="CD32" s="44"/>
+      <c r="CE32" s="44"/>
+      <c r="CF32" s="44"/>
+      <c r="CG32" s="44"/>
+      <c r="CI32" s="36"/>
+      <c r="CJ32" s="36"/>
+      <c r="CK32" s="36"/>
+      <c r="CL32" s="36"/>
+      <c r="CM32" s="36"/>
+      <c r="CN32" s="36"/>
+      <c r="CO32" s="36"/>
+      <c r="CP32" s="36"/>
+      <c r="CQ32" s="36"/>
+      <c r="CR32" s="36"/>
+      <c r="CS32" s="36"/>
+      <c r="CT32" s="36"/>
       <c r="CU32" s="22"/>
     </row>
     <row r="33" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -3533,11 +3588,9 @@
       <c r="N33" s="35"/>
       <c r="O33" s="35"/>
       <c r="P33" s="1"/>
-      <c r="Q33" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="R33" s="36"/>
-      <c r="S33" s="36"/>
+      <c r="Q33" s="43"/>
+      <c r="R33" s="43"/>
+      <c r="S33" s="43"/>
       <c r="T33" s="1" t="s">
         <v>10</v>
       </c>
@@ -3561,49 +3614,47 @@
       <c r="AS33" s="35"/>
       <c r="AT33" s="35"/>
       <c r="AU33" s="1"/>
-      <c r="AV33" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="AW33" s="36"/>
-      <c r="AX33" s="36"/>
+      <c r="AV33" s="43"/>
+      <c r="AW33" s="43"/>
+      <c r="AX33" s="43"/>
       <c r="AY33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="BJ33" s="19"/>
-      <c r="BS33" s="38" t="s">
+      <c r="BS33" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="BT33" s="38"/>
-      <c r="BU33" s="38"/>
-      <c r="BV33" s="38"/>
-      <c r="BW33" s="38"/>
-      <c r="BX33" s="38"/>
-      <c r="BY33" s="38"/>
-      <c r="BZ33" s="38"/>
+      <c r="BT33" s="41"/>
+      <c r="BU33" s="41"/>
+      <c r="BV33" s="41"/>
+      <c r="BW33" s="41"/>
+      <c r="BX33" s="41"/>
+      <c r="BY33" s="41"/>
+      <c r="BZ33" s="41"/>
       <c r="CA33" s="30"/>
-      <c r="CB33" s="38" t="s">
+      <c r="CB33" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="CC33" s="38"/>
-      <c r="CD33" s="38"/>
-      <c r="CE33" s="38"/>
-      <c r="CF33" s="38"/>
-      <c r="CG33" s="38"/>
+      <c r="CC33" s="41"/>
+      <c r="CD33" s="41"/>
+      <c r="CE33" s="41"/>
+      <c r="CF33" s="41"/>
+      <c r="CG33" s="41"/>
       <c r="CH33" s="30"/>
-      <c r="CI33" s="38" t="s">
+      <c r="CI33" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="CJ33" s="38"/>
-      <c r="CK33" s="38"/>
-      <c r="CL33" s="38"/>
-      <c r="CM33" s="38"/>
-      <c r="CN33" s="38"/>
-      <c r="CO33" s="38"/>
-      <c r="CP33" s="38"/>
-      <c r="CQ33" s="38"/>
-      <c r="CR33" s="38"/>
-      <c r="CS33" s="38"/>
-      <c r="CT33" s="38"/>
+      <c r="CJ33" s="41"/>
+      <c r="CK33" s="41"/>
+      <c r="CL33" s="41"/>
+      <c r="CM33" s="41"/>
+      <c r="CN33" s="41"/>
+      <c r="CO33" s="41"/>
+      <c r="CP33" s="41"/>
+      <c r="CQ33" s="41"/>
+      <c r="CR33" s="41"/>
+      <c r="CS33" s="41"/>
+      <c r="CT33" s="41"/>
       <c r="CU33" s="22"/>
     </row>
     <row r="34" spans="1:99" s="20" customFormat="1" x14ac:dyDescent="0.2">
@@ -3617,81 +3668,81 @@
       <c r="BK34" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="BL34" s="35"/>
-      <c r="BM34" s="35"/>
+      <c r="BL34" s="36"/>
+      <c r="BM34" s="36"/>
       <c r="BN34" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="BO34" s="35"/>
-      <c r="BP34" s="35"/>
-      <c r="BQ34" s="35"/>
-      <c r="BR34" s="35"/>
-      <c r="BS34" s="35"/>
-      <c r="BT34" s="35"/>
-      <c r="BU34" s="35"/>
-      <c r="BV34" s="35"/>
-      <c r="BW34" s="35"/>
-      <c r="BX34" s="35"/>
-      <c r="BY34" s="35"/>
+      <c r="BO34" s="36"/>
+      <c r="BP34" s="36"/>
+      <c r="BQ34" s="36"/>
+      <c r="BR34" s="36"/>
+      <c r="BS34" s="36"/>
+      <c r="BT34" s="36"/>
+      <c r="BU34" s="36"/>
+      <c r="BV34" s="36"/>
+      <c r="BW34" s="36"/>
+      <c r="BX34" s="36"/>
+      <c r="BY34" s="36"/>
       <c r="CA34" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="CB34" s="36"/>
-      <c r="CC34" s="36"/>
+      <c r="CB34" s="37"/>
+      <c r="CC34" s="37"/>
       <c r="CD34" s="20" t="s">
         <v>10</v>
       </c>
       <c r="CU34" s="22"/>
     </row>
     <row r="35" spans="1:99" ht="16.5" x14ac:dyDescent="0.4">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="84" t="s">
         <v>58</v>
       </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="35"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="35"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="V35" s="37"/>
-      <c r="W35" s="37"/>
-      <c r="X35" s="37"/>
-      <c r="Y35" s="37"/>
-      <c r="Z35" s="37"/>
-      <c r="AA35" s="37"/>
-      <c r="AB35" s="37"/>
-      <c r="AC35" s="37"/>
-      <c r="AD35" s="37"/>
-      <c r="AE35" s="37"/>
-      <c r="AF35" s="37"/>
-      <c r="AG35" s="37"/>
-      <c r="AI35" s="35"/>
-      <c r="AJ35" s="35"/>
-      <c r="AK35" s="35"/>
-      <c r="AL35" s="35"/>
-      <c r="AM35" s="35"/>
-      <c r="AN35" s="35"/>
-      <c r="AO35" s="35"/>
-      <c r="AP35" s="35"/>
-      <c r="AQ35" s="35"/>
-      <c r="AR35" s="35"/>
-      <c r="AS35" s="35"/>
-      <c r="AT35" s="35"/>
-      <c r="AU35" s="35"/>
-      <c r="AV35" s="35"/>
-      <c r="AW35" s="35"/>
-      <c r="AX35" s="35"/>
-      <c r="AY35" s="35"/>
-      <c r="AZ35" s="35"/>
-      <c r="BA35" s="35"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
+      <c r="V35" s="39"/>
+      <c r="W35" s="39"/>
+      <c r="X35" s="39"/>
+      <c r="Y35" s="39"/>
+      <c r="Z35" s="39"/>
+      <c r="AA35" s="39"/>
+      <c r="AB35" s="39"/>
+      <c r="AC35" s="39"/>
+      <c r="AD35" s="39"/>
+      <c r="AE35" s="39"/>
+      <c r="AF35" s="39"/>
+      <c r="AG35" s="39"/>
+      <c r="AI35" s="40"/>
+      <c r="AJ35" s="40"/>
+      <c r="AK35" s="40"/>
+      <c r="AL35" s="40"/>
+      <c r="AM35" s="40"/>
+      <c r="AN35" s="40"/>
+      <c r="AO35" s="40"/>
+      <c r="AP35" s="40"/>
+      <c r="AQ35" s="40"/>
+      <c r="AR35" s="40"/>
+      <c r="AS35" s="40"/>
+      <c r="AT35" s="40"/>
+      <c r="AU35" s="40"/>
+      <c r="AV35" s="40"/>
+      <c r="AW35" s="40"/>
+      <c r="AX35" s="40"/>
+      <c r="AY35" s="40"/>
+      <c r="AZ35" s="40"/>
+      <c r="BA35" s="40"/>
       <c r="BJ35" s="32"/>
       <c r="BK35" s="33"/>
       <c r="BL35" s="33"/>
@@ -3732,57 +3783,57 @@
       <c r="CU35" s="34"/>
     </row>
     <row r="36" spans="1:99" s="14" customFormat="1" ht="10.5" x14ac:dyDescent="0.2">
-      <c r="G36" s="38" t="s">
+      <c r="G36" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38"/>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="38"/>
-      <c r="T36" s="38"/>
-      <c r="V36" s="39" t="s">
+      <c r="H36" s="41"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="41"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
+      <c r="M36" s="41"/>
+      <c r="N36" s="41"/>
+      <c r="O36" s="41"/>
+      <c r="P36" s="41"/>
+      <c r="Q36" s="41"/>
+      <c r="R36" s="41"/>
+      <c r="S36" s="41"/>
+      <c r="T36" s="41"/>
+      <c r="V36" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="W36" s="39"/>
-      <c r="X36" s="39"/>
-      <c r="Y36" s="39"/>
-      <c r="Z36" s="39"/>
-      <c r="AA36" s="39"/>
-      <c r="AB36" s="39"/>
-      <c r="AC36" s="39"/>
-      <c r="AD36" s="39"/>
-      <c r="AE36" s="39"/>
-      <c r="AF36" s="39"/>
-      <c r="AG36" s="39"/>
-      <c r="AI36" s="39" t="s">
+      <c r="W36" s="42"/>
+      <c r="X36" s="42"/>
+      <c r="Y36" s="42"/>
+      <c r="Z36" s="42"/>
+      <c r="AA36" s="42"/>
+      <c r="AB36" s="42"/>
+      <c r="AC36" s="42"/>
+      <c r="AD36" s="42"/>
+      <c r="AE36" s="42"/>
+      <c r="AF36" s="42"/>
+      <c r="AG36" s="42"/>
+      <c r="AI36" s="42" t="s">
         <v>25</v>
       </c>
-      <c r="AJ36" s="39"/>
-      <c r="AK36" s="39"/>
-      <c r="AL36" s="39"/>
-      <c r="AM36" s="39"/>
-      <c r="AN36" s="39"/>
-      <c r="AO36" s="39"/>
-      <c r="AP36" s="39"/>
-      <c r="AQ36" s="39"/>
-      <c r="AR36" s="39"/>
-      <c r="AS36" s="39"/>
-      <c r="AT36" s="39"/>
-      <c r="AU36" s="39"/>
-      <c r="AV36" s="39"/>
-      <c r="AW36" s="39"/>
-      <c r="AX36" s="39"/>
-      <c r="AY36" s="39"/>
-      <c r="AZ36" s="39"/>
-      <c r="BA36" s="39"/>
+      <c r="AJ36" s="42"/>
+      <c r="AK36" s="42"/>
+      <c r="AL36" s="42"/>
+      <c r="AM36" s="42"/>
+      <c r="AN36" s="42"/>
+      <c r="AO36" s="42"/>
+      <c r="AP36" s="42"/>
+      <c r="AQ36" s="42"/>
+      <c r="AR36" s="42"/>
+      <c r="AS36" s="42"/>
+      <c r="AT36" s="42"/>
+      <c r="AU36" s="42"/>
+      <c r="AV36" s="42"/>
+      <c r="AW36" s="42"/>
+      <c r="AX36" s="42"/>
+      <c r="AY36" s="42"/>
+      <c r="AZ36" s="42"/>
+      <c r="BA36" s="42"/>
     </row>
     <row r="37" spans="1:99" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
@@ -3804,11 +3855,9 @@
       <c r="M37" s="35"/>
       <c r="N37" s="35"/>
       <c r="O37" s="35"/>
-      <c r="Q37" s="74" t="s">
-        <v>9</v>
-      </c>
-      <c r="R37" s="36"/>
-      <c r="S37" s="36"/>
+      <c r="Q37" s="43"/>
+      <c r="R37" s="43"/>
+      <c r="S37" s="43"/>
       <c r="T37" s="1" t="s">
         <v>10</v>
       </c>
@@ -3933,16 +3982,15 @@
     <mergeCell ref="CI32:CT32"/>
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="E33:O33"/>
-    <mergeCell ref="R33:S33"/>
     <mergeCell ref="AG33:AH33"/>
     <mergeCell ref="AJ33:AT33"/>
-    <mergeCell ref="AW33:AX33"/>
     <mergeCell ref="BS33:BZ33"/>
     <mergeCell ref="CB33:CG33"/>
     <mergeCell ref="CI33:CT33"/>
+    <mergeCell ref="Q33:S33"/>
+    <mergeCell ref="AV33:AX33"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="E37:O37"/>
-    <mergeCell ref="R37:S37"/>
     <mergeCell ref="BL34:BM34"/>
     <mergeCell ref="BO34:BY34"/>
     <mergeCell ref="CB34:CC34"/>
@@ -3952,6 +4000,7 @@
     <mergeCell ref="G36:T36"/>
     <mergeCell ref="V36:AG36"/>
     <mergeCell ref="AI36:BA36"/>
+    <mergeCell ref="Q37:S37"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.78740157480314965" bottom="0.39370078740157483" header="0.27559055118110237" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
